--- a/REGULAR/ROCILLO, CECILIA.xlsx
+++ b/REGULAR/ROCILLO, CECILIA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\REGULAR\ACCOUNTING\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\REGULAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD432B0D-2615-434A-ACA5-FA1DA7D59D7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DD542D2-CFBE-4196-BD38-1A523F81AE1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{2C4B9B69-0AD3-46D4-A495-D1BDE1D16EC6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{2C4B9B69-0AD3-46D4-A495-D1BDE1D16EC6}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="778" uniqueCount="427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="779" uniqueCount="428">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1316,6 +1316,9 @@
   </si>
   <si>
     <t>1 - Married (and not separated)</t>
+  </si>
+  <si>
+    <t>TOTAL LEAVE</t>
   </si>
 </sst>
 </file>
@@ -4106,7 +4109,7 @@
   </sheetPr>
   <dimension ref="A2:K682"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3576" topLeftCell="A605" activePane="bottomLeft"/>
       <selection activeCell="E10" sqref="E10"/>
       <selection pane="bottomLeft" activeCell="K618" sqref="K618"/>
@@ -19214,8 +19217,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -19313,6 +19316,9 @@
       <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>427</v>
+      </c>
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -19334,6 +19340,10 @@
       <c r="L6" s="63"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="11">
+        <f>SUM(Sheet1!E9,Sheet1!I9)</f>
+        <v>152.1570000000001</v>
+      </c>
       <c r="C7" s="37">
         <v>1</v>
       </c>

--- a/REGULAR/ROCILLO, CECILIA.xlsx
+++ b/REGULAR/ROCILLO, CECILIA.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\REGULAR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DD542D2-CFBE-4196-BD38-1A523F81AE1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{2C4B9B69-0AD3-46D4-A495-D1BDE1D16EC6}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -25,7 +24,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="779" uniqueCount="428">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="780" uniqueCount="428">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1324,7 +1323,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1761,7 +1760,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="164" formatCode="0.000"/>
@@ -1836,7 +1834,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="164" formatCode="0.000"/>
@@ -1904,7 +1901,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -2146,7 +2142,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -2194,7 +2189,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2237,7 +2232,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2301,7 +2296,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2361,7 +2356,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2427,7 +2422,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2490,7 +2485,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2588,7 +2583,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2647,7 +2642,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2712,7 +2707,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2755,7 +2750,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2830,7 +2825,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3016,7 +3011,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3082,7 +3077,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3140,7 +3135,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3206,7 +3201,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3262,7 +3257,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3337,7 +3332,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3380,7 +3375,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3446,7 +3441,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3502,7 +3497,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3600,7 +3595,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3663,7 +3658,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3729,25 +3724,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D52DCCA-84C7-4E23-9F01-BAD20F9E44D8}" name="Table1" displayName="Table1" ref="A8:K682" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K682" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{29298656-164E-44DD-A190-558D78410746}" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{653A013C-2253-41B2-B51E-E0CEE6FCA4B9}" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{23618FA7-8FE1-47F3-A791-7E4F2612427B}" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{BA6D2C36-5CF4-40D7-AFDD-218AEBB26721}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{44B79BA7-06A4-4888-BFE5-96396FB13C9E}" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{1A20B288-1D72-4858-B3C2-871EB9CF011E}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{16E84B2D-53AC-4AEA-B1BC-1BC1E2E9B51B}" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{A10DEDBF-F571-4518-A832-0B75654FC984}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" xr3:uid="{9E225A68-4AC2-420E-B4D1-1378612CB5CD}" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{715FA023-3759-440B-8D8E-42D3E30EC36F}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" xr3:uid="{7E55BDC4-4FFC-4009-94E5-7F3F3565D56A}" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -3759,13 +3754,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{CB44E398-F318-4683-B466-030B39F69924}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3" xr:uid="{CB44E398-F318-4683-B466-030B39F69924}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{1CAFD6A5-0771-4D4F-B29C-8C8A4BD59DAD}" name="DAYS"/>
-    <tableColumn id="2" xr3:uid="{D6E424DD-7C72-4461-BBE2-CD59B37123B3}" name="HOURS"/>
-    <tableColumn id="3" xr3:uid="{20858E5D-6D7D-4382-8DBC-1FD4091C418E}" name="MINUTES"/>
-    <tableColumn id="4" xr3:uid="{7FA7784E-0318-4F9C-9B40-57F4F3F3FD45}" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" name="DAYS"/>
+    <tableColumn id="2" name="HOURS"/>
+    <tableColumn id="3" name="MINUTES"/>
+    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3774,14 +3769,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{CB4120CB-17DA-4A84-90C5-840D28205819}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3" xr:uid="{CB4120CB-17DA-4A84-90C5-840D28205819}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{6D76F81F-2FB2-4658-9985-FB0CE23F1771}" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{40B8C089-638A-4D13-9FCC-740888AE7704}" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{C3A40ACA-C07A-4798-82C2-714BDF47B4DB}" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4085,7 +4080,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D098C40-D36A-4A12-B6E1-6D049DE49862}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -4095,7 +4090,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4103,34 +4098,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0FF8E2B-FA0C-43AD-94F6-3305AF75672F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K682"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3576" topLeftCell="A605" activePane="bottomLeft"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3690" topLeftCell="A605" activePane="bottomLeft"/>
       <selection activeCell="E10" sqref="E10"/>
-      <selection pane="bottomLeft" activeCell="K618" sqref="K618"/>
+      <selection pane="bottomLeft" activeCell="B620" sqref="B620"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.77734375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.77734375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -4153,7 +4148,7 @@
       <c r="J2" s="54"/>
       <c r="K2" s="55"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -4173,7 +4168,7 @@
       <c r="J3" s="56"/>
       <c r="K3" s="57"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -4195,7 +4190,7 @@
       <c r="J4" s="58"/>
       <c r="K4" s="59"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -4203,7 +4198,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -4216,7 +4211,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="52" t="s">
@@ -4233,7 +4228,7 @@
       <c r="J7" s="52"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -4268,7 +4263,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -4277,7 +4272,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>47.247000000000085</v>
+        <v>48.497000000000085</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -4287,12 +4282,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>104.91</v>
+        <v>105.16</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="47" t="s">
         <v>42</v>
       </c>
@@ -4314,7 +4309,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>35796</v>
       </c>
@@ -4340,7 +4335,7 @@
         <v>35821</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40"/>
       <c r="B12" s="20" t="s">
         <v>47</v>
@@ -4360,7 +4355,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <v>35827</v>
       </c>
@@ -4386,7 +4381,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40"/>
       <c r="B14" s="20" t="s">
         <v>48</v>
@@ -4408,7 +4403,7 @@
         <v>35842</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40"/>
       <c r="B15" s="20" t="s">
         <v>48</v>
@@ -4430,7 +4425,7 @@
         <v>35852</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="40"/>
       <c r="B16" s="20" t="s">
         <v>51</v>
@@ -4450,7 +4445,7 @@
       <c r="J16" s="11"/>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40">
         <v>35855</v>
       </c>
@@ -4476,7 +4471,7 @@
         <v>35864</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40"/>
       <c r="B18" s="20" t="s">
         <v>52</v>
@@ -4496,7 +4491,7 @@
         <v>35878</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40"/>
       <c r="B19" s="20" t="s">
         <v>48</v>
@@ -4518,7 +4513,7 @@
         <v>35879</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40"/>
       <c r="B20" s="20" t="s">
         <v>53</v>
@@ -4538,7 +4533,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="48"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <v>35886</v>
       </c>
@@ -4562,7 +4557,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40">
         <v>35916</v>
       </c>
@@ -4586,7 +4581,7 @@
         <v>35954</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="40"/>
       <c r="B23" s="15" t="s">
         <v>55</v>
@@ -4608,7 +4603,7 @@
         <v>35941</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40"/>
       <c r="B24" s="15" t="s">
         <v>56</v>
@@ -4628,7 +4623,7 @@
       <c r="J24" s="12"/>
       <c r="K24" s="15"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40">
         <v>35947</v>
       </c>
@@ -4652,7 +4647,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40"/>
       <c r="B26" s="15" t="s">
         <v>48</v>
@@ -4674,7 +4669,7 @@
         <v>35975</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40"/>
       <c r="B27" s="15" t="s">
         <v>59</v>
@@ -4694,7 +4689,7 @@
       <c r="J27" s="12"/>
       <c r="K27" s="49"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40">
         <v>35977</v>
       </c>
@@ -4720,7 +4715,7 @@
         <v>35982</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40"/>
       <c r="B29" s="20" t="s">
         <v>55</v>
@@ -4742,7 +4737,7 @@
         <v>35984</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40"/>
       <c r="B30" s="20" t="s">
         <v>61</v>
@@ -4764,7 +4759,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40"/>
       <c r="B31" s="20" t="s">
         <v>60</v>
@@ -4784,7 +4779,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="48"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40">
         <v>36008</v>
       </c>
@@ -4808,7 +4803,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
         <v>36039</v>
       </c>
@@ -4834,7 +4829,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40"/>
       <c r="B34" s="20" t="s">
         <v>48</v>
@@ -4854,7 +4849,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40"/>
       <c r="B35" s="20" t="s">
         <v>60</v>
@@ -4874,7 +4869,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40">
         <v>36069</v>
       </c>
@@ -4900,7 +4895,7 @@
         <v>36069</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40"/>
       <c r="B37" s="20" t="s">
         <v>65</v>
@@ -4922,7 +4917,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40"/>
       <c r="B38" s="20" t="s">
         <v>67</v>
@@ -4942,7 +4937,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="48"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40">
         <v>36100</v>
       </c>
@@ -4968,7 +4963,7 @@
         <v>36111</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40"/>
       <c r="B40" s="20" t="s">
         <v>68</v>
@@ -4988,7 +4983,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="48"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40">
         <v>36130</v>
       </c>
@@ -5014,7 +5009,7 @@
         <v>36130</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40"/>
       <c r="B42" s="20" t="s">
         <v>55</v>
@@ -5036,7 +5031,7 @@
         <v>36157</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40"/>
       <c r="B43" s="20" t="s">
         <v>69</v>
@@ -5056,7 +5051,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="48"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="47" t="s">
         <v>70</v>
       </c>
@@ -5074,7 +5069,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="48"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40">
         <v>36161</v>
       </c>
@@ -5100,7 +5095,7 @@
         <v>36166</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40"/>
       <c r="B46" s="20" t="s">
         <v>55</v>
@@ -5122,7 +5117,7 @@
         <v>36189</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40"/>
       <c r="B47" s="20" t="s">
         <v>48</v>
@@ -5142,7 +5137,7 @@
         <v>36185</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40"/>
       <c r="B48" s="20" t="s">
         <v>71</v>
@@ -5162,7 +5157,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="48"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40">
         <v>36192</v>
       </c>
@@ -5186,7 +5181,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40">
         <v>36220</v>
       </c>
@@ -5212,7 +5207,7 @@
         <v>36244</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40"/>
       <c r="B51" s="20" t="s">
         <v>73</v>
@@ -5232,7 +5227,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="48"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40">
         <v>36251</v>
       </c>
@@ -5258,7 +5253,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40"/>
       <c r="B53" s="20" t="s">
         <v>48</v>
@@ -5280,7 +5275,7 @@
         <v>36269</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40"/>
       <c r="B54" s="20" t="s">
         <v>76</v>
@@ -5300,7 +5295,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40">
         <v>36281</v>
       </c>
@@ -5326,7 +5321,7 @@
         <v>36306</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40"/>
       <c r="B56" s="20" t="s">
         <v>48</v>
@@ -5346,7 +5341,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="48"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40"/>
       <c r="B57" s="20" t="s">
         <v>77</v>
@@ -5366,7 +5361,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="48"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40">
         <v>36312</v>
       </c>
@@ -5390,7 +5385,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40"/>
       <c r="B59" s="20" t="s">
         <v>74</v>
@@ -5412,7 +5407,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40"/>
       <c r="B60" s="20" t="s">
         <v>79</v>
@@ -5432,7 +5427,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40">
         <v>36342</v>
       </c>
@@ -5458,7 +5453,7 @@
         <v>36368</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40"/>
       <c r="B62" s="20" t="s">
         <v>48</v>
@@ -5480,7 +5475,7 @@
         <v>36370</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40"/>
       <c r="B63" s="20" t="s">
         <v>80</v>
@@ -5500,7 +5495,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="48"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40">
         <v>36373</v>
       </c>
@@ -5524,7 +5519,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40">
         <v>36404</v>
       </c>
@@ -5548,7 +5543,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40"/>
       <c r="B66" s="20" t="s">
         <v>52</v>
@@ -5568,7 +5563,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40">
         <v>36434</v>
       </c>
@@ -5592,7 +5587,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40"/>
       <c r="B68" s="20" t="s">
         <v>48</v>
@@ -5614,7 +5609,7 @@
         <v>36459</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40"/>
       <c r="B69" s="20" t="s">
         <v>48</v>
@@ -5636,7 +5631,7 @@
         <v>36473</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40">
         <v>36465</v>
       </c>
@@ -5662,7 +5657,7 @@
         <v>36481</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40"/>
       <c r="B71" s="20" t="s">
         <v>52</v>
@@ -5682,7 +5677,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40"/>
       <c r="B72" s="20" t="s">
         <v>48</v>
@@ -5700,7 +5695,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="48"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40"/>
       <c r="B73" s="20" t="s">
         <v>48</v>
@@ -5718,7 +5713,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="48"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40"/>
       <c r="B74" s="20" t="s">
         <v>85</v>
@@ -5736,7 +5731,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="48"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40">
         <v>36495</v>
       </c>
@@ -5762,7 +5757,7 @@
         <v>36511</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40"/>
       <c r="B76" s="20" t="s">
         <v>48</v>
@@ -5782,7 +5777,7 @@
         <v>36511</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40"/>
       <c r="B77" s="20" t="s">
         <v>86</v>
@@ -5802,7 +5797,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="48"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="47" t="s">
         <v>87</v>
       </c>
@@ -5820,7 +5815,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="48"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40">
         <v>36526</v>
       </c>
@@ -5846,7 +5841,7 @@
         <v>36532</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40"/>
       <c r="B80" s="20" t="s">
         <v>88</v>
@@ -5868,7 +5863,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40"/>
       <c r="B81" s="20" t="s">
         <v>68</v>
@@ -5888,7 +5883,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="48"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40">
         <v>36557</v>
       </c>
@@ -5914,7 +5909,7 @@
         <v>36573</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40"/>
       <c r="B83" s="20" t="s">
         <v>55</v>
@@ -5936,7 +5931,7 @@
         <v>36580</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40"/>
       <c r="B84" s="20" t="s">
         <v>52</v>
@@ -5956,7 +5951,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40"/>
       <c r="B85" s="20" t="s">
         <v>90</v>
@@ -5976,7 +5971,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="48"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40">
         <v>36586</v>
       </c>
@@ -6000,7 +5995,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40">
         <v>36617</v>
       </c>
@@ -6024,7 +6019,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40"/>
       <c r="B88" s="20" t="s">
         <v>95</v>
@@ -6044,7 +6039,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40">
         <v>36647</v>
       </c>
@@ -6068,7 +6063,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40">
         <v>36678</v>
       </c>
@@ -6092,7 +6087,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40"/>
       <c r="B91" s="20" t="s">
         <v>97</v>
@@ -6112,7 +6107,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40">
         <v>36708</v>
       </c>
@@ -6136,7 +6131,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40">
         <v>36739</v>
       </c>
@@ -6162,7 +6157,7 @@
         <v>36753</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40"/>
       <c r="B94" s="20" t="s">
         <v>99</v>
@@ -6182,7 +6177,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="48"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40">
         <v>36770</v>
       </c>
@@ -6206,7 +6201,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40">
         <v>36800</v>
       </c>
@@ -6232,7 +6227,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40"/>
       <c r="B97" s="20" t="s">
         <v>48</v>
@@ -6254,7 +6249,7 @@
         <v>36816</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40"/>
       <c r="B98" s="20" t="s">
         <v>48</v>
@@ -6276,7 +6271,7 @@
         <v>36824</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40"/>
       <c r="B99" s="20" t="s">
         <v>102</v>
@@ -6296,7 +6291,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="48"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40">
         <v>36831</v>
       </c>
@@ -6322,7 +6317,7 @@
         <v>36852</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40"/>
       <c r="B101" s="20" t="s">
         <v>103</v>
@@ -6340,7 +6335,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="48"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40">
         <v>36861</v>
       </c>
@@ -6366,7 +6361,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40"/>
       <c r="B103" s="20" t="s">
         <v>48</v>
@@ -6388,7 +6383,7 @@
         <v>36887</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40"/>
       <c r="B104" s="20" t="s">
         <v>106</v>
@@ -6408,7 +6403,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="48"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40"/>
       <c r="B105" s="20" t="s">
         <v>107</v>
@@ -6428,7 +6423,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="48"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="47" t="s">
         <v>105</v>
       </c>
@@ -6446,7 +6441,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="48"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40">
         <v>36892</v>
       </c>
@@ -6472,7 +6467,7 @@
         <v>36913</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40"/>
       <c r="B108" s="20" t="s">
         <v>55</v>
@@ -6494,7 +6489,7 @@
         <v>36934</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40"/>
       <c r="B109" s="20" t="s">
         <v>52</v>
@@ -6514,7 +6509,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40"/>
       <c r="B110" s="20" t="s">
         <v>108</v>
@@ -6534,7 +6529,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="48"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40">
         <v>36923</v>
       </c>
@@ -6558,7 +6553,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40">
         <v>36951</v>
       </c>
@@ -6584,7 +6579,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40"/>
       <c r="B113" s="20" t="s">
         <v>111</v>
@@ -6604,7 +6599,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40">
         <v>36982</v>
       </c>
@@ -6630,7 +6625,7 @@
         <v>37009</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40">
         <v>37012</v>
       </c>
@@ -6656,7 +6651,7 @@
         <v>37020</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40"/>
       <c r="B116" s="20" t="s">
         <v>52</v>
@@ -6676,7 +6671,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40">
         <v>37043</v>
       </c>
@@ -6702,7 +6697,7 @@
         <v>37047</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40">
         <v>37073</v>
       </c>
@@ -6728,7 +6723,7 @@
         <v>37089</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40"/>
       <c r="B119" s="20" t="s">
         <v>48</v>
@@ -6748,7 +6743,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="48"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40"/>
       <c r="B120" s="20" t="s">
         <v>114</v>
@@ -6768,7 +6763,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="48"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40">
         <v>37104</v>
       </c>
@@ -6794,7 +6789,7 @@
         <v>37121</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40"/>
       <c r="B122" s="20" t="s">
         <v>48</v>
@@ -6816,7 +6811,7 @@
         <v>37119</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40"/>
       <c r="B123" s="20" t="s">
         <v>115</v>
@@ -6836,7 +6831,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="48"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40">
         <v>37135</v>
       </c>
@@ -6860,7 +6855,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40"/>
       <c r="B125" s="20" t="s">
         <v>52</v>
@@ -6880,7 +6875,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40">
         <v>37165</v>
       </c>
@@ -6906,7 +6901,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40"/>
       <c r="B127" s="20" t="s">
         <v>88</v>
@@ -6928,7 +6923,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40"/>
       <c r="B128" s="20" t="s">
         <v>48</v>
@@ -6950,7 +6945,7 @@
         <v>37183</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40"/>
       <c r="B129" s="20" t="s">
         <v>74</v>
@@ -6972,7 +6967,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40"/>
       <c r="B130" s="20" t="s">
         <v>119</v>
@@ -6992,7 +6987,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40">
         <v>37196</v>
       </c>
@@ -7018,7 +7013,7 @@
         <v>37214</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="40"/>
       <c r="B132" s="20" t="s">
         <v>55</v>
@@ -7040,7 +7035,7 @@
         <v>37217</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="40"/>
       <c r="B133" s="20" t="s">
         <v>55</v>
@@ -7062,7 +7057,7 @@
         <v>37237</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="40"/>
       <c r="B134" s="20" t="s">
         <v>122</v>
@@ -7080,7 +7075,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="48"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="40">
         <v>37226</v>
       </c>
@@ -7106,7 +7101,7 @@
         <v>37232</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="40"/>
       <c r="B136" s="20" t="s">
         <v>123</v>
@@ -7126,7 +7121,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="48"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="47" t="s">
         <v>124</v>
       </c>
@@ -7144,7 +7139,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="23">
         <v>37257</v>
       </c>
@@ -7170,7 +7165,7 @@
         <v>37265</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="23"/>
       <c r="B139" s="20" t="s">
         <v>74</v>
@@ -7192,7 +7187,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="23"/>
       <c r="B140" s="20" t="s">
         <v>126</v>
@@ -7212,7 +7207,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="40">
         <v>37288</v>
       </c>
@@ -7236,7 +7231,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="40"/>
       <c r="B142" s="20" t="s">
         <v>52</v>
@@ -7256,7 +7251,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="40"/>
       <c r="B143" s="20" t="s">
         <v>74</v>
@@ -7276,7 +7271,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="40">
         <v>37316</v>
       </c>
@@ -7300,7 +7295,7 @@
       <c r="J144" s="11"/>
       <c r="K144" s="20"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="40">
         <v>37347</v>
       </c>
@@ -7326,7 +7321,7 @@
         <v>37371</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="40"/>
       <c r="B146" s="20" t="s">
         <v>131</v>
@@ -7346,7 +7341,7 @@
       <c r="J146" s="11"/>
       <c r="K146" s="48"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="40">
         <v>37377</v>
       </c>
@@ -7372,7 +7367,7 @@
         <v>37408</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="40"/>
       <c r="B148" s="20" t="s">
         <v>132</v>
@@ -7392,7 +7387,7 @@
       <c r="J148" s="11"/>
       <c r="K148" s="48"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="40">
         <v>37408</v>
       </c>
@@ -7418,7 +7413,7 @@
         <v>37424</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="40"/>
       <c r="B150" s="20" t="s">
         <v>133</v>
@@ -7438,7 +7433,7 @@
       <c r="J150" s="11"/>
       <c r="K150" s="48"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="40"/>
       <c r="B151" s="20" t="s">
         <v>52</v>
@@ -7458,7 +7453,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="40">
         <v>37438</v>
       </c>
@@ -7484,7 +7479,7 @@
         <v>37464</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="40"/>
       <c r="B153" s="20" t="s">
         <v>135</v>
@@ -7504,7 +7499,7 @@
       <c r="J153" s="11"/>
       <c r="K153" s="48"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="40">
         <v>37469</v>
       </c>
@@ -7530,7 +7525,7 @@
         <v>37477</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="40"/>
       <c r="B155" s="20" t="s">
         <v>136</v>
@@ -7550,7 +7545,7 @@
       <c r="J155" s="11"/>
       <c r="K155" s="48"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="40">
         <v>37500</v>
       </c>
@@ -7574,7 +7569,7 @@
       <c r="J156" s="11"/>
       <c r="K156" s="20"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="40"/>
       <c r="B157" s="20" t="s">
         <v>52</v>
@@ -7594,7 +7589,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="40">
         <v>37530</v>
       </c>
@@ -7618,7 +7613,7 @@
       <c r="J158" s="11"/>
       <c r="K158" s="20"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="40"/>
       <c r="B159" s="20" t="s">
         <v>48</v>
@@ -7640,7 +7635,7 @@
         <v>37537</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="40"/>
       <c r="B160" s="20" t="s">
         <v>88</v>
@@ -7662,7 +7657,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="40"/>
       <c r="B161" s="20" t="s">
         <v>48</v>
@@ -7684,7 +7679,7 @@
         <v>37554</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="40"/>
       <c r="B162" s="20" t="s">
         <v>55</v>
@@ -7706,7 +7701,7 @@
         <v>37582</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="40"/>
       <c r="B163" s="20" t="s">
         <v>140</v>
@@ -7726,7 +7721,7 @@
       <c r="J163" s="11"/>
       <c r="K163" s="48"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="40">
         <v>37561</v>
       </c>
@@ -7752,7 +7747,7 @@
         <v>37575</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="40"/>
       <c r="B165" s="20" t="s">
         <v>141</v>
@@ -7772,7 +7767,7 @@
       <c r="J165" s="11"/>
       <c r="K165" s="48"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="40">
         <v>37591</v>
       </c>
@@ -7798,7 +7793,7 @@
         <v>37602</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="40"/>
       <c r="B167" s="20" t="s">
         <v>49</v>
@@ -7820,7 +7815,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="40"/>
       <c r="B168" s="20" t="s">
         <v>74</v>
@@ -7842,7 +7837,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="40"/>
       <c r="B169" s="20" t="s">
         <v>142</v>
@@ -7862,7 +7857,7 @@
       <c r="J169" s="11"/>
       <c r="K169" s="20"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="47" t="s">
         <v>145</v>
       </c>
@@ -7880,7 +7875,7 @@
       <c r="J170" s="11"/>
       <c r="K170" s="20"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="40">
         <v>37622</v>
       </c>
@@ -7906,7 +7901,7 @@
         <v>37638</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="40"/>
       <c r="B172" s="20" t="s">
         <v>52</v>
@@ -7926,7 +7921,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="40"/>
       <c r="B173" s="20" t="s">
         <v>48</v>
@@ -7948,7 +7943,7 @@
         <v>37651</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="40"/>
       <c r="B174" s="20" t="s">
         <v>48</v>
@@ -7970,7 +7965,7 @@
         <v>37655</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="40"/>
       <c r="B175" s="20" t="s">
         <v>147</v>
@@ -7990,7 +7985,7 @@
       <c r="J175" s="11"/>
       <c r="K175" s="20"/>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="40">
         <v>37653</v>
       </c>
@@ -8014,7 +8009,7 @@
       <c r="J176" s="11"/>
       <c r="K176" s="20"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="40">
         <v>37681</v>
       </c>
@@ -8038,7 +8033,7 @@
       <c r="J177" s="11"/>
       <c r="K177" s="20"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="40"/>
       <c r="B178" s="20" t="s">
         <v>52</v>
@@ -8058,7 +8053,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="40">
         <v>37712</v>
       </c>
@@ -8084,7 +8079,7 @@
         <v>37713</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="40"/>
       <c r="B180" s="20" t="s">
         <v>150</v>
@@ -8104,7 +8099,7 @@
       <c r="J180" s="11"/>
       <c r="K180" s="48"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="40">
         <v>37742</v>
       </c>
@@ -8128,7 +8123,7 @@
       <c r="J181" s="11"/>
       <c r="K181" s="20"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="40">
         <v>37773</v>
       </c>
@@ -8154,7 +8149,7 @@
         <v>37781</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="40"/>
       <c r="B183" s="20" t="s">
         <v>48</v>
@@ -8176,7 +8171,7 @@
         <v>37802</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="40"/>
       <c r="B184" s="20" t="s">
         <v>152</v>
@@ -8196,7 +8191,7 @@
       <c r="J184" s="11"/>
       <c r="K184" s="48"/>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="40">
         <v>37803</v>
       </c>
@@ -8222,7 +8217,7 @@
         <v>37830</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="40">
         <v>37834</v>
       </c>
@@ -8248,7 +8243,7 @@
         <v>37837</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="40"/>
       <c r="B187" s="20" t="s">
         <v>153</v>
@@ -8268,7 +8263,7 @@
       <c r="J187" s="11"/>
       <c r="K187" s="48"/>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="40"/>
       <c r="B188" s="20" t="s">
         <v>52</v>
@@ -8286,7 +8281,7 @@
       <c r="J188" s="11"/>
       <c r="K188" s="48"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="40">
         <v>37865</v>
       </c>
@@ -8312,7 +8307,7 @@
         <v>37889</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="40">
         <v>37895</v>
       </c>
@@ -8338,7 +8333,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="40"/>
       <c r="B191" s="20" t="s">
         <v>48</v>
@@ -8360,7 +8355,7 @@
         <v>37914</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="40"/>
       <c r="B192" s="20" t="s">
         <v>48</v>
@@ -8382,7 +8377,7 @@
         <v>37916</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="40"/>
       <c r="B193" s="20" t="s">
         <v>155</v>
@@ -8402,7 +8397,7 @@
       <c r="J193" s="11"/>
       <c r="K193" s="48"/>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="40">
         <v>37926</v>
       </c>
@@ -8426,7 +8421,7 @@
       <c r="J194" s="11"/>
       <c r="K194" s="20"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="40">
         <v>37956</v>
       </c>
@@ -8452,7 +8447,7 @@
         <v>37958</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="40"/>
       <c r="B196" s="20" t="s">
         <v>74</v>
@@ -8474,7 +8469,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="40"/>
       <c r="B197" s="20" t="s">
         <v>48</v>
@@ -8496,7 +8491,7 @@
         <v>37973</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="40"/>
       <c r="B198" s="20" t="s">
         <v>48</v>
@@ -8518,7 +8513,7 @@
         <v>37977</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="40"/>
       <c r="B199" s="20" t="s">
         <v>158</v>
@@ -8538,7 +8533,7 @@
       <c r="J199" s="11"/>
       <c r="K199" s="20"/>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="47" t="s">
         <v>159</v>
       </c>
@@ -8556,7 +8551,7 @@
       <c r="J200" s="11"/>
       <c r="K200" s="20"/>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="40">
         <v>37987</v>
       </c>
@@ -8582,7 +8577,7 @@
         <v>37994</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="40"/>
       <c r="B202" s="20" t="s">
         <v>48</v>
@@ -8604,7 +8599,7 @@
         <v>38016</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="40"/>
       <c r="B203" s="20" t="s">
         <v>160</v>
@@ -8624,7 +8619,7 @@
       <c r="J203" s="11"/>
       <c r="K203" s="48"/>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="40">
         <v>38018</v>
       </c>
@@ -8648,7 +8643,7 @@
       <c r="J204" s="11"/>
       <c r="K204" s="48"/>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="40">
         <v>38047</v>
       </c>
@@ -8674,7 +8669,7 @@
         <v>38055</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="40"/>
       <c r="B206" s="20" t="s">
         <v>162</v>
@@ -8694,7 +8689,7 @@
       <c r="J206" s="11"/>
       <c r="K206" s="48"/>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="40">
         <v>38078</v>
       </c>
@@ -8718,7 +8713,7 @@
       <c r="J207" s="11"/>
       <c r="K207" s="20"/>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="40"/>
       <c r="B208" s="20" t="s">
         <v>52</v>
@@ -8738,7 +8733,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="40">
         <v>38108</v>
       </c>
@@ -8764,7 +8759,7 @@
         <v>38107</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="40"/>
       <c r="B210" s="20" t="s">
         <v>165</v>
@@ -8784,7 +8779,7 @@
       <c r="J210" s="11"/>
       <c r="K210" s="48"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="40">
         <v>38139</v>
       </c>
@@ -8810,7 +8805,7 @@
         <v>38156</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="40"/>
       <c r="B212" s="20" t="s">
         <v>166</v>
@@ -8830,7 +8825,7 @@
       <c r="J212" s="11"/>
       <c r="K212" s="48"/>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="40">
         <v>38169</v>
       </c>
@@ -8854,7 +8849,7 @@
       <c r="J213" s="11"/>
       <c r="K213" s="20"/>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="40"/>
       <c r="B214" s="20" t="s">
         <v>74</v>
@@ -8876,7 +8871,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="40">
         <v>38200</v>
       </c>
@@ -8900,7 +8895,7 @@
       <c r="J215" s="11"/>
       <c r="K215" s="20"/>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="40">
         <v>38231</v>
       </c>
@@ -8926,7 +8921,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="40"/>
       <c r="B217" s="20" t="s">
         <v>170</v>
@@ -8946,7 +8941,7 @@
       <c r="J217" s="11"/>
       <c r="K217" s="20"/>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="40">
         <v>38261</v>
       </c>
@@ -8970,7 +8965,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="40"/>
       <c r="B219" s="20" t="s">
         <v>48</v>
@@ -8992,7 +8987,7 @@
         <v>38281</v>
       </c>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="40"/>
       <c r="B220" s="20" t="s">
         <v>172</v>
@@ -9012,7 +9007,7 @@
       <c r="J220" s="11"/>
       <c r="K220" s="20"/>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="40">
         <v>38292</v>
       </c>
@@ -9036,7 +9031,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="40"/>
       <c r="B222" s="20" t="s">
         <v>49</v>
@@ -9058,7 +9053,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="40"/>
       <c r="B223" s="20" t="s">
         <v>174</v>
@@ -9078,7 +9073,7 @@
       <c r="J223" s="11"/>
       <c r="K223" s="20"/>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="40">
         <v>38322</v>
       </c>
@@ -9104,7 +9099,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="40"/>
       <c r="B225" s="20" t="s">
         <v>176</v>
@@ -9124,7 +9119,7 @@
       <c r="J225" s="11"/>
       <c r="K225" s="20"/>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="47" t="s">
         <v>177</v>
       </c>
@@ -9142,7 +9137,7 @@
       <c r="J226" s="11"/>
       <c r="K226" s="20"/>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="40">
         <v>38353</v>
       </c>
@@ -9166,7 +9161,7 @@
       <c r="J227" s="11"/>
       <c r="K227" s="20"/>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="40">
         <v>38384</v>
       </c>
@@ -9190,7 +9185,7 @@
       <c r="J228" s="11"/>
       <c r="K228" s="20"/>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="40">
         <v>38412</v>
       </c>
@@ -9214,7 +9209,7 @@
       <c r="J229" s="11"/>
       <c r="K229" s="20"/>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="40">
         <v>38443</v>
       </c>
@@ -9238,7 +9233,7 @@
       <c r="J230" s="11"/>
       <c r="K230" s="20"/>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="40">
         <v>38473</v>
       </c>
@@ -9262,7 +9257,7 @@
       <c r="J231" s="11"/>
       <c r="K231" s="20"/>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="40">
         <v>38504</v>
       </c>
@@ -9286,7 +9281,7 @@
       <c r="J232" s="11"/>
       <c r="K232" s="20"/>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="40">
         <v>38534</v>
       </c>
@@ -9310,7 +9305,7 @@
       <c r="J233" s="11"/>
       <c r="K233" s="20"/>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="40">
         <v>38565</v>
       </c>
@@ -9334,7 +9329,7 @@
       <c r="J234" s="11"/>
       <c r="K234" s="20"/>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="40">
         <v>38596</v>
       </c>
@@ -9360,7 +9355,7 @@
         <v>38615</v>
       </c>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="40"/>
       <c r="B236" s="20" t="s">
         <v>186</v>
@@ -9380,7 +9375,7 @@
       <c r="J236" s="11"/>
       <c r="K236" s="48"/>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="40">
         <v>38626</v>
       </c>
@@ -9404,7 +9399,7 @@
       <c r="J237" s="11"/>
       <c r="K237" s="20"/>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="40">
         <v>38657</v>
       </c>
@@ -9428,7 +9423,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="40"/>
       <c r="B239" s="20" t="s">
         <v>189</v>
@@ -9448,7 +9443,7 @@
       <c r="J239" s="11"/>
       <c r="K239" s="20"/>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="40">
         <v>38687</v>
       </c>
@@ -9472,7 +9467,7 @@
       <c r="J240" s="11"/>
       <c r="K240" s="20"/>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="40"/>
       <c r="B241" s="20" t="s">
         <v>190</v>
@@ -9492,7 +9487,7 @@
       <c r="J241" s="11"/>
       <c r="K241" s="20"/>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="47" t="s">
         <v>191</v>
       </c>
@@ -9510,7 +9505,7 @@
       <c r="J242" s="11"/>
       <c r="K242" s="20"/>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="40">
         <v>38718</v>
       </c>
@@ -9534,7 +9529,7 @@
       <c r="J243" s="11"/>
       <c r="K243" s="20"/>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="40">
         <v>38749</v>
       </c>
@@ -9558,7 +9553,7 @@
       <c r="J244" s="11"/>
       <c r="K244" s="20"/>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="40">
         <v>38777</v>
       </c>
@@ -9582,7 +9577,7 @@
       <c r="J245" s="11"/>
       <c r="K245" s="20"/>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="40">
         <v>38808</v>
       </c>
@@ -9606,7 +9601,7 @@
       <c r="J246" s="11"/>
       <c r="K246" s="20"/>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="40">
         <v>38838</v>
       </c>
@@ -9632,7 +9627,7 @@
         <v>38863</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="40"/>
       <c r="B248" s="20" t="s">
         <v>48</v>
@@ -9654,7 +9649,7 @@
         <v>38867</v>
       </c>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="40"/>
       <c r="B249" s="20" t="s">
         <v>196</v>
@@ -9674,7 +9669,7 @@
       <c r="J249" s="11"/>
       <c r="K249" s="48"/>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="40"/>
       <c r="B250" s="20" t="s">
         <v>52</v>
@@ -9694,7 +9689,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="40">
         <v>38869</v>
       </c>
@@ -9718,7 +9713,7 @@
       <c r="J251" s="11"/>
       <c r="K251" s="20"/>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="40">
         <v>38899</v>
       </c>
@@ -9742,7 +9737,7 @@
       <c r="J252" s="11"/>
       <c r="K252" s="20"/>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="40">
         <v>38930</v>
       </c>
@@ -9766,7 +9761,7 @@
       <c r="J253" s="11"/>
       <c r="K253" s="20"/>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="40">
         <v>38961</v>
       </c>
@@ -9790,7 +9785,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="40"/>
       <c r="B255" s="20" t="s">
         <v>48</v>
@@ -9810,7 +9805,7 @@
         <v>45182</v>
       </c>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="40"/>
       <c r="B256" s="20" t="s">
         <v>202</v>
@@ -9830,7 +9825,7 @@
       <c r="J256" s="11"/>
       <c r="K256" s="20"/>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="40">
         <v>38991</v>
       </c>
@@ -9856,7 +9851,7 @@
         <v>39000</v>
       </c>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="40"/>
       <c r="B258" s="20" t="s">
         <v>106</v>
@@ -9878,7 +9873,7 @@
         <v>39013</v>
       </c>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="40"/>
       <c r="B259" s="20" t="s">
         <v>52</v>
@@ -9898,7 +9893,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="40"/>
       <c r="B260" s="20" t="s">
         <v>203</v>
@@ -9918,7 +9913,7 @@
       <c r="J260" s="11"/>
       <c r="K260" s="48"/>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="40">
         <v>39022</v>
       </c>
@@ -9944,7 +9939,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="40"/>
       <c r="B262" s="20" t="s">
         <v>206</v>
@@ -9964,7 +9959,7 @@
       <c r="J262" s="11"/>
       <c r="K262" s="20"/>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="40">
         <v>39052</v>
       </c>
@@ -9988,7 +9983,7 @@
       <c r="J263" s="11"/>
       <c r="K263" s="20"/>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="47" t="s">
         <v>209</v>
       </c>
@@ -10006,7 +10001,7 @@
       <c r="J264" s="11"/>
       <c r="K264" s="20"/>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="40">
         <v>39083</v>
       </c>
@@ -10030,7 +10025,7 @@
       <c r="J265" s="11"/>
       <c r="K265" s="20"/>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="40">
         <v>39114</v>
       </c>
@@ -10054,7 +10049,7 @@
       <c r="J266" s="11"/>
       <c r="K266" s="20"/>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="40">
         <v>39142</v>
       </c>
@@ -10078,7 +10073,7 @@
       <c r="J267" s="11"/>
       <c r="K267" s="20"/>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="40">
         <v>39173</v>
       </c>
@@ -10102,7 +10097,7 @@
       <c r="J268" s="11"/>
       <c r="K268" s="20"/>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="40">
         <v>39203</v>
       </c>
@@ -10128,7 +10123,7 @@
         <v>39233</v>
       </c>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="40"/>
       <c r="B270" s="20" t="s">
         <v>74</v>
@@ -10150,7 +10145,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="40"/>
       <c r="B271" s="20" t="s">
         <v>215</v>
@@ -10170,7 +10165,7 @@
       <c r="J271" s="11"/>
       <c r="K271" s="20"/>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" s="40">
         <v>39234</v>
       </c>
@@ -10194,7 +10189,7 @@
       <c r="J272" s="11"/>
       <c r="K272" s="20"/>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="40">
         <v>39264</v>
       </c>
@@ -10220,7 +10215,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" s="40"/>
       <c r="B274" s="20" t="s">
         <v>48</v>
@@ -10242,7 +10237,7 @@
         <v>39279</v>
       </c>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="40"/>
       <c r="B275" s="20" t="s">
         <v>218</v>
@@ -10260,7 +10255,7 @@
       <c r="J275" s="11"/>
       <c r="K275" s="20"/>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" s="40">
         <v>39295</v>
       </c>
@@ -10286,7 +10281,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" s="40"/>
       <c r="B277" s="20" t="s">
         <v>219</v>
@@ -10306,7 +10301,7 @@
       <c r="J277" s="11"/>
       <c r="K277" s="20"/>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" s="40">
         <v>39326</v>
       </c>
@@ -10332,7 +10327,7 @@
         <v>39356</v>
       </c>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="40"/>
       <c r="B279" s="20" t="s">
         <v>220</v>
@@ -10352,7 +10347,7 @@
       <c r="J279" s="11"/>
       <c r="K279" s="48"/>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="40">
         <v>39356</v>
       </c>
@@ -10378,7 +10373,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" s="40"/>
       <c r="B281" s="20" t="s">
         <v>222</v>
@@ -10398,7 +10393,7 @@
       <c r="J281" s="11"/>
       <c r="K281" s="20"/>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" s="40"/>
       <c r="B282" s="20" t="s">
         <v>223</v>
@@ -10418,7 +10413,7 @@
       <c r="J282" s="11"/>
       <c r="K282" s="20"/>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" s="40">
         <v>39387</v>
       </c>
@@ -10444,7 +10439,7 @@
         <v>39408</v>
       </c>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" s="40"/>
       <c r="B284" s="15" t="s">
         <v>95</v>
@@ -10466,7 +10461,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" s="40"/>
       <c r="B285" s="15" t="s">
         <v>225</v>
@@ -10486,7 +10481,7 @@
       <c r="J285" s="12"/>
       <c r="K285" s="49"/>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" s="40">
         <v>39417</v>
       </c>
@@ -10510,7 +10505,7 @@
       <c r="J286" s="12"/>
       <c r="K286" s="15"/>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" s="47" t="s">
         <v>226</v>
       </c>
@@ -10528,7 +10523,7 @@
       <c r="J287" s="12"/>
       <c r="K287" s="15"/>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" s="40">
         <v>39448</v>
       </c>
@@ -10552,7 +10547,7 @@
       <c r="J288" s="11"/>
       <c r="K288" s="20"/>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="40">
         <v>39479</v>
       </c>
@@ -10576,7 +10571,7 @@
       <c r="J289" s="11"/>
       <c r="K289" s="20"/>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" s="40">
         <v>39508</v>
       </c>
@@ -10600,7 +10595,7 @@
       <c r="J290" s="11"/>
       <c r="K290" s="20"/>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" s="40">
         <v>39539</v>
       </c>
@@ -10626,7 +10621,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" s="40">
         <v>39569</v>
       </c>
@@ -10650,7 +10645,7 @@
       <c r="J292" s="11"/>
       <c r="K292" s="20"/>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" s="40">
         <v>39600</v>
       </c>
@@ -10674,7 +10669,7 @@
       <c r="J293" s="11"/>
       <c r="K293" s="20"/>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" s="40">
         <v>39630</v>
       </c>
@@ -10698,7 +10693,7 @@
       <c r="J294" s="11"/>
       <c r="K294" s="20"/>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" s="40">
         <v>39661</v>
       </c>
@@ -10722,7 +10717,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" s="40"/>
       <c r="B296" s="20" t="s">
         <v>234</v>
@@ -10742,7 +10737,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" s="40"/>
       <c r="B297" s="20" t="s">
         <v>236</v>
@@ -10762,7 +10757,7 @@
       <c r="J297" s="11"/>
       <c r="K297" s="20"/>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" s="40">
         <v>39692</v>
       </c>
@@ -10788,7 +10783,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" s="40"/>
       <c r="B299" s="20" t="s">
         <v>95</v>
@@ -10810,7 +10805,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" s="40"/>
       <c r="B300" s="20" t="s">
         <v>239</v>
@@ -10832,7 +10827,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" s="40"/>
       <c r="B301" s="20" t="s">
         <v>241</v>
@@ -10852,7 +10847,7 @@
       <c r="J301" s="11"/>
       <c r="K301" s="20"/>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" s="40">
         <v>39722</v>
       </c>
@@ -10878,7 +10873,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" s="40"/>
       <c r="B303" s="20" t="s">
         <v>106</v>
@@ -10900,7 +10895,7 @@
         <v>39748</v>
       </c>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" s="40"/>
       <c r="B304" s="20" t="s">
         <v>244</v>
@@ -10920,7 +10915,7 @@
       <c r="J304" s="11"/>
       <c r="K304" s="48"/>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" s="40">
         <v>39753</v>
       </c>
@@ -10946,7 +10941,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" s="40"/>
       <c r="B306" s="20" t="s">
         <v>246</v>
@@ -10966,7 +10961,7 @@
       <c r="J306" s="11"/>
       <c r="K306" s="20"/>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" s="40">
         <v>39783</v>
       </c>
@@ -10990,7 +10985,7 @@
       <c r="J307" s="11"/>
       <c r="K307" s="20"/>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" s="47" t="s">
         <v>248</v>
       </c>
@@ -11008,7 +11003,7 @@
       <c r="J308" s="11"/>
       <c r="K308" s="20"/>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" s="40">
         <v>39814</v>
       </c>
@@ -11032,7 +11027,7 @@
       <c r="J309" s="11"/>
       <c r="K309" s="20"/>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" s="40">
         <v>39845</v>
       </c>
@@ -11056,7 +11051,7 @@
       <c r="J310" s="11"/>
       <c r="K310" s="20"/>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" s="40">
         <v>39873</v>
       </c>
@@ -11080,7 +11075,7 @@
       <c r="J311" s="11"/>
       <c r="K311" s="20"/>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312" s="40">
         <v>39904</v>
       </c>
@@ -11104,7 +11099,7 @@
       <c r="J312" s="11"/>
       <c r="K312" s="20"/>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" s="40">
         <v>39934</v>
       </c>
@@ -11128,7 +11123,7 @@
       <c r="J313" s="11"/>
       <c r="K313" s="20"/>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314" s="40">
         <v>39965</v>
       </c>
@@ -11152,7 +11147,7 @@
       <c r="J314" s="11"/>
       <c r="K314" s="20"/>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" s="40">
         <v>39995</v>
       </c>
@@ -11176,7 +11171,7 @@
       <c r="J315" s="11"/>
       <c r="K315" s="20"/>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316" s="40">
         <v>40026</v>
       </c>
@@ -11202,7 +11197,7 @@
         <v>40051</v>
       </c>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317" s="40"/>
       <c r="B317" s="20" t="s">
         <v>255</v>
@@ -11222,7 +11217,7 @@
       <c r="J317" s="11"/>
       <c r="K317" s="48"/>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" s="40">
         <v>40057</v>
       </c>
@@ -11246,7 +11241,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319" s="40"/>
       <c r="B319" s="20" t="s">
         <v>74</v>
@@ -11268,7 +11263,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" s="40"/>
       <c r="B320" s="20" t="s">
         <v>257</v>
@@ -11288,7 +11283,7 @@
       <c r="J320" s="11"/>
       <c r="K320" s="20"/>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" s="40">
         <v>40087</v>
       </c>
@@ -11314,7 +11309,7 @@
         <v>40109</v>
       </c>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" s="40"/>
       <c r="B322" s="20" t="s">
         <v>48</v>
@@ -11336,7 +11331,7 @@
         <v>40105</v>
       </c>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" s="40"/>
       <c r="B323" s="20" t="s">
         <v>258</v>
@@ -11356,7 +11351,7 @@
       <c r="J323" s="11"/>
       <c r="K323" s="48"/>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" s="40">
         <v>40118</v>
       </c>
@@ -11380,7 +11375,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325" s="40"/>
       <c r="B325" s="20" t="s">
         <v>260</v>
@@ -11400,7 +11395,7 @@
       <c r="J325" s="11"/>
       <c r="K325" s="20"/>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" s="40">
         <v>40148</v>
       </c>
@@ -11426,7 +11421,7 @@
         <v>40170</v>
       </c>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" s="40"/>
       <c r="B327" s="20" t="s">
         <v>261</v>
@@ -11448,7 +11443,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" s="40"/>
       <c r="B328" s="20" t="s">
         <v>178</v>
@@ -11468,7 +11463,7 @@
       <c r="J328" s="11"/>
       <c r="K328" s="48"/>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329" s="47" t="s">
         <v>263</v>
       </c>
@@ -11488,7 +11483,7 @@
       <c r="J329" s="11"/>
       <c r="K329" s="20"/>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" s="23">
         <v>40179</v>
       </c>
@@ -11510,7 +11505,7 @@
       <c r="J330" s="11"/>
       <c r="K330" s="20"/>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331" s="40">
         <v>40210</v>
       </c>
@@ -11534,7 +11529,7 @@
       <c r="J331" s="11"/>
       <c r="K331" s="20"/>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332" s="40">
         <v>40238</v>
       </c>
@@ -11558,7 +11553,7 @@
       <c r="J332" s="11"/>
       <c r="K332" s="20"/>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A333" s="40">
         <v>40269</v>
       </c>
@@ -11582,7 +11577,7 @@
       <c r="J333" s="11"/>
       <c r="K333" s="20"/>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A334" s="40">
         <v>40299</v>
       </c>
@@ -11608,7 +11603,7 @@
         <v>40326</v>
       </c>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A335" s="40"/>
       <c r="B335" s="20" t="s">
         <v>268</v>
@@ -11628,7 +11623,7 @@
       <c r="J335" s="11"/>
       <c r="K335" s="48"/>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A336" s="40">
         <v>40330</v>
       </c>
@@ -11652,7 +11647,7 @@
       <c r="J336" s="11"/>
       <c r="K336" s="20"/>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A337" s="40">
         <v>40360</v>
       </c>
@@ -11676,7 +11671,7 @@
       <c r="J337" s="11"/>
       <c r="K337" s="20"/>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A338" s="40">
         <v>40391</v>
       </c>
@@ -11700,7 +11695,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A339" s="40"/>
       <c r="B339" s="20" t="s">
         <v>272</v>
@@ -11720,7 +11715,7 @@
       <c r="J339" s="11"/>
       <c r="K339" s="20"/>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A340" s="40">
         <v>40422</v>
       </c>
@@ -11746,7 +11741,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A341" s="40"/>
       <c r="B341" s="20" t="s">
         <v>274</v>
@@ -11766,7 +11761,7 @@
       <c r="J341" s="11"/>
       <c r="K341" s="20"/>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A342" s="40">
         <v>40452</v>
       </c>
@@ -11792,7 +11787,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A343" s="40"/>
       <c r="B343" s="20" t="s">
         <v>276</v>
@@ -11812,7 +11807,7 @@
       <c r="J343" s="11"/>
       <c r="K343" s="20"/>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A344" s="40">
         <v>40483</v>
       </c>
@@ -11836,7 +11831,7 @@
       <c r="J344" s="11"/>
       <c r="K344" s="20"/>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A345" s="40">
         <v>40513</v>
       </c>
@@ -11862,7 +11857,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A346" s="40"/>
       <c r="B346" s="20" t="s">
         <v>278</v>
@@ -11882,7 +11877,7 @@
       <c r="J346" s="11"/>
       <c r="K346" s="20"/>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A347" s="47" t="s">
         <v>279</v>
       </c>
@@ -11900,7 +11895,7 @@
       <c r="J347" s="11"/>
       <c r="K347" s="20"/>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A348" s="40">
         <v>40544</v>
       </c>
@@ -11924,7 +11919,7 @@
       <c r="J348" s="11"/>
       <c r="K348" s="20"/>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A349" s="40">
         <v>40575</v>
       </c>
@@ -11948,7 +11943,7 @@
       <c r="J349" s="11"/>
       <c r="K349" s="20"/>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A350" s="40">
         <v>40603</v>
       </c>
@@ -11972,7 +11967,7 @@
       <c r="J350" s="11"/>
       <c r="K350" s="20"/>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A351" s="40">
         <v>40634</v>
       </c>
@@ -11996,7 +11991,7 @@
       <c r="J351" s="11"/>
       <c r="K351" s="20"/>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A352" s="40">
         <v>40664</v>
       </c>
@@ -12020,7 +12015,7 @@
       <c r="J352" s="11"/>
       <c r="K352" s="20"/>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A353" s="40">
         <v>40695</v>
       </c>
@@ -12046,7 +12041,7 @@
         <v>40725</v>
       </c>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A354" s="40"/>
       <c r="B354" s="20" t="s">
         <v>210</v>
@@ -12066,7 +12061,7 @@
       <c r="J354" s="11"/>
       <c r="K354" s="48"/>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A355" s="40">
         <v>40725</v>
       </c>
@@ -12090,7 +12085,7 @@
       <c r="J355" s="11"/>
       <c r="K355" s="20"/>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A356" s="40">
         <v>40756</v>
       </c>
@@ -12114,7 +12109,7 @@
       <c r="J356" s="11"/>
       <c r="K356" s="20"/>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A357" s="40">
         <v>40787</v>
       </c>
@@ -12140,7 +12135,7 @@
         <v>40764</v>
       </c>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A358" s="40"/>
       <c r="B358" s="20" t="s">
         <v>48</v>
@@ -12162,7 +12157,7 @@
         <v>40804</v>
       </c>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A359" s="40"/>
       <c r="B359" s="20" t="s">
         <v>287</v>
@@ -12182,7 +12177,7 @@
       <c r="J359" s="11"/>
       <c r="K359" s="48"/>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A360" s="40">
         <v>40817</v>
       </c>
@@ -12208,7 +12203,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A361" s="40"/>
       <c r="B361" s="20" t="s">
         <v>74</v>
@@ -12230,7 +12225,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A362" s="40"/>
       <c r="B362" s="20" t="s">
         <v>48</v>
@@ -12252,7 +12247,7 @@
         <v>40835</v>
       </c>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A363" s="40"/>
       <c r="B363" s="20" t="s">
         <v>290</v>
@@ -12272,7 +12267,7 @@
       <c r="J363" s="11"/>
       <c r="K363" s="20"/>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A364" s="40">
         <v>40848</v>
       </c>
@@ -12298,7 +12293,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A365" s="40"/>
       <c r="B365" s="20" t="s">
         <v>261</v>
@@ -12320,7 +12315,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A366" s="40"/>
       <c r="B366" s="20" t="s">
         <v>292</v>
@@ -12340,7 +12335,7 @@
       <c r="J366" s="11"/>
       <c r="K366" s="20"/>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A367" s="40">
         <v>40878</v>
       </c>
@@ -12364,7 +12359,7 @@
       <c r="J367" s="11"/>
       <c r="K367" s="20"/>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A368" s="40"/>
       <c r="B368" s="20" t="s">
         <v>74</v>
@@ -12386,7 +12381,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A369" s="47" t="s">
         <v>295</v>
       </c>
@@ -12404,7 +12399,7 @@
       <c r="J369" s="11"/>
       <c r="K369" s="20"/>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A370" s="40">
         <v>40909</v>
       </c>
@@ -12428,7 +12423,7 @@
       <c r="J370" s="11"/>
       <c r="K370" s="20"/>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A371" s="40">
         <v>40940</v>
       </c>
@@ -12452,7 +12447,7 @@
       <c r="J371" s="11"/>
       <c r="K371" s="20"/>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A372" s="40">
         <v>40969</v>
       </c>
@@ -12478,7 +12473,7 @@
         <v>40987</v>
       </c>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A373" s="40"/>
       <c r="B373" s="20" t="s">
         <v>52</v>
@@ -12498,7 +12493,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A374" s="40"/>
       <c r="B374" s="20" t="s">
         <v>299</v>
@@ -12518,7 +12513,7 @@
       <c r="J374" s="11"/>
       <c r="K374" s="48"/>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A375" s="40">
         <v>41000</v>
       </c>
@@ -12542,7 +12537,7 @@
       <c r="J375" s="11"/>
       <c r="K375" s="20"/>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A376" s="40">
         <v>41030</v>
       </c>
@@ -12566,7 +12561,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A377" s="40"/>
       <c r="B377" s="20" t="s">
         <v>74</v>
@@ -12588,7 +12583,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A378" s="40"/>
       <c r="B378" s="20" t="s">
         <v>80</v>
@@ -12608,7 +12603,7 @@
       <c r="J378" s="11"/>
       <c r="K378" s="20"/>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A379" s="40">
         <v>41061</v>
       </c>
@@ -12632,7 +12627,7 @@
       <c r="J379" s="11"/>
       <c r="K379" s="20"/>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A380" s="40">
         <v>41091</v>
       </c>
@@ -12656,7 +12651,7 @@
       <c r="J380" s="11"/>
       <c r="K380" s="20"/>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A381" s="40">
         <v>41122</v>
       </c>
@@ -12680,7 +12675,7 @@
       <c r="J381" s="11"/>
       <c r="K381" s="20"/>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A382" s="40">
         <v>41153</v>
       </c>
@@ -12704,7 +12699,7 @@
       <c r="J382" s="11"/>
       <c r="K382" s="20"/>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A383" s="40">
         <v>41183</v>
       </c>
@@ -12730,7 +12725,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A384" s="40"/>
       <c r="B384" s="20" t="s">
         <v>52</v>
@@ -12750,7 +12745,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A385" s="40"/>
       <c r="B385" s="20" t="s">
         <v>307</v>
@@ -12770,7 +12765,7 @@
       <c r="J385" s="11"/>
       <c r="K385" s="20"/>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A386" s="40">
         <v>41214</v>
       </c>
@@ -12796,7 +12791,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A387" s="40"/>
       <c r="B387" s="20" t="s">
         <v>48</v>
@@ -12818,7 +12813,7 @@
         <v>41236</v>
       </c>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A388" s="40"/>
       <c r="B388" s="20" t="s">
         <v>309</v>
@@ -12838,7 +12833,7 @@
       <c r="J388" s="11"/>
       <c r="K388" s="20"/>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A389" s="40">
         <v>41244</v>
       </c>
@@ -12862,7 +12857,7 @@
       <c r="J389" s="11"/>
       <c r="K389" s="20"/>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A390" s="47" t="s">
         <v>311</v>
       </c>
@@ -12880,7 +12875,7 @@
       <c r="J390" s="11"/>
       <c r="K390" s="20"/>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A391" s="40">
         <v>41275</v>
       </c>
@@ -12904,7 +12899,7 @@
       <c r="J391" s="11"/>
       <c r="K391" s="20"/>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A392" s="40">
         <v>41306</v>
       </c>
@@ -12928,7 +12923,7 @@
       <c r="J392" s="11"/>
       <c r="K392" s="20"/>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A393" s="40">
         <v>41334</v>
       </c>
@@ -12952,7 +12947,7 @@
       <c r="J393" s="11"/>
       <c r="K393" s="20"/>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A394" s="40">
         <v>41365</v>
       </c>
@@ -12976,7 +12971,7 @@
       <c r="J394" s="11"/>
       <c r="K394" s="20"/>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A395" s="40">
         <v>41395</v>
       </c>
@@ -13000,7 +12995,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A396" s="40"/>
       <c r="B396" s="20" t="s">
         <v>316</v>
@@ -13020,7 +13015,7 @@
       <c r="J396" s="11"/>
       <c r="K396" s="20"/>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A397" s="40">
         <v>41426</v>
       </c>
@@ -13044,7 +13039,7 @@
       <c r="J397" s="11"/>
       <c r="K397" s="20"/>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A398" s="40">
         <v>41456</v>
       </c>
@@ -13070,7 +13065,7 @@
         <v>41486</v>
       </c>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A399" s="40"/>
       <c r="B399" s="20" t="s">
         <v>318</v>
@@ -13090,7 +13085,7 @@
       <c r="J399" s="11"/>
       <c r="K399" s="48"/>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A400" s="40">
         <v>41487</v>
       </c>
@@ -13116,7 +13111,7 @@
         <v>41501</v>
       </c>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A401" s="40"/>
       <c r="B401" s="20" t="s">
         <v>317</v>
@@ -13136,7 +13131,7 @@
       <c r="J401" s="11"/>
       <c r="K401" s="48"/>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A402" s="40">
         <v>41518</v>
       </c>
@@ -13160,7 +13155,7 @@
         <v>41547</v>
       </c>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A403" s="40"/>
       <c r="B403" s="20" t="s">
         <v>48</v>
@@ -13182,7 +13177,7 @@
         <v>41528</v>
       </c>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A404" s="40"/>
       <c r="B404" s="20" t="s">
         <v>319</v>
@@ -13202,7 +13197,7 @@
       <c r="J404" s="11"/>
       <c r="K404" s="48"/>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A405" s="40">
         <v>41548</v>
       </c>
@@ -13228,7 +13223,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A406" s="40"/>
       <c r="B406" s="20" t="s">
         <v>74</v>
@@ -13250,7 +13245,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A407" s="40"/>
       <c r="B407" s="20" t="s">
         <v>48</v>
@@ -13272,7 +13267,7 @@
         <v>41578</v>
       </c>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A408" s="40"/>
       <c r="B408" s="20" t="s">
         <v>52</v>
@@ -13292,7 +13287,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A409" s="40"/>
       <c r="B409" s="20" t="s">
         <v>318</v>
@@ -13312,7 +13307,7 @@
       <c r="J409" s="11"/>
       <c r="K409" s="20"/>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A410" s="40">
         <v>41579</v>
       </c>
@@ -13338,7 +13333,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A411" s="40"/>
       <c r="B411" s="20" t="s">
         <v>322</v>
@@ -13358,7 +13353,7 @@
       <c r="J411" s="11"/>
       <c r="K411" s="20"/>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A412" s="40">
         <v>41609</v>
       </c>
@@ -13382,7 +13377,7 @@
       <c r="J412" s="11"/>
       <c r="K412" s="20"/>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A413" s="40"/>
       <c r="B413" s="20" t="s">
         <v>323</v>
@@ -13402,7 +13397,7 @@
       <c r="J413" s="11"/>
       <c r="K413" s="20"/>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A414" s="47" t="s">
         <v>324</v>
       </c>
@@ -13420,7 +13415,7 @@
       <c r="J414" s="11"/>
       <c r="K414" s="20"/>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A415" s="40">
         <v>41640</v>
       </c>
@@ -13444,7 +13439,7 @@
       <c r="J415" s="11"/>
       <c r="K415" s="20"/>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A416" s="40">
         <v>41671</v>
       </c>
@@ -13468,7 +13463,7 @@
       <c r="J416" s="11"/>
       <c r="K416" s="20"/>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A417" s="40">
         <v>41699</v>
       </c>
@@ -13492,7 +13487,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A418" s="40"/>
       <c r="B418" s="20" t="s">
         <v>61</v>
@@ -13514,7 +13509,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A419" s="40"/>
       <c r="B419" s="20" t="s">
         <v>328</v>
@@ -13534,7 +13529,7 @@
       <c r="J419" s="11"/>
       <c r="K419" s="20"/>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A420" s="40">
         <v>41730</v>
       </c>
@@ -13560,7 +13555,7 @@
         <v>41736</v>
       </c>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A421" s="40"/>
       <c r="B421" s="20" t="s">
         <v>330</v>
@@ -13580,7 +13575,7 @@
       <c r="J421" s="11"/>
       <c r="K421" s="48"/>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A422" s="40">
         <v>41760</v>
       </c>
@@ -13606,7 +13601,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A423" s="40"/>
       <c r="B423" s="20" t="s">
         <v>48</v>
@@ -13628,7 +13623,7 @@
         <v>41766</v>
       </c>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A424" s="40"/>
       <c r="B424" s="20" t="s">
         <v>48</v>
@@ -13650,7 +13645,7 @@
         <v>41788</v>
       </c>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A425" s="40"/>
       <c r="B425" s="20" t="s">
         <v>52</v>
@@ -13670,7 +13665,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A426" s="40"/>
       <c r="B426" s="20" t="s">
         <v>333</v>
@@ -13690,7 +13685,7 @@
       <c r="J426" s="11"/>
       <c r="K426" s="48"/>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A427" s="40">
         <v>41791</v>
       </c>
@@ -13714,7 +13709,7 @@
       <c r="J427" s="11"/>
       <c r="K427" s="20"/>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A428" s="40">
         <v>41821</v>
       </c>
@@ -13740,7 +13735,7 @@
         <v>41844</v>
       </c>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A429" s="40"/>
       <c r="B429" s="20" t="s">
         <v>335</v>
@@ -13760,7 +13755,7 @@
       <c r="J429" s="11"/>
       <c r="K429" s="48"/>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A430" s="40">
         <v>41852</v>
       </c>
@@ -13786,7 +13781,7 @@
         <v>41878</v>
       </c>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A431" s="40"/>
       <c r="B431" s="20" t="s">
         <v>297</v>
@@ -13806,7 +13801,7 @@
       <c r="J431" s="11"/>
       <c r="K431" s="48"/>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A432" s="40">
         <v>41883</v>
       </c>
@@ -13832,7 +13827,7 @@
         <v>41894</v>
       </c>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A433" s="40"/>
       <c r="B433" s="20" t="s">
         <v>74</v>
@@ -13854,7 +13849,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A434" s="40"/>
       <c r="B434" s="20" t="s">
         <v>336</v>
@@ -13874,7 +13869,7 @@
       <c r="J434" s="11"/>
       <c r="K434" s="48"/>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A435" s="40">
         <v>41913</v>
       </c>
@@ -13900,7 +13895,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A436" s="40"/>
       <c r="B436" s="20" t="s">
         <v>48</v>
@@ -13922,7 +13917,7 @@
         <v>41922</v>
       </c>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A437" s="40"/>
       <c r="B437" s="20" t="s">
         <v>48</v>
@@ -13944,7 +13939,7 @@
         <v>41932</v>
       </c>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A438" s="40"/>
       <c r="B438" s="20" t="s">
         <v>52</v>
@@ -13964,7 +13959,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A439" s="40"/>
       <c r="B439" s="20" t="s">
         <v>338</v>
@@ -13984,7 +13979,7 @@
       <c r="J439" s="11"/>
       <c r="K439" s="20"/>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A440" s="40">
         <v>41944</v>
       </c>
@@ -14010,7 +14005,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A441" s="40"/>
       <c r="B441" s="20" t="s">
         <v>48</v>
@@ -14032,7 +14027,7 @@
         <v>45278</v>
       </c>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A442" s="40"/>
       <c r="B442" s="20" t="s">
         <v>213</v>
@@ -14052,7 +14047,7 @@
       <c r="J442" s="11"/>
       <c r="K442" s="20"/>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A443" s="40">
         <v>41974</v>
       </c>
@@ -14076,7 +14071,7 @@
       <c r="J443" s="11"/>
       <c r="K443" s="20"/>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A444" s="47" t="s">
         <v>341</v>
       </c>
@@ -14094,7 +14089,7 @@
       <c r="J444" s="11"/>
       <c r="K444" s="20"/>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A445" s="40">
         <v>42005</v>
       </c>
@@ -14118,7 +14113,7 @@
       <c r="J445" s="11"/>
       <c r="K445" s="20"/>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A446" s="40">
         <v>42036</v>
       </c>
@@ -14144,7 +14139,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A447" s="40"/>
       <c r="B447" s="20" t="s">
         <v>48</v>
@@ -14166,7 +14161,7 @@
         <v>42056</v>
       </c>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A448" s="40"/>
       <c r="B448" s="20" t="s">
         <v>344</v>
@@ -14186,7 +14181,7 @@
       <c r="J448" s="11"/>
       <c r="K448" s="20"/>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A449" s="40">
         <v>42064</v>
       </c>
@@ -14212,7 +14207,7 @@
         <v>42081</v>
       </c>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A450" s="40"/>
       <c r="B450" s="20" t="s">
         <v>345</v>
@@ -14232,7 +14227,7 @@
       <c r="J450" s="11"/>
       <c r="K450" s="48"/>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A451" s="40">
         <v>42095</v>
       </c>
@@ -14258,7 +14253,7 @@
         <v>42124</v>
       </c>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A452" s="40"/>
       <c r="B452" s="20" t="s">
         <v>52</v>
@@ -14278,7 +14273,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A453" s="40"/>
       <c r="B453" s="20" t="s">
         <v>347</v>
@@ -14296,7 +14291,7 @@
       <c r="J453" s="11"/>
       <c r="K453" s="48"/>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A454" s="40">
         <v>42125</v>
       </c>
@@ -14322,7 +14317,7 @@
         <v>42130</v>
       </c>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A455" s="40"/>
       <c r="B455" s="20" t="s">
         <v>206</v>
@@ -14342,7 +14337,7 @@
       <c r="J455" s="11"/>
       <c r="K455" s="48"/>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A456" s="40">
         <v>42156</v>
       </c>
@@ -14366,7 +14361,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A457" s="40"/>
       <c r="B457" s="20" t="s">
         <v>106</v>
@@ -14388,7 +14383,7 @@
         <v>42186</v>
       </c>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A458" s="40"/>
       <c r="B458" s="20" t="s">
         <v>48</v>
@@ -14410,7 +14405,7 @@
         <v>42188</v>
       </c>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A459" s="40"/>
       <c r="B459" s="20" t="s">
         <v>211</v>
@@ -14430,7 +14425,7 @@
       <c r="J459" s="11"/>
       <c r="K459" s="20"/>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A460" s="40">
         <v>42186</v>
       </c>
@@ -14456,7 +14451,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A461" s="40"/>
       <c r="B461" s="20" t="s">
         <v>350</v>
@@ -14476,7 +14471,7 @@
       <c r="J461" s="11"/>
       <c r="K461" s="20"/>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A462" s="40">
         <v>42217</v>
       </c>
@@ -14498,7 +14493,7 @@
       <c r="J462" s="11"/>
       <c r="K462" s="20"/>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A463" s="40"/>
       <c r="B463" s="20" t="s">
         <v>351</v>
@@ -14518,7 +14513,7 @@
       <c r="J463" s="11"/>
       <c r="K463" s="20"/>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A464" s="40">
         <v>42248</v>
       </c>
@@ -14544,7 +14539,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A465" s="40"/>
       <c r="B465" s="20" t="s">
         <v>354</v>
@@ -14564,7 +14559,7 @@
       <c r="J465" s="11"/>
       <c r="K465" s="20"/>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A466" s="40">
         <v>42278</v>
       </c>
@@ -14590,7 +14585,7 @@
         <v>42286</v>
       </c>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A467" s="40"/>
       <c r="B467" s="20" t="s">
         <v>55</v>
@@ -14612,7 +14607,7 @@
         <v>42300</v>
       </c>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A468" s="40"/>
       <c r="B468" s="20" t="s">
         <v>74</v>
@@ -14634,7 +14629,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A469" s="40"/>
       <c r="B469" s="20" t="s">
         <v>108</v>
@@ -14654,7 +14649,7 @@
       <c r="J469" s="11"/>
       <c r="K469" s="48"/>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A470" s="40">
         <v>42309</v>
       </c>
@@ -14680,7 +14675,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A471" s="40"/>
       <c r="B471" s="20" t="s">
         <v>357</v>
@@ -14700,7 +14695,7 @@
       <c r="J471" s="11"/>
       <c r="K471" s="20"/>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A472" s="40">
         <v>42339</v>
       </c>
@@ -14724,7 +14719,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A473" s="40"/>
       <c r="B473" s="20" t="s">
         <v>359</v>
@@ -14744,7 +14739,7 @@
       <c r="J473" s="11"/>
       <c r="K473" s="20"/>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A474" s="47" t="s">
         <v>360</v>
       </c>
@@ -14762,7 +14757,7 @@
       <c r="J474" s="11"/>
       <c r="K474" s="20"/>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A475" s="40">
         <v>42370</v>
       </c>
@@ -14786,7 +14781,7 @@
       <c r="J475" s="11"/>
       <c r="K475" s="20"/>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A476" s="40">
         <v>42401</v>
       </c>
@@ -14810,7 +14805,7 @@
       <c r="J476" s="11"/>
       <c r="K476" s="20"/>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A477" s="40">
         <v>42430</v>
       </c>
@@ -14834,7 +14829,7 @@
       <c r="J477" s="11"/>
       <c r="K477" s="20"/>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A478" s="40">
         <v>42461</v>
       </c>
@@ -14858,7 +14853,7 @@
       <c r="J478" s="11"/>
       <c r="K478" s="20"/>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A479" s="40">
         <v>42491</v>
       </c>
@@ -14884,7 +14879,7 @@
         <v>42494</v>
       </c>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A480" s="40"/>
       <c r="B480" s="20" t="s">
         <v>55</v>
@@ -14906,7 +14901,7 @@
         <v>42516</v>
       </c>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A481" s="40"/>
       <c r="B481" s="20" t="s">
         <v>48</v>
@@ -14928,7 +14923,7 @@
         <v>42517</v>
       </c>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A482" s="40"/>
       <c r="B482" s="20" t="s">
         <v>52</v>
@@ -14948,7 +14943,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A483" s="40"/>
       <c r="B483" s="20" t="s">
         <v>363</v>
@@ -14968,7 +14963,7 @@
       <c r="J483" s="11"/>
       <c r="K483" s="48"/>
     </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A484" s="40">
         <v>42522</v>
       </c>
@@ -14992,7 +14987,7 @@
       <c r="J484" s="11"/>
       <c r="K484" s="20"/>
     </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A485" s="40">
         <v>42552</v>
       </c>
@@ -15016,7 +15011,7 @@
       <c r="J485" s="11"/>
       <c r="K485" s="20"/>
     </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A486" s="40">
         <v>42583</v>
       </c>
@@ -15042,7 +15037,7 @@
         <v>42592</v>
       </c>
     </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A487" s="40"/>
       <c r="B487" s="20" t="s">
         <v>365</v>
@@ -15064,7 +15059,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A488" s="40"/>
       <c r="B488" s="20" t="s">
         <v>234</v>
@@ -15084,7 +15079,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A489" s="40"/>
       <c r="B489" s="20" t="s">
         <v>366</v>
@@ -15104,7 +15099,7 @@
       <c r="J489" s="11"/>
       <c r="K489" s="48"/>
     </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A490" s="40">
         <v>42614</v>
       </c>
@@ -15130,7 +15125,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A491" s="40"/>
       <c r="B491" s="20" t="s">
         <v>55</v>
@@ -15152,7 +15147,7 @@
         <v>42667</v>
       </c>
     </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A492" s="40"/>
       <c r="B492" s="20" t="s">
         <v>370</v>
@@ -15172,7 +15167,7 @@
       <c r="J492" s="11"/>
       <c r="K492" s="20"/>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A493" s="40">
         <v>42644</v>
       </c>
@@ -15198,7 +15193,7 @@
         <v>42677</v>
       </c>
     </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A494" s="40"/>
       <c r="B494" s="20" t="s">
         <v>48</v>
@@ -15220,7 +15215,7 @@
         <v>42668</v>
       </c>
     </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A495" s="40"/>
       <c r="B495" s="20" t="s">
         <v>371</v>
@@ -15240,7 +15235,7 @@
       <c r="J495" s="11"/>
       <c r="K495" s="48"/>
     </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A496" s="40">
         <v>42675</v>
       </c>
@@ -15264,7 +15259,7 @@
       <c r="J496" s="11"/>
       <c r="K496" s="20"/>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A497" s="40">
         <v>42705</v>
       </c>
@@ -15290,7 +15285,7 @@
         <v>42731</v>
       </c>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A498" s="40"/>
       <c r="B498" s="20" t="s">
         <v>373</v>
@@ -15310,7 +15305,7 @@
       <c r="J498" s="11"/>
       <c r="K498" s="48"/>
     </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A499" s="47" t="s">
         <v>374</v>
       </c>
@@ -15328,7 +15323,7 @@
       <c r="J499" s="11"/>
       <c r="K499" s="48"/>
     </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A500" s="40">
         <v>42736</v>
       </c>
@@ -15352,7 +15347,7 @@
       <c r="J500" s="11"/>
       <c r="K500" s="20"/>
     </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A501" s="40">
         <v>42767</v>
       </c>
@@ -15376,7 +15371,7 @@
       <c r="J501" s="11"/>
       <c r="K501" s="20"/>
     </row>
-    <row r="502" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A502" s="40">
         <v>42795</v>
       </c>
@@ -15400,7 +15395,7 @@
       <c r="J502" s="11"/>
       <c r="K502" s="20"/>
     </row>
-    <row r="503" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A503" s="40">
         <v>42826</v>
       </c>
@@ -15424,7 +15419,7 @@
       <c r="J503" s="11"/>
       <c r="K503" s="20"/>
     </row>
-    <row r="504" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A504" s="40">
         <v>42856</v>
       </c>
@@ -15448,7 +15443,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="505" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A505" s="40"/>
       <c r="B505" s="20" t="s">
         <v>378</v>
@@ -15468,7 +15463,7 @@
       <c r="J505" s="11"/>
       <c r="K505" s="20"/>
     </row>
-    <row r="506" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A506" s="40">
         <v>42887</v>
       </c>
@@ -15488,7 +15483,7 @@
       <c r="J506" s="11"/>
       <c r="K506" s="20"/>
     </row>
-    <row r="507" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A507" s="40">
         <v>42917</v>
       </c>
@@ -15514,7 +15509,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="508" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A508" s="40"/>
       <c r="B508" s="20" t="s">
         <v>380</v>
@@ -15534,7 +15529,7 @@
       <c r="J508" s="11"/>
       <c r="K508" s="20"/>
     </row>
-    <row r="509" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A509" s="40">
         <v>42948</v>
       </c>
@@ -15560,7 +15555,7 @@
         <v>42972</v>
       </c>
     </row>
-    <row r="510" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A510" s="40"/>
       <c r="B510" s="20" t="s">
         <v>381</v>
@@ -15580,7 +15575,7 @@
       <c r="J510" s="11"/>
       <c r="K510" s="48"/>
     </row>
-    <row r="511" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A511" s="40">
         <v>42979</v>
       </c>
@@ -15604,7 +15599,7 @@
       <c r="J511" s="11"/>
       <c r="K511" s="20"/>
     </row>
-    <row r="512" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A512" s="40">
         <v>43009</v>
       </c>
@@ -15626,7 +15621,7 @@
       <c r="J512" s="11"/>
       <c r="K512" s="20"/>
     </row>
-    <row r="513" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A513" s="40"/>
       <c r="B513" s="20" t="s">
         <v>48</v>
@@ -15648,7 +15643,7 @@
         <v>43020</v>
       </c>
     </row>
-    <row r="514" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A514" s="40"/>
       <c r="B514" s="20" t="s">
         <v>49</v>
@@ -15670,7 +15665,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="515" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A515" s="40"/>
       <c r="B515" s="20" t="s">
         <v>383</v>
@@ -15692,7 +15687,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="516" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A516" s="40">
         <v>43040</v>
       </c>
@@ -15718,7 +15713,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="517" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A517" s="40">
         <v>43070</v>
       </c>
@@ -15742,7 +15737,7 @@
       <c r="J517" s="11"/>
       <c r="K517" s="20"/>
     </row>
-    <row r="518" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A518" s="40"/>
       <c r="B518" s="20" t="s">
         <v>234</v>
@@ -15762,7 +15757,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="519" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A519" s="47" t="s">
         <v>387</v>
       </c>
@@ -15780,7 +15775,7 @@
       <c r="J519" s="11"/>
       <c r="K519" s="20"/>
     </row>
-    <row r="520" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A520" s="40">
         <v>43101</v>
       </c>
@@ -15806,7 +15801,7 @@
         <v>43104</v>
       </c>
     </row>
-    <row r="521" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A521" s="40">
         <v>43132</v>
       </c>
@@ -15826,7 +15821,7 @@
       <c r="J521" s="11"/>
       <c r="K521" s="20"/>
     </row>
-    <row r="522" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A522" s="40">
         <v>43160</v>
       </c>
@@ -15852,7 +15847,7 @@
         <v>43196</v>
       </c>
     </row>
-    <row r="523" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A523" s="40">
         <v>43191</v>
       </c>
@@ -15878,7 +15873,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="524" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A524" s="40">
         <v>43221</v>
       </c>
@@ -15902,7 +15897,7 @@
       <c r="J524" s="11"/>
       <c r="K524" s="20"/>
     </row>
-    <row r="525" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A525" s="40">
         <v>43252</v>
       </c>
@@ -15928,7 +15923,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="526" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A526" s="40"/>
       <c r="B526" s="20" t="s">
         <v>391</v>
@@ -15946,7 +15941,7 @@
       <c r="J526" s="11"/>
       <c r="K526" s="20"/>
     </row>
-    <row r="527" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A527" s="40">
         <v>43282</v>
       </c>
@@ -15972,7 +15967,7 @@
         <v>43294</v>
       </c>
     </row>
-    <row r="528" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A528" s="40"/>
       <c r="B528" s="20" t="s">
         <v>392</v>
@@ -15992,7 +15987,7 @@
       <c r="J528" s="11"/>
       <c r="K528" s="48"/>
     </row>
-    <row r="529" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A529" s="40">
         <v>43313</v>
       </c>
@@ -16018,7 +16013,7 @@
         <v>43314</v>
       </c>
     </row>
-    <row r="530" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A530" s="40"/>
       <c r="B530" s="20" t="s">
         <v>393</v>
@@ -16038,7 +16033,7 @@
       <c r="J530" s="11"/>
       <c r="K530" s="48"/>
     </row>
-    <row r="531" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A531" s="40">
         <v>43344</v>
       </c>
@@ -16064,7 +16059,7 @@
         <v>43346</v>
       </c>
     </row>
-    <row r="532" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A532" s="40"/>
       <c r="B532" s="20" t="s">
         <v>284</v>
@@ -16084,7 +16079,7 @@
       <c r="J532" s="11"/>
       <c r="K532" s="20"/>
     </row>
-    <row r="533" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A533" s="40">
         <v>43374</v>
       </c>
@@ -16110,7 +16105,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="534" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A534" s="40"/>
       <c r="B534" s="20" t="s">
         <v>49</v>
@@ -16132,7 +16127,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="535" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A535" s="40"/>
       <c r="B535" s="20" t="s">
         <v>61</v>
@@ -16154,7 +16149,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="536" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A536" s="40"/>
       <c r="B536" s="20" t="s">
         <v>52</v>
@@ -16174,7 +16169,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="537" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A537" s="40"/>
       <c r="B537" s="20" t="s">
         <v>158</v>
@@ -16194,7 +16189,7 @@
       <c r="J537" s="11"/>
       <c r="K537" s="20"/>
     </row>
-    <row r="538" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A538" s="40">
         <v>43405</v>
       </c>
@@ -16218,7 +16213,7 @@
       <c r="J538" s="11"/>
       <c r="K538" s="20"/>
     </row>
-    <row r="539" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A539" s="40">
         <v>43435</v>
       </c>
@@ -16244,7 +16239,7 @@
         <v>43461</v>
       </c>
     </row>
-    <row r="540" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A540" s="40"/>
       <c r="B540" s="20" t="s">
         <v>48</v>
@@ -16266,7 +16261,7 @@
         <v>43452</v>
       </c>
     </row>
-    <row r="541" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A541" s="40"/>
       <c r="B541" s="20" t="s">
         <v>68</v>
@@ -16284,7 +16279,7 @@
       <c r="J541" s="11"/>
       <c r="K541" s="20"/>
     </row>
-    <row r="542" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A542" s="47" t="s">
         <v>397</v>
       </c>
@@ -16302,7 +16297,7 @@
       <c r="J542" s="11"/>
       <c r="K542" s="20"/>
     </row>
-    <row r="543" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A543" s="40">
         <v>43466</v>
       </c>
@@ -16322,7 +16317,7 @@
       <c r="J543" s="11"/>
       <c r="K543" s="20"/>
     </row>
-    <row r="544" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A544" s="40">
         <v>43497</v>
       </c>
@@ -16342,7 +16337,7 @@
       <c r="J544" s="11"/>
       <c r="K544" s="20"/>
     </row>
-    <row r="545" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A545" s="40">
         <v>43525</v>
       </c>
@@ -16362,7 +16357,7 @@
       <c r="J545" s="11"/>
       <c r="K545" s="20"/>
     </row>
-    <row r="546" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A546" s="40">
         <v>43556</v>
       </c>
@@ -16388,7 +16383,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="547" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A547" s="40"/>
       <c r="B547" s="20" t="s">
         <v>74</v>
@@ -16410,7 +16405,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="548" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A548" s="40">
         <v>43586</v>
       </c>
@@ -16430,7 +16425,7 @@
       <c r="J548" s="11"/>
       <c r="K548" s="20"/>
     </row>
-    <row r="549" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A549" s="40">
         <v>43617</v>
       </c>
@@ -16454,7 +16449,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="550" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A550" s="40">
         <v>43647</v>
       </c>
@@ -16480,7 +16475,7 @@
         <v>43647</v>
       </c>
     </row>
-    <row r="551" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A551" s="40">
         <v>43678</v>
       </c>
@@ -16500,7 +16495,7 @@
       <c r="J551" s="11"/>
       <c r="K551" s="20"/>
     </row>
-    <row r="552" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A552" s="40">
         <v>43709</v>
       </c>
@@ -16526,7 +16521,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="553" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A553" s="40"/>
       <c r="B553" s="20" t="s">
         <v>74</v>
@@ -16548,7 +16543,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="554" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A554" s="40"/>
       <c r="B554" s="20" t="s">
         <v>52</v>
@@ -16568,7 +16563,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="555" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A555" s="40"/>
       <c r="B555" s="20" t="s">
         <v>48</v>
@@ -16590,7 +16585,7 @@
         <v>43745</v>
       </c>
     </row>
-    <row r="556" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A556" s="40"/>
       <c r="B556" s="20" t="s">
         <v>48</v>
@@ -16612,7 +16607,7 @@
         <v>43752</v>
       </c>
     </row>
-    <row r="557" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A557" s="40"/>
       <c r="B557" s="20" t="s">
         <v>88</v>
@@ -16634,7 +16629,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="558" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A558" s="40">
         <v>43739</v>
       </c>
@@ -16660,7 +16655,7 @@
         <v>43767</v>
       </c>
     </row>
-    <row r="559" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A559" s="40">
         <v>43770</v>
       </c>
@@ -16686,7 +16681,7 @@
         <v>43794</v>
       </c>
     </row>
-    <row r="560" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A560" s="40"/>
       <c r="B560" s="20" t="s">
         <v>49</v>
@@ -16708,7 +16703,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="561" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A561" s="40">
         <v>43800</v>
       </c>
@@ -16732,7 +16727,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="562" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A562" s="47" t="s">
         <v>406</v>
       </c>
@@ -16750,7 +16745,7 @@
       <c r="J562" s="11"/>
       <c r="K562" s="20"/>
     </row>
-    <row r="563" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A563" s="40">
         <v>43831</v>
       </c>
@@ -16774,7 +16769,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="564" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A564" s="40">
         <v>43862</v>
       </c>
@@ -16794,7 +16789,7 @@
       <c r="J564" s="11"/>
       <c r="K564" s="20"/>
     </row>
-    <row r="565" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A565" s="40">
         <v>43891</v>
       </c>
@@ -16814,7 +16809,7 @@
       <c r="J565" s="11"/>
       <c r="K565" s="20"/>
     </row>
-    <row r="566" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A566" s="40">
         <v>43922</v>
       </c>
@@ -16834,7 +16829,7 @@
       <c r="J566" s="11"/>
       <c r="K566" s="20"/>
     </row>
-    <row r="567" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A567" s="40">
         <v>43952</v>
       </c>
@@ -16854,7 +16849,7 @@
       <c r="J567" s="11"/>
       <c r="K567" s="20"/>
     </row>
-    <row r="568" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A568" s="40">
         <v>43983</v>
       </c>
@@ -16874,7 +16869,7 @@
       <c r="J568" s="11"/>
       <c r="K568" s="20"/>
     </row>
-    <row r="569" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A569" s="40">
         <v>44013</v>
       </c>
@@ -16900,7 +16895,7 @@
         <v>44014</v>
       </c>
     </row>
-    <row r="570" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A570" s="40">
         <v>44044</v>
       </c>
@@ -16926,7 +16921,7 @@
         <v>44040</v>
       </c>
     </row>
-    <row r="571" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A571" s="40">
         <v>44075</v>
       </c>
@@ -16952,7 +16947,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="572" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A572" s="40"/>
       <c r="B572" s="20" t="s">
         <v>52</v>
@@ -16972,7 +16967,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="573" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A573" s="40"/>
       <c r="B573" s="20" t="s">
         <v>74</v>
@@ -16994,7 +16989,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="574" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A574" s="40">
         <v>44105</v>
       </c>
@@ -17020,7 +17015,7 @@
         <v>44112</v>
       </c>
     </row>
-    <row r="575" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A575" s="40">
         <v>44136</v>
       </c>
@@ -17044,7 +17039,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="576" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A576" s="40">
         <v>44166</v>
       </c>
@@ -17070,7 +17065,7 @@
         <v>44176</v>
       </c>
     </row>
-    <row r="577" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A577" s="40"/>
       <c r="B577" s="20" t="s">
         <v>48</v>
@@ -17092,7 +17087,7 @@
         <v>44181</v>
       </c>
     </row>
-    <row r="578" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A578" s="40"/>
       <c r="B578" s="20" t="s">
         <v>55</v>
@@ -17114,7 +17109,7 @@
         <v>44193</v>
       </c>
     </row>
-    <row r="579" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A579" s="47" t="s">
         <v>413</v>
       </c>
@@ -17132,7 +17127,7 @@
       <c r="J579" s="11"/>
       <c r="K579" s="48"/>
     </row>
-    <row r="580" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A580" s="40">
         <v>44197</v>
       </c>
@@ -17152,7 +17147,7 @@
       <c r="J580" s="11"/>
       <c r="K580" s="20"/>
     </row>
-    <row r="581" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A581" s="40">
         <v>44228</v>
       </c>
@@ -17178,7 +17173,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="582" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A582" s="40"/>
       <c r="B582" s="20" t="s">
         <v>48</v>
@@ -17200,7 +17195,7 @@
         <v>44189</v>
       </c>
     </row>
-    <row r="583" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A583" s="40">
         <v>44256</v>
       </c>
@@ -17220,7 +17215,7 @@
       <c r="J583" s="11"/>
       <c r="K583" s="20"/>
     </row>
-    <row r="584" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A584" s="40">
         <v>44287</v>
       </c>
@@ -17240,7 +17235,7 @@
       <c r="J584" s="11"/>
       <c r="K584" s="20"/>
     </row>
-    <row r="585" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A585" s="40">
         <v>44317</v>
       </c>
@@ -17260,7 +17255,7 @@
       <c r="J585" s="11"/>
       <c r="K585" s="20"/>
     </row>
-    <row r="586" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A586" s="40">
         <v>44348</v>
       </c>
@@ -17280,7 +17275,7 @@
       <c r="J586" s="11"/>
       <c r="K586" s="20"/>
     </row>
-    <row r="587" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A587" s="40">
         <v>44378</v>
       </c>
@@ -17306,7 +17301,7 @@
         <v>44378</v>
       </c>
     </row>
-    <row r="588" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A588" s="40">
         <v>44409</v>
       </c>
@@ -17326,7 +17321,7 @@
       <c r="J588" s="11"/>
       <c r="K588" s="20"/>
     </row>
-    <row r="589" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A589" s="40">
         <v>44440</v>
       </c>
@@ -17346,7 +17341,7 @@
       <c r="J589" s="11"/>
       <c r="K589" s="20"/>
     </row>
-    <row r="590" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A590" s="40">
         <v>44470</v>
       </c>
@@ -17372,7 +17367,7 @@
         <v>44494</v>
       </c>
     </row>
-    <row r="591" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A591" s="40"/>
       <c r="B591" s="20" t="s">
         <v>52</v>
@@ -17392,7 +17387,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="592" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A592" s="40"/>
       <c r="B592" s="20" t="s">
         <v>52</v>
@@ -17412,7 +17407,7 @@
         <v>44497</v>
       </c>
     </row>
-    <row r="593" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A593" s="40"/>
       <c r="B593" s="20" t="s">
         <v>48</v>
@@ -17434,7 +17429,7 @@
         <v>44498</v>
       </c>
     </row>
-    <row r="594" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A594" s="40"/>
       <c r="B594" s="20" t="s">
         <v>261</v>
@@ -17456,7 +17451,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="595" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A595" s="40">
         <v>44501</v>
       </c>
@@ -17482,7 +17477,7 @@
         <v>44525</v>
       </c>
     </row>
-    <row r="596" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A596" s="40"/>
       <c r="B596" s="20" t="s">
         <v>52</v>
@@ -17502,7 +17497,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="597" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A597" s="40">
         <v>44531</v>
       </c>
@@ -17528,7 +17523,7 @@
         <v>44557</v>
       </c>
     </row>
-    <row r="598" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A598" s="47" t="s">
         <v>418</v>
       </c>
@@ -17546,7 +17541,7 @@
       <c r="J598" s="11"/>
       <c r="K598" s="48"/>
     </row>
-    <row r="599" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A599" s="40">
         <v>44562</v>
       </c>
@@ -17570,7 +17565,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="600" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A600" s="40">
         <v>44593</v>
       </c>
@@ -17596,7 +17591,7 @@
         <v>44596</v>
       </c>
     </row>
-    <row r="601" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A601" s="40"/>
       <c r="B601" s="20" t="s">
         <v>95</v>
@@ -17618,7 +17613,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="602" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A602" s="40">
         <v>44621</v>
       </c>
@@ -17644,7 +17639,7 @@
         <v>44648</v>
       </c>
     </row>
-    <row r="603" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A603" s="40">
         <v>44652</v>
       </c>
@@ -17664,7 +17659,7 @@
       <c r="J603" s="11"/>
       <c r="K603" s="20"/>
     </row>
-    <row r="604" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A604" s="40">
         <v>44682</v>
       </c>
@@ -17690,7 +17685,7 @@
         <v>44683</v>
       </c>
     </row>
-    <row r="605" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A605" s="40">
         <v>44713</v>
       </c>
@@ -17716,7 +17711,7 @@
         <v>44736</v>
       </c>
     </row>
-    <row r="606" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A606" s="40">
         <v>44743</v>
       </c>
@@ -17742,7 +17737,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="607" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A607" s="40"/>
       <c r="B607" s="20" t="s">
         <v>48</v>
@@ -17764,7 +17759,7 @@
         <v>44778</v>
       </c>
     </row>
-    <row r="608" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A608" s="40">
         <v>44774</v>
       </c>
@@ -17790,7 +17785,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="609" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A609" s="40">
         <v>44805</v>
       </c>
@@ -17816,7 +17811,7 @@
         <v>44853</v>
       </c>
     </row>
-    <row r="610" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A610" s="40"/>
       <c r="B610" s="20" t="s">
         <v>48</v>
@@ -17838,7 +17833,7 @@
         <v>44799</v>
       </c>
     </row>
-    <row r="611" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A611" s="40">
         <v>44835</v>
       </c>
@@ -17864,7 +17859,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="612" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A612" s="40"/>
       <c r="B612" s="20" t="s">
         <v>48</v>
@@ -17886,7 +17881,7 @@
         <v>44846</v>
       </c>
     </row>
-    <row r="613" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A613" s="40">
         <v>44866</v>
       </c>
@@ -17912,7 +17907,7 @@
         <v>44868</v>
       </c>
     </row>
-    <row r="614" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A614" s="40"/>
       <c r="B614" s="20" t="s">
         <v>52</v>
@@ -17932,7 +17927,7 @@
         <v>44888</v>
       </c>
     </row>
-    <row r="615" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A615" s="40">
         <v>44896</v>
       </c>
@@ -17956,7 +17951,7 @@
         <v>44922</v>
       </c>
     </row>
-    <row r="616" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A616" s="47" t="s">
         <v>424</v>
       </c>
@@ -17974,7 +17969,7 @@
       <c r="J616" s="11"/>
       <c r="K616" s="20"/>
     </row>
-    <row r="617" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A617" s="40">
         <v>44927</v>
       </c>
@@ -18000,7 +17995,7 @@
         <v>44945</v>
       </c>
     </row>
-    <row r="618" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A618" s="40">
         <v>44958</v>
       </c>
@@ -18020,25 +18015,33 @@
       <c r="J618" s="11"/>
       <c r="K618" s="20"/>
     </row>
-    <row r="619" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A619" s="40">
         <v>44986</v>
       </c>
-      <c r="B619" s="20"/>
-      <c r="C619" s="13"/>
+      <c r="B619" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="C619" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D619" s="39"/>
       <c r="E619" s="9"/>
       <c r="F619" s="20"/>
-      <c r="G619" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H619" s="39"/>
+      <c r="G619" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H619" s="39">
+        <v>1</v>
+      </c>
       <c r="I619" s="9"/>
       <c r="J619" s="11"/>
-      <c r="K619" s="20"/>
-    </row>
-    <row r="620" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K619" s="48">
+        <v>45016</v>
+      </c>
+    </row>
+    <row r="620" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A620" s="40">
         <v>45017</v>
       </c>
@@ -18056,7 +18059,7 @@
       <c r="J620" s="11"/>
       <c r="K620" s="20"/>
     </row>
-    <row r="621" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A621" s="40">
         <v>45047</v>
       </c>
@@ -18074,7 +18077,7 @@
       <c r="J621" s="11"/>
       <c r="K621" s="20"/>
     </row>
-    <row r="622" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A622" s="40">
         <v>45078</v>
       </c>
@@ -18092,7 +18095,7 @@
       <c r="J622" s="11"/>
       <c r="K622" s="20"/>
     </row>
-    <row r="623" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A623" s="40">
         <v>45108</v>
       </c>
@@ -18110,7 +18113,7 @@
       <c r="J623" s="11"/>
       <c r="K623" s="20"/>
     </row>
-    <row r="624" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A624" s="40">
         <v>45139</v>
       </c>
@@ -18128,7 +18131,7 @@
       <c r="J624" s="11"/>
       <c r="K624" s="20"/>
     </row>
-    <row r="625" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A625" s="40">
         <v>45170</v>
       </c>
@@ -18146,7 +18149,7 @@
       <c r="J625" s="11"/>
       <c r="K625" s="20"/>
     </row>
-    <row r="626" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A626" s="40">
         <v>45200</v>
       </c>
@@ -18164,7 +18167,7 @@
       <c r="J626" s="11"/>
       <c r="K626" s="20"/>
     </row>
-    <row r="627" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A627" s="40">
         <v>45231</v>
       </c>
@@ -18182,7 +18185,7 @@
       <c r="J627" s="11"/>
       <c r="K627" s="20"/>
     </row>
-    <row r="628" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A628" s="40">
         <v>45261</v>
       </c>
@@ -18200,7 +18203,7 @@
       <c r="J628" s="11"/>
       <c r="K628" s="20"/>
     </row>
-    <row r="629" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A629" s="40">
         <v>45292</v>
       </c>
@@ -18218,7 +18221,7 @@
       <c r="J629" s="11"/>
       <c r="K629" s="20"/>
     </row>
-    <row r="630" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A630" s="40">
         <v>45323</v>
       </c>
@@ -18236,7 +18239,7 @@
       <c r="J630" s="11"/>
       <c r="K630" s="20"/>
     </row>
-    <row r="631" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A631" s="40">
         <v>45352</v>
       </c>
@@ -18254,7 +18257,7 @@
       <c r="J631" s="11"/>
       <c r="K631" s="20"/>
     </row>
-    <row r="632" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A632" s="40">
         <v>45383</v>
       </c>
@@ -18272,7 +18275,7 @@
       <c r="J632" s="11"/>
       <c r="K632" s="20"/>
     </row>
-    <row r="633" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A633" s="40">
         <v>45413</v>
       </c>
@@ -18290,7 +18293,7 @@
       <c r="J633" s="11"/>
       <c r="K633" s="20"/>
     </row>
-    <row r="634" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A634" s="40">
         <v>45444</v>
       </c>
@@ -18308,7 +18311,7 @@
       <c r="J634" s="11"/>
       <c r="K634" s="20"/>
     </row>
-    <row r="635" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A635" s="40">
         <v>45474</v>
       </c>
@@ -18326,7 +18329,7 @@
       <c r="J635" s="11"/>
       <c r="K635" s="20"/>
     </row>
-    <row r="636" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A636" s="40">
         <v>45505</v>
       </c>
@@ -18344,7 +18347,7 @@
       <c r="J636" s="11"/>
       <c r="K636" s="20"/>
     </row>
-    <row r="637" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A637" s="40">
         <v>45536</v>
       </c>
@@ -18362,7 +18365,7 @@
       <c r="J637" s="11"/>
       <c r="K637" s="20"/>
     </row>
-    <row r="638" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A638" s="40">
         <v>45566</v>
       </c>
@@ -18380,7 +18383,7 @@
       <c r="J638" s="11"/>
       <c r="K638" s="20"/>
     </row>
-    <row r="639" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A639" s="40">
         <v>45597</v>
       </c>
@@ -18398,7 +18401,7 @@
       <c r="J639" s="11"/>
       <c r="K639" s="20"/>
     </row>
-    <row r="640" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A640" s="40">
         <v>45627</v>
       </c>
@@ -18416,7 +18419,7 @@
       <c r="J640" s="11"/>
       <c r="K640" s="20"/>
     </row>
-    <row r="641" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A641" s="40">
         <v>45658</v>
       </c>
@@ -18434,7 +18437,7 @@
       <c r="J641" s="11"/>
       <c r="K641" s="20"/>
     </row>
-    <row r="642" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A642" s="40">
         <v>45689</v>
       </c>
@@ -18452,7 +18455,7 @@
       <c r="J642" s="11"/>
       <c r="K642" s="20"/>
     </row>
-    <row r="643" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A643" s="40">
         <v>45717</v>
       </c>
@@ -18470,7 +18473,7 @@
       <c r="J643" s="11"/>
       <c r="K643" s="20"/>
     </row>
-    <row r="644" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A644" s="40">
         <v>45748</v>
       </c>
@@ -18488,7 +18491,7 @@
       <c r="J644" s="11"/>
       <c r="K644" s="20"/>
     </row>
-    <row r="645" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A645" s="40">
         <v>45778</v>
       </c>
@@ -18506,7 +18509,7 @@
       <c r="J645" s="11"/>
       <c r="K645" s="20"/>
     </row>
-    <row r="646" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A646" s="40">
         <v>45809</v>
       </c>
@@ -18524,7 +18527,7 @@
       <c r="J646" s="11"/>
       <c r="K646" s="20"/>
     </row>
-    <row r="647" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A647" s="40">
         <v>45839</v>
       </c>
@@ -18542,7 +18545,7 @@
       <c r="J647" s="11"/>
       <c r="K647" s="20"/>
     </row>
-    <row r="648" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A648" s="40">
         <v>45870</v>
       </c>
@@ -18560,7 +18563,7 @@
       <c r="J648" s="11"/>
       <c r="K648" s="20"/>
     </row>
-    <row r="649" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A649" s="40">
         <v>45901</v>
       </c>
@@ -18578,7 +18581,7 @@
       <c r="J649" s="11"/>
       <c r="K649" s="20"/>
     </row>
-    <row r="650" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A650" s="40">
         <v>45931</v>
       </c>
@@ -18596,7 +18599,7 @@
       <c r="J650" s="11"/>
       <c r="K650" s="20"/>
     </row>
-    <row r="651" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A651" s="40">
         <v>45962</v>
       </c>
@@ -18614,7 +18617,7 @@
       <c r="J651" s="11"/>
       <c r="K651" s="20"/>
     </row>
-    <row r="652" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A652" s="40">
         <v>45992</v>
       </c>
@@ -18632,7 +18635,7 @@
       <c r="J652" s="11"/>
       <c r="K652" s="20"/>
     </row>
-    <row r="653" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A653" s="40">
         <v>46023</v>
       </c>
@@ -18650,7 +18653,7 @@
       <c r="J653" s="11"/>
       <c r="K653" s="20"/>
     </row>
-    <row r="654" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A654" s="40">
         <v>46054</v>
       </c>
@@ -18668,7 +18671,7 @@
       <c r="J654" s="11"/>
       <c r="K654" s="20"/>
     </row>
-    <row r="655" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A655" s="40">
         <v>46082</v>
       </c>
@@ -18686,7 +18689,7 @@
       <c r="J655" s="11"/>
       <c r="K655" s="20"/>
     </row>
-    <row r="656" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A656" s="40">
         <v>46113</v>
       </c>
@@ -18704,7 +18707,7 @@
       <c r="J656" s="11"/>
       <c r="K656" s="20"/>
     </row>
-    <row r="657" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A657" s="40">
         <v>46143</v>
       </c>
@@ -18722,7 +18725,7 @@
       <c r="J657" s="11"/>
       <c r="K657" s="20"/>
     </row>
-    <row r="658" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A658" s="40">
         <v>46174</v>
       </c>
@@ -18740,7 +18743,7 @@
       <c r="J658" s="11"/>
       <c r="K658" s="20"/>
     </row>
-    <row r="659" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A659" s="40">
         <v>46204</v>
       </c>
@@ -18758,7 +18761,7 @@
       <c r="J659" s="11"/>
       <c r="K659" s="20"/>
     </row>
-    <row r="660" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A660" s="40">
         <v>46235</v>
       </c>
@@ -18776,7 +18779,7 @@
       <c r="J660" s="11"/>
       <c r="K660" s="20"/>
     </row>
-    <row r="661" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A661" s="40">
         <v>46266</v>
       </c>
@@ -18794,7 +18797,7 @@
       <c r="J661" s="11"/>
       <c r="K661" s="20"/>
     </row>
-    <row r="662" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A662" s="40">
         <v>46296</v>
       </c>
@@ -18812,7 +18815,7 @@
       <c r="J662" s="11"/>
       <c r="K662" s="20"/>
     </row>
-    <row r="663" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A663" s="40">
         <v>46327</v>
       </c>
@@ -18830,7 +18833,7 @@
       <c r="J663" s="11"/>
       <c r="K663" s="20"/>
     </row>
-    <row r="664" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A664" s="40">
         <v>46357</v>
       </c>
@@ -18848,7 +18851,7 @@
       <c r="J664" s="11"/>
       <c r="K664" s="20"/>
     </row>
-    <row r="665" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A665" s="40">
         <v>46388</v>
       </c>
@@ -18866,7 +18869,7 @@
       <c r="J665" s="11"/>
       <c r="K665" s="20"/>
     </row>
-    <row r="666" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A666" s="40">
         <v>46419</v>
       </c>
@@ -18884,7 +18887,7 @@
       <c r="J666" s="11"/>
       <c r="K666" s="20"/>
     </row>
-    <row r="667" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A667" s="40">
         <v>46447</v>
       </c>
@@ -18902,7 +18905,7 @@
       <c r="J667" s="11"/>
       <c r="K667" s="20"/>
     </row>
-    <row r="668" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A668" s="40">
         <v>46478</v>
       </c>
@@ -18920,7 +18923,7 @@
       <c r="J668" s="11"/>
       <c r="K668" s="20"/>
     </row>
-    <row r="669" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A669" s="40">
         <v>46508</v>
       </c>
@@ -18938,7 +18941,7 @@
       <c r="J669" s="11"/>
       <c r="K669" s="20"/>
     </row>
-    <row r="670" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A670" s="40">
         <v>46539</v>
       </c>
@@ -18956,7 +18959,7 @@
       <c r="J670" s="11"/>
       <c r="K670" s="20"/>
     </row>
-    <row r="671" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A671" s="40">
         <v>46569</v>
       </c>
@@ -18974,7 +18977,7 @@
       <c r="J671" s="11"/>
       <c r="K671" s="20"/>
     </row>
-    <row r="672" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A672" s="40">
         <v>46600</v>
       </c>
@@ -18992,7 +18995,7 @@
       <c r="J672" s="11"/>
       <c r="K672" s="20"/>
     </row>
-    <row r="673" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A673" s="40">
         <v>46631</v>
       </c>
@@ -19010,7 +19013,7 @@
       <c r="J673" s="11"/>
       <c r="K673" s="20"/>
     </row>
-    <row r="674" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A674" s="40">
         <v>46661</v>
       </c>
@@ -19028,7 +19031,7 @@
       <c r="J674" s="11"/>
       <c r="K674" s="20"/>
     </row>
-    <row r="675" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A675" s="40">
         <v>46692</v>
       </c>
@@ -19046,7 +19049,7 @@
       <c r="J675" s="11"/>
       <c r="K675" s="20"/>
     </row>
-    <row r="676" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A676" s="40">
         <v>46722</v>
       </c>
@@ -19064,7 +19067,7 @@
       <c r="J676" s="11"/>
       <c r="K676" s="20"/>
     </row>
-    <row r="677" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A677" s="40">
         <v>46753</v>
       </c>
@@ -19082,7 +19085,7 @@
       <c r="J677" s="11"/>
       <c r="K677" s="20"/>
     </row>
-    <row r="678" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A678" s="40">
         <v>46784</v>
       </c>
@@ -19100,7 +19103,7 @@
       <c r="J678" s="11"/>
       <c r="K678" s="20"/>
     </row>
-    <row r="679" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A679" s="40">
         <v>46813</v>
       </c>
@@ -19118,7 +19121,7 @@
       <c r="J679" s="11"/>
       <c r="K679" s="20"/>
     </row>
-    <row r="680" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A680" s="40">
         <v>46844</v>
       </c>
@@ -19136,7 +19139,7 @@
       <c r="J680" s="11"/>
       <c r="K680" s="20"/>
     </row>
-    <row r="681" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A681" s="40">
         <v>46874</v>
       </c>
@@ -19154,7 +19157,7 @@
       <c r="J681" s="11"/>
       <c r="K681" s="20"/>
     </row>
-    <row r="682" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A682" s="40">
         <v>46905</v>
       </c>
@@ -19187,10 +19190,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{3C67B38A-DE91-4BA1-85D0-F5C61D6395E6}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{C9F25C0C-606E-415B-87B4-B098DE141EB5}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -19213,29 +19216,29 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CB8F789-193C-43F9-8D48-B0DEE5C76ADA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.21875" customWidth="1"/>
-    <col min="2" max="2" width="20.77734375" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5546875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="62" t="s">
         <v>33</v>
       </c>
@@ -19248,7 +19251,7 @@
       <c r="K1" s="63"/>
       <c r="L1" s="63"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -19277,7 +19280,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>14.688000000000001</v>
       </c>
@@ -19305,17 +19308,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>427</v>
       </c>
@@ -19339,10 +19342,10 @@
       <c r="K6" s="63"/>
       <c r="L6" s="63"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>152.1570000000001</v>
+        <v>153.6570000000001</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>
@@ -19370,7 +19373,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -19396,7 +19399,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -19422,7 +19425,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -19448,7 +19451,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -19474,7 +19477,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -19500,7 +19503,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -19526,7 +19529,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -19552,7 +19555,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -19572,7 +19575,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -19592,7 +19595,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -19612,7 +19615,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -19633,7 +19636,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -19654,7 +19657,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -19675,7 +19678,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -19696,7 +19699,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -19717,7 +19720,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -19738,7 +19741,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -19759,7 +19762,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -19780,7 +19783,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -19801,7 +19804,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -19822,7 +19825,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -19843,7 +19846,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -19864,7 +19867,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -19885,7 +19888,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -19906,7 +19909,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -19927,7 +19930,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -19948,7 +19951,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -19969,7 +19972,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -19990,7 +19993,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -20011,7 +20014,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -20032,7 +20035,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -20041,7 +20044,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -20050,7 +20053,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -20059,7 +20062,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -20068,7 +20071,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -20077,7 +20080,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -20086,7 +20089,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -20095,7 +20098,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -20104,7 +20107,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -20113,7 +20116,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -20122,7 +20125,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -20131,7 +20134,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -20140,7 +20143,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -20149,7 +20152,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -20158,7 +20161,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -20167,7 +20170,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -20176,7 +20179,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -20185,7 +20188,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -20194,7 +20197,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -20203,7 +20206,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -20212,7 +20215,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -20221,7 +20224,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -20230,7 +20233,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -20239,7 +20242,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -20248,7 +20251,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -20257,7 +20260,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -20266,7 +20269,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -20275,7 +20278,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -20284,7 +20287,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -20293,7 +20296,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/REGULAR/ROCILLO, CECILIA.xlsx
+++ b/REGULAR/ROCILLO, CECILIA.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52311365-D3FF-4753-86EF-73FFEAB8A3BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -24,7 +25,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="780" uniqueCount="428">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="781" uniqueCount="428">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1323,7 +1324,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -2189,7 +2190,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2232,7 +2233,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2296,7 +2297,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2356,7 +2357,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2422,7 +2423,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2485,7 +2486,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2583,7 +2584,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2642,7 +2643,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2707,7 +2708,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2750,7 +2751,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2825,7 +2826,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3011,7 +3012,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3077,7 +3078,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3135,7 +3136,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3201,7 +3202,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3257,7 +3258,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3332,7 +3333,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3375,7 +3376,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3441,7 +3442,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3497,7 +3498,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3595,7 +3596,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3658,7 +3659,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3724,25 +3725,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K682" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K682" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -3754,13 +3755,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="DAYS"/>
-    <tableColumn id="2" name="HOURS"/>
-    <tableColumn id="3" name="MINUTES"/>
-    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="DAYS"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="HOURS"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="MINUTES"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3769,14 +3770,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4080,7 +4081,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -4090,7 +4091,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4098,34 +4099,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K682"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A605" activePane="bottomLeft"/>
+      <pane ySplit="3696" topLeftCell="A614" activePane="bottomLeft"/>
       <selection activeCell="E10" sqref="E10"/>
-      <selection pane="bottomLeft" activeCell="B620" sqref="B620"/>
+      <selection pane="bottomLeft" activeCell="B619" sqref="B619"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -4148,7 +4149,7 @@
       <c r="J2" s="54"/>
       <c r="K2" s="55"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -4168,7 +4169,7 @@
       <c r="J3" s="56"/>
       <c r="K3" s="57"/>
     </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -4190,7 +4191,7 @@
       <c r="J4" s="58"/>
       <c r="K4" s="59"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -4198,7 +4199,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -4211,7 +4212,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="52" t="s">
@@ -4228,7 +4229,7 @@
       <c r="J7" s="52"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -4263,7 +4264,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -4287,7 +4288,7 @@
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="47" t="s">
         <v>42</v>
       </c>
@@ -4309,7 +4310,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="40">
         <v>35796</v>
       </c>
@@ -4335,7 +4336,7 @@
         <v>35821</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="40"/>
       <c r="B12" s="20" t="s">
         <v>47</v>
@@ -4355,7 +4356,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40">
         <v>35827</v>
       </c>
@@ -4381,7 +4382,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="40"/>
       <c r="B14" s="20" t="s">
         <v>48</v>
@@ -4403,7 +4404,7 @@
         <v>35842</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="40"/>
       <c r="B15" s="20" t="s">
         <v>48</v>
@@ -4425,7 +4426,7 @@
         <v>35852</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="40"/>
       <c r="B16" s="20" t="s">
         <v>51</v>
@@ -4445,7 +4446,7 @@
       <c r="J16" s="11"/>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="40">
         <v>35855</v>
       </c>
@@ -4471,7 +4472,7 @@
         <v>35864</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="40"/>
       <c r="B18" s="20" t="s">
         <v>52</v>
@@ -4491,7 +4492,7 @@
         <v>35878</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="40"/>
       <c r="B19" s="20" t="s">
         <v>48</v>
@@ -4513,7 +4514,7 @@
         <v>35879</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="40"/>
       <c r="B20" s="20" t="s">
         <v>53</v>
@@ -4533,7 +4534,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="48"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="40">
         <v>35886</v>
       </c>
@@ -4557,7 +4558,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="40">
         <v>35916</v>
       </c>
@@ -4581,7 +4582,7 @@
         <v>35954</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="40"/>
       <c r="B23" s="15" t="s">
         <v>55</v>
@@ -4603,7 +4604,7 @@
         <v>35941</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="40"/>
       <c r="B24" s="15" t="s">
         <v>56</v>
@@ -4623,7 +4624,7 @@
       <c r="J24" s="12"/>
       <c r="K24" s="15"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="40">
         <v>35947</v>
       </c>
@@ -4647,7 +4648,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="40"/>
       <c r="B26" s="15" t="s">
         <v>48</v>
@@ -4669,7 +4670,7 @@
         <v>35975</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="40"/>
       <c r="B27" s="15" t="s">
         <v>59</v>
@@ -4689,7 +4690,7 @@
       <c r="J27" s="12"/>
       <c r="K27" s="49"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="40">
         <v>35977</v>
       </c>
@@ -4715,7 +4716,7 @@
         <v>35982</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40"/>
       <c r="B29" s="20" t="s">
         <v>55</v>
@@ -4737,7 +4738,7 @@
         <v>35984</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="40"/>
       <c r="B30" s="20" t="s">
         <v>61</v>
@@ -4759,7 +4760,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="40"/>
       <c r="B31" s="20" t="s">
         <v>60</v>
@@ -4779,7 +4780,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="48"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="40">
         <v>36008</v>
       </c>
@@ -4803,7 +4804,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40">
         <v>36039</v>
       </c>
@@ -4829,7 +4830,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40"/>
       <c r="B34" s="20" t="s">
         <v>48</v>
@@ -4849,7 +4850,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40"/>
       <c r="B35" s="20" t="s">
         <v>60</v>
@@ -4869,7 +4870,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="40">
         <v>36069</v>
       </c>
@@ -4895,7 +4896,7 @@
         <v>36069</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="40"/>
       <c r="B37" s="20" t="s">
         <v>65</v>
@@ -4917,7 +4918,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40"/>
       <c r="B38" s="20" t="s">
         <v>67</v>
@@ -4937,7 +4938,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="48"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40">
         <v>36100</v>
       </c>
@@ -4963,7 +4964,7 @@
         <v>36111</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40"/>
       <c r="B40" s="20" t="s">
         <v>68</v>
@@ -4983,7 +4984,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="48"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40">
         <v>36130</v>
       </c>
@@ -5009,7 +5010,7 @@
         <v>36130</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40"/>
       <c r="B42" s="20" t="s">
         <v>55</v>
@@ -5031,7 +5032,7 @@
         <v>36157</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40"/>
       <c r="B43" s="20" t="s">
         <v>69</v>
@@ -5051,7 +5052,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="48"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="47" t="s">
         <v>70</v>
       </c>
@@ -5069,7 +5070,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="48"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40">
         <v>36161</v>
       </c>
@@ -5095,7 +5096,7 @@
         <v>36166</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40"/>
       <c r="B46" s="20" t="s">
         <v>55</v>
@@ -5117,7 +5118,7 @@
         <v>36189</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40"/>
       <c r="B47" s="20" t="s">
         <v>48</v>
@@ -5137,7 +5138,7 @@
         <v>36185</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40"/>
       <c r="B48" s="20" t="s">
         <v>71</v>
@@ -5157,7 +5158,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="48"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="40">
         <v>36192</v>
       </c>
@@ -5181,7 +5182,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="40">
         <v>36220</v>
       </c>
@@ -5207,7 +5208,7 @@
         <v>36244</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40"/>
       <c r="B51" s="20" t="s">
         <v>73</v>
@@ -5227,7 +5228,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="48"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40">
         <v>36251</v>
       </c>
@@ -5253,7 +5254,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40"/>
       <c r="B53" s="20" t="s">
         <v>48</v>
@@ -5275,7 +5276,7 @@
         <v>36269</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40"/>
       <c r="B54" s="20" t="s">
         <v>76</v>
@@ -5295,7 +5296,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40">
         <v>36281</v>
       </c>
@@ -5321,7 +5322,7 @@
         <v>36306</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40"/>
       <c r="B56" s="20" t="s">
         <v>48</v>
@@ -5341,7 +5342,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="48"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40"/>
       <c r="B57" s="20" t="s">
         <v>77</v>
@@ -5361,7 +5362,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="48"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40">
         <v>36312</v>
       </c>
@@ -5385,7 +5386,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40"/>
       <c r="B59" s="20" t="s">
         <v>74</v>
@@ -5407,7 +5408,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40"/>
       <c r="B60" s="20" t="s">
         <v>79</v>
@@ -5427,7 +5428,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40">
         <v>36342</v>
       </c>
@@ -5453,7 +5454,7 @@
         <v>36368</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="40"/>
       <c r="B62" s="20" t="s">
         <v>48</v>
@@ -5475,7 +5476,7 @@
         <v>36370</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="40"/>
       <c r="B63" s="20" t="s">
         <v>80</v>
@@ -5495,7 +5496,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="48"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40">
         <v>36373</v>
       </c>
@@ -5519,7 +5520,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40">
         <v>36404</v>
       </c>
@@ -5543,7 +5544,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40"/>
       <c r="B66" s="20" t="s">
         <v>52</v>
@@ -5563,7 +5564,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40">
         <v>36434</v>
       </c>
@@ -5587,7 +5588,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40"/>
       <c r="B68" s="20" t="s">
         <v>48</v>
@@ -5609,7 +5610,7 @@
         <v>36459</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40"/>
       <c r="B69" s="20" t="s">
         <v>48</v>
@@ -5631,7 +5632,7 @@
         <v>36473</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40">
         <v>36465</v>
       </c>
@@ -5657,7 +5658,7 @@
         <v>36481</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40"/>
       <c r="B71" s="20" t="s">
         <v>52</v>
@@ -5677,7 +5678,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40"/>
       <c r="B72" s="20" t="s">
         <v>48</v>
@@ -5695,7 +5696,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="48"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40"/>
       <c r="B73" s="20" t="s">
         <v>48</v>
@@ -5713,7 +5714,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="48"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40"/>
       <c r="B74" s="20" t="s">
         <v>85</v>
@@ -5731,7 +5732,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="48"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="40">
         <v>36495</v>
       </c>
@@ -5757,7 +5758,7 @@
         <v>36511</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40"/>
       <c r="B76" s="20" t="s">
         <v>48</v>
@@ -5777,7 +5778,7 @@
         <v>36511</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40"/>
       <c r="B77" s="20" t="s">
         <v>86</v>
@@ -5797,7 +5798,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="48"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="47" t="s">
         <v>87</v>
       </c>
@@ -5815,7 +5816,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="48"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="40">
         <v>36526</v>
       </c>
@@ -5841,7 +5842,7 @@
         <v>36532</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="40"/>
       <c r="B80" s="20" t="s">
         <v>88</v>
@@ -5863,7 +5864,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="40"/>
       <c r="B81" s="20" t="s">
         <v>68</v>
@@ -5883,7 +5884,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="48"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="40">
         <v>36557</v>
       </c>
@@ -5909,7 +5910,7 @@
         <v>36573</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="40"/>
       <c r="B83" s="20" t="s">
         <v>55</v>
@@ -5931,7 +5932,7 @@
         <v>36580</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="40"/>
       <c r="B84" s="20" t="s">
         <v>52</v>
@@ -5951,7 +5952,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="40"/>
       <c r="B85" s="20" t="s">
         <v>90</v>
@@ -5971,7 +5972,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="48"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="40">
         <v>36586</v>
       </c>
@@ -5995,7 +5996,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="40">
         <v>36617</v>
       </c>
@@ -6019,7 +6020,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="40"/>
       <c r="B88" s="20" t="s">
         <v>95</v>
@@ -6039,7 +6040,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="40">
         <v>36647</v>
       </c>
@@ -6063,7 +6064,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="40">
         <v>36678</v>
       </c>
@@ -6087,7 +6088,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="40"/>
       <c r="B91" s="20" t="s">
         <v>97</v>
@@ -6107,7 +6108,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="40">
         <v>36708</v>
       </c>
@@ -6131,7 +6132,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="40">
         <v>36739</v>
       </c>
@@ -6157,7 +6158,7 @@
         <v>36753</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="40"/>
       <c r="B94" s="20" t="s">
         <v>99</v>
@@ -6177,7 +6178,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="48"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="40">
         <v>36770</v>
       </c>
@@ -6201,7 +6202,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="40">
         <v>36800</v>
       </c>
@@ -6227,7 +6228,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="40"/>
       <c r="B97" s="20" t="s">
         <v>48</v>
@@ -6249,7 +6250,7 @@
         <v>36816</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="40"/>
       <c r="B98" s="20" t="s">
         <v>48</v>
@@ -6271,7 +6272,7 @@
         <v>36824</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="40"/>
       <c r="B99" s="20" t="s">
         <v>102</v>
@@ -6291,7 +6292,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="48"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="40">
         <v>36831</v>
       </c>
@@ -6317,7 +6318,7 @@
         <v>36852</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="40"/>
       <c r="B101" s="20" t="s">
         <v>103</v>
@@ -6335,7 +6336,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="48"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="40">
         <v>36861</v>
       </c>
@@ -6361,7 +6362,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="40"/>
       <c r="B103" s="20" t="s">
         <v>48</v>
@@ -6383,7 +6384,7 @@
         <v>36887</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="40"/>
       <c r="B104" s="20" t="s">
         <v>106</v>
@@ -6403,7 +6404,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="48"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="40"/>
       <c r="B105" s="20" t="s">
         <v>107</v>
@@ -6423,7 +6424,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="48"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="47" t="s">
         <v>105</v>
       </c>
@@ -6441,7 +6442,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="48"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="40">
         <v>36892</v>
       </c>
@@ -6467,7 +6468,7 @@
         <v>36913</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="40"/>
       <c r="B108" s="20" t="s">
         <v>55</v>
@@ -6489,7 +6490,7 @@
         <v>36934</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="40"/>
       <c r="B109" s="20" t="s">
         <v>52</v>
@@ -6509,7 +6510,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="40"/>
       <c r="B110" s="20" t="s">
         <v>108</v>
@@ -6529,7 +6530,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="48"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="40">
         <v>36923</v>
       </c>
@@ -6553,7 +6554,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="40">
         <v>36951</v>
       </c>
@@ -6579,7 +6580,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="40"/>
       <c r="B113" s="20" t="s">
         <v>111</v>
@@ -6599,7 +6600,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="40">
         <v>36982</v>
       </c>
@@ -6625,7 +6626,7 @@
         <v>37009</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="40">
         <v>37012</v>
       </c>
@@ -6651,7 +6652,7 @@
         <v>37020</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="40"/>
       <c r="B116" s="20" t="s">
         <v>52</v>
@@ -6671,7 +6672,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="40">
         <v>37043</v>
       </c>
@@ -6697,7 +6698,7 @@
         <v>37047</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="40">
         <v>37073</v>
       </c>
@@ -6723,7 +6724,7 @@
         <v>37089</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="40"/>
       <c r="B119" s="20" t="s">
         <v>48</v>
@@ -6743,7 +6744,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="48"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="40"/>
       <c r="B120" s="20" t="s">
         <v>114</v>
@@ -6763,7 +6764,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="48"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="40">
         <v>37104</v>
       </c>
@@ -6789,7 +6790,7 @@
         <v>37121</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="40"/>
       <c r="B122" s="20" t="s">
         <v>48</v>
@@ -6811,7 +6812,7 @@
         <v>37119</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="40"/>
       <c r="B123" s="20" t="s">
         <v>115</v>
@@ -6831,7 +6832,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="48"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="40">
         <v>37135</v>
       </c>
@@ -6855,7 +6856,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="40"/>
       <c r="B125" s="20" t="s">
         <v>52</v>
@@ -6875,7 +6876,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="40">
         <v>37165</v>
       </c>
@@ -6901,7 +6902,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="40"/>
       <c r="B127" s="20" t="s">
         <v>88</v>
@@ -6923,7 +6924,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="40"/>
       <c r="B128" s="20" t="s">
         <v>48</v>
@@ -6945,7 +6946,7 @@
         <v>37183</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="40"/>
       <c r="B129" s="20" t="s">
         <v>74</v>
@@ -6967,7 +6968,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="40"/>
       <c r="B130" s="20" t="s">
         <v>119</v>
@@ -6987,7 +6988,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="40">
         <v>37196</v>
       </c>
@@ -7013,7 +7014,7 @@
         <v>37214</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="40"/>
       <c r="B132" s="20" t="s">
         <v>55</v>
@@ -7035,7 +7036,7 @@
         <v>37217</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="40"/>
       <c r="B133" s="20" t="s">
         <v>55</v>
@@ -7057,7 +7058,7 @@
         <v>37237</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="40"/>
       <c r="B134" s="20" t="s">
         <v>122</v>
@@ -7075,7 +7076,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="48"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="40">
         <v>37226</v>
       </c>
@@ -7101,7 +7102,7 @@
         <v>37232</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="40"/>
       <c r="B136" s="20" t="s">
         <v>123</v>
@@ -7121,7 +7122,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="48"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="47" t="s">
         <v>124</v>
       </c>
@@ -7139,7 +7140,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="23">
         <v>37257</v>
       </c>
@@ -7165,7 +7166,7 @@
         <v>37265</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="23"/>
       <c r="B139" s="20" t="s">
         <v>74</v>
@@ -7187,7 +7188,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" s="23"/>
       <c r="B140" s="20" t="s">
         <v>126</v>
@@ -7207,7 +7208,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" s="40">
         <v>37288</v>
       </c>
@@ -7231,7 +7232,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" s="40"/>
       <c r="B142" s="20" t="s">
         <v>52</v>
@@ -7251,7 +7252,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" s="40"/>
       <c r="B143" s="20" t="s">
         <v>74</v>
@@ -7271,7 +7272,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" s="40">
         <v>37316</v>
       </c>
@@ -7295,7 +7296,7 @@
       <c r="J144" s="11"/>
       <c r="K144" s="20"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" s="40">
         <v>37347</v>
       </c>
@@ -7321,7 +7322,7 @@
         <v>37371</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" s="40"/>
       <c r="B146" s="20" t="s">
         <v>131</v>
@@ -7341,7 +7342,7 @@
       <c r="J146" s="11"/>
       <c r="K146" s="48"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" s="40">
         <v>37377</v>
       </c>
@@ -7367,7 +7368,7 @@
         <v>37408</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" s="40"/>
       <c r="B148" s="20" t="s">
         <v>132</v>
@@ -7387,7 +7388,7 @@
       <c r="J148" s="11"/>
       <c r="K148" s="48"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" s="40">
         <v>37408</v>
       </c>
@@ -7413,7 +7414,7 @@
         <v>37424</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" s="40"/>
       <c r="B150" s="20" t="s">
         <v>133</v>
@@ -7433,7 +7434,7 @@
       <c r="J150" s="11"/>
       <c r="K150" s="48"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151" s="40"/>
       <c r="B151" s="20" t="s">
         <v>52</v>
@@ -7453,7 +7454,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152" s="40">
         <v>37438</v>
       </c>
@@ -7479,7 +7480,7 @@
         <v>37464</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" s="40"/>
       <c r="B153" s="20" t="s">
         <v>135</v>
@@ -7499,7 +7500,7 @@
       <c r="J153" s="11"/>
       <c r="K153" s="48"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" s="40">
         <v>37469</v>
       </c>
@@ -7525,7 +7526,7 @@
         <v>37477</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" s="40"/>
       <c r="B155" s="20" t="s">
         <v>136</v>
@@ -7545,7 +7546,7 @@
       <c r="J155" s="11"/>
       <c r="K155" s="48"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" s="40">
         <v>37500</v>
       </c>
@@ -7569,7 +7570,7 @@
       <c r="J156" s="11"/>
       <c r="K156" s="20"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157" s="40"/>
       <c r="B157" s="20" t="s">
         <v>52</v>
@@ -7589,7 +7590,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158" s="40">
         <v>37530</v>
       </c>
@@ -7613,7 +7614,7 @@
       <c r="J158" s="11"/>
       <c r="K158" s="20"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159" s="40"/>
       <c r="B159" s="20" t="s">
         <v>48</v>
@@ -7635,7 +7636,7 @@
         <v>37537</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160" s="40"/>
       <c r="B160" s="20" t="s">
         <v>88</v>
@@ -7657,7 +7658,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A161" s="40"/>
       <c r="B161" s="20" t="s">
         <v>48</v>
@@ -7679,7 +7680,7 @@
         <v>37554</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162" s="40"/>
       <c r="B162" s="20" t="s">
         <v>55</v>
@@ -7701,7 +7702,7 @@
         <v>37582</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163" s="40"/>
       <c r="B163" s="20" t="s">
         <v>140</v>
@@ -7721,7 +7722,7 @@
       <c r="J163" s="11"/>
       <c r="K163" s="48"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A164" s="40">
         <v>37561</v>
       </c>
@@ -7747,7 +7748,7 @@
         <v>37575</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A165" s="40"/>
       <c r="B165" s="20" t="s">
         <v>141</v>
@@ -7767,7 +7768,7 @@
       <c r="J165" s="11"/>
       <c r="K165" s="48"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166" s="40">
         <v>37591</v>
       </c>
@@ -7793,7 +7794,7 @@
         <v>37602</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A167" s="40"/>
       <c r="B167" s="20" t="s">
         <v>49</v>
@@ -7815,7 +7816,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A168" s="40"/>
       <c r="B168" s="20" t="s">
         <v>74</v>
@@ -7837,7 +7838,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A169" s="40"/>
       <c r="B169" s="20" t="s">
         <v>142</v>
@@ -7857,7 +7858,7 @@
       <c r="J169" s="11"/>
       <c r="K169" s="20"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170" s="47" t="s">
         <v>145</v>
       </c>
@@ -7875,7 +7876,7 @@
       <c r="J170" s="11"/>
       <c r="K170" s="20"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A171" s="40">
         <v>37622</v>
       </c>
@@ -7901,7 +7902,7 @@
         <v>37638</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A172" s="40"/>
       <c r="B172" s="20" t="s">
         <v>52</v>
@@ -7921,7 +7922,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A173" s="40"/>
       <c r="B173" s="20" t="s">
         <v>48</v>
@@ -7943,7 +7944,7 @@
         <v>37651</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A174" s="40"/>
       <c r="B174" s="20" t="s">
         <v>48</v>
@@ -7965,7 +7966,7 @@
         <v>37655</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A175" s="40"/>
       <c r="B175" s="20" t="s">
         <v>147</v>
@@ -7985,7 +7986,7 @@
       <c r="J175" s="11"/>
       <c r="K175" s="20"/>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A176" s="40">
         <v>37653</v>
       </c>
@@ -8009,7 +8010,7 @@
       <c r="J176" s="11"/>
       <c r="K176" s="20"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A177" s="40">
         <v>37681</v>
       </c>
@@ -8033,7 +8034,7 @@
       <c r="J177" s="11"/>
       <c r="K177" s="20"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A178" s="40"/>
       <c r="B178" s="20" t="s">
         <v>52</v>
@@ -8053,7 +8054,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A179" s="40">
         <v>37712</v>
       </c>
@@ -8079,7 +8080,7 @@
         <v>37713</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A180" s="40"/>
       <c r="B180" s="20" t="s">
         <v>150</v>
@@ -8099,7 +8100,7 @@
       <c r="J180" s="11"/>
       <c r="K180" s="48"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A181" s="40">
         <v>37742</v>
       </c>
@@ -8123,7 +8124,7 @@
       <c r="J181" s="11"/>
       <c r="K181" s="20"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A182" s="40">
         <v>37773</v>
       </c>
@@ -8149,7 +8150,7 @@
         <v>37781</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A183" s="40"/>
       <c r="B183" s="20" t="s">
         <v>48</v>
@@ -8171,7 +8172,7 @@
         <v>37802</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A184" s="40"/>
       <c r="B184" s="20" t="s">
         <v>152</v>
@@ -8191,7 +8192,7 @@
       <c r="J184" s="11"/>
       <c r="K184" s="48"/>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A185" s="40">
         <v>37803</v>
       </c>
@@ -8217,7 +8218,7 @@
         <v>37830</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A186" s="40">
         <v>37834</v>
       </c>
@@ -8243,7 +8244,7 @@
         <v>37837</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A187" s="40"/>
       <c r="B187" s="20" t="s">
         <v>153</v>
@@ -8263,7 +8264,7 @@
       <c r="J187" s="11"/>
       <c r="K187" s="48"/>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A188" s="40"/>
       <c r="B188" s="20" t="s">
         <v>52</v>
@@ -8281,7 +8282,7 @@
       <c r="J188" s="11"/>
       <c r="K188" s="48"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A189" s="40">
         <v>37865</v>
       </c>
@@ -8307,7 +8308,7 @@
         <v>37889</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A190" s="40">
         <v>37895</v>
       </c>
@@ -8333,7 +8334,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A191" s="40"/>
       <c r="B191" s="20" t="s">
         <v>48</v>
@@ -8355,7 +8356,7 @@
         <v>37914</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A192" s="40"/>
       <c r="B192" s="20" t="s">
         <v>48</v>
@@ -8377,7 +8378,7 @@
         <v>37916</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A193" s="40"/>
       <c r="B193" s="20" t="s">
         <v>155</v>
@@ -8397,7 +8398,7 @@
       <c r="J193" s="11"/>
       <c r="K193" s="48"/>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A194" s="40">
         <v>37926</v>
       </c>
@@ -8421,7 +8422,7 @@
       <c r="J194" s="11"/>
       <c r="K194" s="20"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A195" s="40">
         <v>37956</v>
       </c>
@@ -8447,7 +8448,7 @@
         <v>37958</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A196" s="40"/>
       <c r="B196" s="20" t="s">
         <v>74</v>
@@ -8469,7 +8470,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A197" s="40"/>
       <c r="B197" s="20" t="s">
         <v>48</v>
@@ -8491,7 +8492,7 @@
         <v>37973</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A198" s="40"/>
       <c r="B198" s="20" t="s">
         <v>48</v>
@@ -8513,7 +8514,7 @@
         <v>37977</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A199" s="40"/>
       <c r="B199" s="20" t="s">
         <v>158</v>
@@ -8533,7 +8534,7 @@
       <c r="J199" s="11"/>
       <c r="K199" s="20"/>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A200" s="47" t="s">
         <v>159</v>
       </c>
@@ -8551,7 +8552,7 @@
       <c r="J200" s="11"/>
       <c r="K200" s="20"/>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A201" s="40">
         <v>37987</v>
       </c>
@@ -8577,7 +8578,7 @@
         <v>37994</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A202" s="40"/>
       <c r="B202" s="20" t="s">
         <v>48</v>
@@ -8599,7 +8600,7 @@
         <v>38016</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A203" s="40"/>
       <c r="B203" s="20" t="s">
         <v>160</v>
@@ -8619,7 +8620,7 @@
       <c r="J203" s="11"/>
       <c r="K203" s="48"/>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A204" s="40">
         <v>38018</v>
       </c>
@@ -8643,7 +8644,7 @@
       <c r="J204" s="11"/>
       <c r="K204" s="48"/>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A205" s="40">
         <v>38047</v>
       </c>
@@ -8669,7 +8670,7 @@
         <v>38055</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A206" s="40"/>
       <c r="B206" s="20" t="s">
         <v>162</v>
@@ -8689,7 +8690,7 @@
       <c r="J206" s="11"/>
       <c r="K206" s="48"/>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A207" s="40">
         <v>38078</v>
       </c>
@@ -8713,7 +8714,7 @@
       <c r="J207" s="11"/>
       <c r="K207" s="20"/>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A208" s="40"/>
       <c r="B208" s="20" t="s">
         <v>52</v>
@@ -8733,7 +8734,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A209" s="40">
         <v>38108</v>
       </c>
@@ -8759,7 +8760,7 @@
         <v>38107</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A210" s="40"/>
       <c r="B210" s="20" t="s">
         <v>165</v>
@@ -8779,7 +8780,7 @@
       <c r="J210" s="11"/>
       <c r="K210" s="48"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A211" s="40">
         <v>38139</v>
       </c>
@@ -8805,7 +8806,7 @@
         <v>38156</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A212" s="40"/>
       <c r="B212" s="20" t="s">
         <v>166</v>
@@ -8825,7 +8826,7 @@
       <c r="J212" s="11"/>
       <c r="K212" s="48"/>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A213" s="40">
         <v>38169</v>
       </c>
@@ -8849,7 +8850,7 @@
       <c r="J213" s="11"/>
       <c r="K213" s="20"/>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A214" s="40"/>
       <c r="B214" s="20" t="s">
         <v>74</v>
@@ -8871,7 +8872,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A215" s="40">
         <v>38200</v>
       </c>
@@ -8895,7 +8896,7 @@
       <c r="J215" s="11"/>
       <c r="K215" s="20"/>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A216" s="40">
         <v>38231</v>
       </c>
@@ -8921,7 +8922,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A217" s="40"/>
       <c r="B217" s="20" t="s">
         <v>170</v>
@@ -8941,7 +8942,7 @@
       <c r="J217" s="11"/>
       <c r="K217" s="20"/>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A218" s="40">
         <v>38261</v>
       </c>
@@ -8965,7 +8966,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A219" s="40"/>
       <c r="B219" s="20" t="s">
         <v>48</v>
@@ -8987,7 +8988,7 @@
         <v>38281</v>
       </c>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A220" s="40"/>
       <c r="B220" s="20" t="s">
         <v>172</v>
@@ -9007,7 +9008,7 @@
       <c r="J220" s="11"/>
       <c r="K220" s="20"/>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A221" s="40">
         <v>38292</v>
       </c>
@@ -9031,7 +9032,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A222" s="40"/>
       <c r="B222" s="20" t="s">
         <v>49</v>
@@ -9053,7 +9054,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A223" s="40"/>
       <c r="B223" s="20" t="s">
         <v>174</v>
@@ -9073,7 +9074,7 @@
       <c r="J223" s="11"/>
       <c r="K223" s="20"/>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A224" s="40">
         <v>38322</v>
       </c>
@@ -9099,7 +9100,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A225" s="40"/>
       <c r="B225" s="20" t="s">
         <v>176</v>
@@ -9119,7 +9120,7 @@
       <c r="J225" s="11"/>
       <c r="K225" s="20"/>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A226" s="47" t="s">
         <v>177</v>
       </c>
@@ -9137,7 +9138,7 @@
       <c r="J226" s="11"/>
       <c r="K226" s="20"/>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A227" s="40">
         <v>38353</v>
       </c>
@@ -9161,7 +9162,7 @@
       <c r="J227" s="11"/>
       <c r="K227" s="20"/>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A228" s="40">
         <v>38384</v>
       </c>
@@ -9185,7 +9186,7 @@
       <c r="J228" s="11"/>
       <c r="K228" s="20"/>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A229" s="40">
         <v>38412</v>
       </c>
@@ -9209,7 +9210,7 @@
       <c r="J229" s="11"/>
       <c r="K229" s="20"/>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A230" s="40">
         <v>38443</v>
       </c>
@@ -9233,7 +9234,7 @@
       <c r="J230" s="11"/>
       <c r="K230" s="20"/>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A231" s="40">
         <v>38473</v>
       </c>
@@ -9257,7 +9258,7 @@
       <c r="J231" s="11"/>
       <c r="K231" s="20"/>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A232" s="40">
         <v>38504</v>
       </c>
@@ -9281,7 +9282,7 @@
       <c r="J232" s="11"/>
       <c r="K232" s="20"/>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A233" s="40">
         <v>38534</v>
       </c>
@@ -9305,7 +9306,7 @@
       <c r="J233" s="11"/>
       <c r="K233" s="20"/>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A234" s="40">
         <v>38565</v>
       </c>
@@ -9329,7 +9330,7 @@
       <c r="J234" s="11"/>
       <c r="K234" s="20"/>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A235" s="40">
         <v>38596</v>
       </c>
@@ -9355,7 +9356,7 @@
         <v>38615</v>
       </c>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A236" s="40"/>
       <c r="B236" s="20" t="s">
         <v>186</v>
@@ -9375,7 +9376,7 @@
       <c r="J236" s="11"/>
       <c r="K236" s="48"/>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A237" s="40">
         <v>38626</v>
       </c>
@@ -9399,7 +9400,7 @@
       <c r="J237" s="11"/>
       <c r="K237" s="20"/>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A238" s="40">
         <v>38657</v>
       </c>
@@ -9423,7 +9424,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A239" s="40"/>
       <c r="B239" s="20" t="s">
         <v>189</v>
@@ -9443,7 +9444,7 @@
       <c r="J239" s="11"/>
       <c r="K239" s="20"/>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A240" s="40">
         <v>38687</v>
       </c>
@@ -9467,7 +9468,7 @@
       <c r="J240" s="11"/>
       <c r="K240" s="20"/>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A241" s="40"/>
       <c r="B241" s="20" t="s">
         <v>190</v>
@@ -9487,7 +9488,7 @@
       <c r="J241" s="11"/>
       <c r="K241" s="20"/>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A242" s="47" t="s">
         <v>191</v>
       </c>
@@ -9505,7 +9506,7 @@
       <c r="J242" s="11"/>
       <c r="K242" s="20"/>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A243" s="40">
         <v>38718</v>
       </c>
@@ -9529,7 +9530,7 @@
       <c r="J243" s="11"/>
       <c r="K243" s="20"/>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A244" s="40">
         <v>38749</v>
       </c>
@@ -9553,7 +9554,7 @@
       <c r="J244" s="11"/>
       <c r="K244" s="20"/>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A245" s="40">
         <v>38777</v>
       </c>
@@ -9577,7 +9578,7 @@
       <c r="J245" s="11"/>
       <c r="K245" s="20"/>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A246" s="40">
         <v>38808</v>
       </c>
@@ -9601,7 +9602,7 @@
       <c r="J246" s="11"/>
       <c r="K246" s="20"/>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A247" s="40">
         <v>38838</v>
       </c>
@@ -9627,7 +9628,7 @@
         <v>38863</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A248" s="40"/>
       <c r="B248" s="20" t="s">
         <v>48</v>
@@ -9649,7 +9650,7 @@
         <v>38867</v>
       </c>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A249" s="40"/>
       <c r="B249" s="20" t="s">
         <v>196</v>
@@ -9669,7 +9670,7 @@
       <c r="J249" s="11"/>
       <c r="K249" s="48"/>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A250" s="40"/>
       <c r="B250" s="20" t="s">
         <v>52</v>
@@ -9689,7 +9690,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A251" s="40">
         <v>38869</v>
       </c>
@@ -9713,7 +9714,7 @@
       <c r="J251" s="11"/>
       <c r="K251" s="20"/>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A252" s="40">
         <v>38899</v>
       </c>
@@ -9737,7 +9738,7 @@
       <c r="J252" s="11"/>
       <c r="K252" s="20"/>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A253" s="40">
         <v>38930</v>
       </c>
@@ -9761,7 +9762,7 @@
       <c r="J253" s="11"/>
       <c r="K253" s="20"/>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A254" s="40">
         <v>38961</v>
       </c>
@@ -9785,7 +9786,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A255" s="40"/>
       <c r="B255" s="20" t="s">
         <v>48</v>
@@ -9805,7 +9806,7 @@
         <v>45182</v>
       </c>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A256" s="40"/>
       <c r="B256" s="20" t="s">
         <v>202</v>
@@ -9825,7 +9826,7 @@
       <c r="J256" s="11"/>
       <c r="K256" s="20"/>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A257" s="40">
         <v>38991</v>
       </c>
@@ -9851,7 +9852,7 @@
         <v>39000</v>
       </c>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A258" s="40"/>
       <c r="B258" s="20" t="s">
         <v>106</v>
@@ -9873,7 +9874,7 @@
         <v>39013</v>
       </c>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A259" s="40"/>
       <c r="B259" s="20" t="s">
         <v>52</v>
@@ -9893,7 +9894,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A260" s="40"/>
       <c r="B260" s="20" t="s">
         <v>203</v>
@@ -9913,7 +9914,7 @@
       <c r="J260" s="11"/>
       <c r="K260" s="48"/>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A261" s="40">
         <v>39022</v>
       </c>
@@ -9939,7 +9940,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A262" s="40"/>
       <c r="B262" s="20" t="s">
         <v>206</v>
@@ -9959,7 +9960,7 @@
       <c r="J262" s="11"/>
       <c r="K262" s="20"/>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A263" s="40">
         <v>39052</v>
       </c>
@@ -9983,7 +9984,7 @@
       <c r="J263" s="11"/>
       <c r="K263" s="20"/>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A264" s="47" t="s">
         <v>209</v>
       </c>
@@ -10001,7 +10002,7 @@
       <c r="J264" s="11"/>
       <c r="K264" s="20"/>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A265" s="40">
         <v>39083</v>
       </c>
@@ -10025,7 +10026,7 @@
       <c r="J265" s="11"/>
       <c r="K265" s="20"/>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A266" s="40">
         <v>39114</v>
       </c>
@@ -10049,7 +10050,7 @@
       <c r="J266" s="11"/>
       <c r="K266" s="20"/>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A267" s="40">
         <v>39142</v>
       </c>
@@ -10073,7 +10074,7 @@
       <c r="J267" s="11"/>
       <c r="K267" s="20"/>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A268" s="40">
         <v>39173</v>
       </c>
@@ -10097,7 +10098,7 @@
       <c r="J268" s="11"/>
       <c r="K268" s="20"/>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A269" s="40">
         <v>39203</v>
       </c>
@@ -10123,7 +10124,7 @@
         <v>39233</v>
       </c>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A270" s="40"/>
       <c r="B270" s="20" t="s">
         <v>74</v>
@@ -10145,7 +10146,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A271" s="40"/>
       <c r="B271" s="20" t="s">
         <v>215</v>
@@ -10165,7 +10166,7 @@
       <c r="J271" s="11"/>
       <c r="K271" s="20"/>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A272" s="40">
         <v>39234</v>
       </c>
@@ -10189,7 +10190,7 @@
       <c r="J272" s="11"/>
       <c r="K272" s="20"/>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A273" s="40">
         <v>39264</v>
       </c>
@@ -10215,7 +10216,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A274" s="40"/>
       <c r="B274" s="20" t="s">
         <v>48</v>
@@ -10237,7 +10238,7 @@
         <v>39279</v>
       </c>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A275" s="40"/>
       <c r="B275" s="20" t="s">
         <v>218</v>
@@ -10255,7 +10256,7 @@
       <c r="J275" s="11"/>
       <c r="K275" s="20"/>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A276" s="40">
         <v>39295</v>
       </c>
@@ -10281,7 +10282,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A277" s="40"/>
       <c r="B277" s="20" t="s">
         <v>219</v>
@@ -10301,7 +10302,7 @@
       <c r="J277" s="11"/>
       <c r="K277" s="20"/>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A278" s="40">
         <v>39326</v>
       </c>
@@ -10327,7 +10328,7 @@
         <v>39356</v>
       </c>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A279" s="40"/>
       <c r="B279" s="20" t="s">
         <v>220</v>
@@ -10347,7 +10348,7 @@
       <c r="J279" s="11"/>
       <c r="K279" s="48"/>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A280" s="40">
         <v>39356</v>
       </c>
@@ -10373,7 +10374,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A281" s="40"/>
       <c r="B281" s="20" t="s">
         <v>222</v>
@@ -10393,7 +10394,7 @@
       <c r="J281" s="11"/>
       <c r="K281" s="20"/>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A282" s="40"/>
       <c r="B282" s="20" t="s">
         <v>223</v>
@@ -10413,7 +10414,7 @@
       <c r="J282" s="11"/>
       <c r="K282" s="20"/>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A283" s="40">
         <v>39387</v>
       </c>
@@ -10439,7 +10440,7 @@
         <v>39408</v>
       </c>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A284" s="40"/>
       <c r="B284" s="15" t="s">
         <v>95</v>
@@ -10461,7 +10462,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A285" s="40"/>
       <c r="B285" s="15" t="s">
         <v>225</v>
@@ -10481,7 +10482,7 @@
       <c r="J285" s="12"/>
       <c r="K285" s="49"/>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A286" s="40">
         <v>39417</v>
       </c>
@@ -10505,7 +10506,7 @@
       <c r="J286" s="12"/>
       <c r="K286" s="15"/>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A287" s="47" t="s">
         <v>226</v>
       </c>
@@ -10523,7 +10524,7 @@
       <c r="J287" s="12"/>
       <c r="K287" s="15"/>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A288" s="40">
         <v>39448</v>
       </c>
@@ -10547,7 +10548,7 @@
       <c r="J288" s="11"/>
       <c r="K288" s="20"/>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A289" s="40">
         <v>39479</v>
       </c>
@@ -10571,7 +10572,7 @@
       <c r="J289" s="11"/>
       <c r="K289" s="20"/>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A290" s="40">
         <v>39508</v>
       </c>
@@ -10595,7 +10596,7 @@
       <c r="J290" s="11"/>
       <c r="K290" s="20"/>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A291" s="40">
         <v>39539</v>
       </c>
@@ -10621,7 +10622,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A292" s="40">
         <v>39569</v>
       </c>
@@ -10645,7 +10646,7 @@
       <c r="J292" s="11"/>
       <c r="K292" s="20"/>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A293" s="40">
         <v>39600</v>
       </c>
@@ -10669,7 +10670,7 @@
       <c r="J293" s="11"/>
       <c r="K293" s="20"/>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A294" s="40">
         <v>39630</v>
       </c>
@@ -10693,7 +10694,7 @@
       <c r="J294" s="11"/>
       <c r="K294" s="20"/>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A295" s="40">
         <v>39661</v>
       </c>
@@ -10717,7 +10718,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A296" s="40"/>
       <c r="B296" s="20" t="s">
         <v>234</v>
@@ -10737,7 +10738,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A297" s="40"/>
       <c r="B297" s="20" t="s">
         <v>236</v>
@@ -10757,7 +10758,7 @@
       <c r="J297" s="11"/>
       <c r="K297" s="20"/>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A298" s="40">
         <v>39692</v>
       </c>
@@ -10783,7 +10784,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A299" s="40"/>
       <c r="B299" s="20" t="s">
         <v>95</v>
@@ -10805,7 +10806,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A300" s="40"/>
       <c r="B300" s="20" t="s">
         <v>239</v>
@@ -10827,7 +10828,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A301" s="40"/>
       <c r="B301" s="20" t="s">
         <v>241</v>
@@ -10847,7 +10848,7 @@
       <c r="J301" s="11"/>
       <c r="K301" s="20"/>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A302" s="40">
         <v>39722</v>
       </c>
@@ -10873,7 +10874,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A303" s="40"/>
       <c r="B303" s="20" t="s">
         <v>106</v>
@@ -10895,7 +10896,7 @@
         <v>39748</v>
       </c>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A304" s="40"/>
       <c r="B304" s="20" t="s">
         <v>244</v>
@@ -10915,7 +10916,7 @@
       <c r="J304" s="11"/>
       <c r="K304" s="48"/>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A305" s="40">
         <v>39753</v>
       </c>
@@ -10941,7 +10942,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A306" s="40"/>
       <c r="B306" s="20" t="s">
         <v>246</v>
@@ -10961,7 +10962,7 @@
       <c r="J306" s="11"/>
       <c r="K306" s="20"/>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A307" s="40">
         <v>39783</v>
       </c>
@@ -10985,7 +10986,7 @@
       <c r="J307" s="11"/>
       <c r="K307" s="20"/>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A308" s="47" t="s">
         <v>248</v>
       </c>
@@ -11003,7 +11004,7 @@
       <c r="J308" s="11"/>
       <c r="K308" s="20"/>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A309" s="40">
         <v>39814</v>
       </c>
@@ -11027,7 +11028,7 @@
       <c r="J309" s="11"/>
       <c r="K309" s="20"/>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A310" s="40">
         <v>39845</v>
       </c>
@@ -11051,7 +11052,7 @@
       <c r="J310" s="11"/>
       <c r="K310" s="20"/>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A311" s="40">
         <v>39873</v>
       </c>
@@ -11075,7 +11076,7 @@
       <c r="J311" s="11"/>
       <c r="K311" s="20"/>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A312" s="40">
         <v>39904</v>
       </c>
@@ -11099,7 +11100,7 @@
       <c r="J312" s="11"/>
       <c r="K312" s="20"/>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A313" s="40">
         <v>39934</v>
       </c>
@@ -11123,7 +11124,7 @@
       <c r="J313" s="11"/>
       <c r="K313" s="20"/>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A314" s="40">
         <v>39965</v>
       </c>
@@ -11147,7 +11148,7 @@
       <c r="J314" s="11"/>
       <c r="K314" s="20"/>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A315" s="40">
         <v>39995</v>
       </c>
@@ -11171,7 +11172,7 @@
       <c r="J315" s="11"/>
       <c r="K315" s="20"/>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A316" s="40">
         <v>40026</v>
       </c>
@@ -11197,7 +11198,7 @@
         <v>40051</v>
       </c>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A317" s="40"/>
       <c r="B317" s="20" t="s">
         <v>255</v>
@@ -11217,7 +11218,7 @@
       <c r="J317" s="11"/>
       <c r="K317" s="48"/>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A318" s="40">
         <v>40057</v>
       </c>
@@ -11241,7 +11242,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A319" s="40"/>
       <c r="B319" s="20" t="s">
         <v>74</v>
@@ -11263,7 +11264,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A320" s="40"/>
       <c r="B320" s="20" t="s">
         <v>257</v>
@@ -11283,7 +11284,7 @@
       <c r="J320" s="11"/>
       <c r="K320" s="20"/>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A321" s="40">
         <v>40087</v>
       </c>
@@ -11309,7 +11310,7 @@
         <v>40109</v>
       </c>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A322" s="40"/>
       <c r="B322" s="20" t="s">
         <v>48</v>
@@ -11331,7 +11332,7 @@
         <v>40105</v>
       </c>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A323" s="40"/>
       <c r="B323" s="20" t="s">
         <v>258</v>
@@ -11351,7 +11352,7 @@
       <c r="J323" s="11"/>
       <c r="K323" s="48"/>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A324" s="40">
         <v>40118</v>
       </c>
@@ -11375,7 +11376,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A325" s="40"/>
       <c r="B325" s="20" t="s">
         <v>260</v>
@@ -11395,7 +11396,7 @@
       <c r="J325" s="11"/>
       <c r="K325" s="20"/>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A326" s="40">
         <v>40148</v>
       </c>
@@ -11421,7 +11422,7 @@
         <v>40170</v>
       </c>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A327" s="40"/>
       <c r="B327" s="20" t="s">
         <v>261</v>
@@ -11443,7 +11444,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A328" s="40"/>
       <c r="B328" s="20" t="s">
         <v>178</v>
@@ -11463,7 +11464,7 @@
       <c r="J328" s="11"/>
       <c r="K328" s="48"/>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A329" s="47" t="s">
         <v>263</v>
       </c>
@@ -11483,7 +11484,7 @@
       <c r="J329" s="11"/>
       <c r="K329" s="20"/>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A330" s="23">
         <v>40179</v>
       </c>
@@ -11505,7 +11506,7 @@
       <c r="J330" s="11"/>
       <c r="K330" s="20"/>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A331" s="40">
         <v>40210</v>
       </c>
@@ -11529,7 +11530,7 @@
       <c r="J331" s="11"/>
       <c r="K331" s="20"/>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A332" s="40">
         <v>40238</v>
       </c>
@@ -11553,7 +11554,7 @@
       <c r="J332" s="11"/>
       <c r="K332" s="20"/>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A333" s="40">
         <v>40269</v>
       </c>
@@ -11577,7 +11578,7 @@
       <c r="J333" s="11"/>
       <c r="K333" s="20"/>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A334" s="40">
         <v>40299</v>
       </c>
@@ -11603,7 +11604,7 @@
         <v>40326</v>
       </c>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A335" s="40"/>
       <c r="B335" s="20" t="s">
         <v>268</v>
@@ -11623,7 +11624,7 @@
       <c r="J335" s="11"/>
       <c r="K335" s="48"/>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A336" s="40">
         <v>40330</v>
       </c>
@@ -11647,7 +11648,7 @@
       <c r="J336" s="11"/>
       <c r="K336" s="20"/>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A337" s="40">
         <v>40360</v>
       </c>
@@ -11671,7 +11672,7 @@
       <c r="J337" s="11"/>
       <c r="K337" s="20"/>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A338" s="40">
         <v>40391</v>
       </c>
@@ -11695,7 +11696,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A339" s="40"/>
       <c r="B339" s="20" t="s">
         <v>272</v>
@@ -11715,7 +11716,7 @@
       <c r="J339" s="11"/>
       <c r="K339" s="20"/>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A340" s="40">
         <v>40422</v>
       </c>
@@ -11741,7 +11742,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A341" s="40"/>
       <c r="B341" s="20" t="s">
         <v>274</v>
@@ -11761,7 +11762,7 @@
       <c r="J341" s="11"/>
       <c r="K341" s="20"/>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A342" s="40">
         <v>40452</v>
       </c>
@@ -11787,7 +11788,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A343" s="40"/>
       <c r="B343" s="20" t="s">
         <v>276</v>
@@ -11807,7 +11808,7 @@
       <c r="J343" s="11"/>
       <c r="K343" s="20"/>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A344" s="40">
         <v>40483</v>
       </c>
@@ -11831,7 +11832,7 @@
       <c r="J344" s="11"/>
       <c r="K344" s="20"/>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A345" s="40">
         <v>40513</v>
       </c>
@@ -11857,7 +11858,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A346" s="40"/>
       <c r="B346" s="20" t="s">
         <v>278</v>
@@ -11877,7 +11878,7 @@
       <c r="J346" s="11"/>
       <c r="K346" s="20"/>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A347" s="47" t="s">
         <v>279</v>
       </c>
@@ -11895,7 +11896,7 @@
       <c r="J347" s="11"/>
       <c r="K347" s="20"/>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A348" s="40">
         <v>40544</v>
       </c>
@@ -11919,7 +11920,7 @@
       <c r="J348" s="11"/>
       <c r="K348" s="20"/>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A349" s="40">
         <v>40575</v>
       </c>
@@ -11943,7 +11944,7 @@
       <c r="J349" s="11"/>
       <c r="K349" s="20"/>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A350" s="40">
         <v>40603</v>
       </c>
@@ -11967,7 +11968,7 @@
       <c r="J350" s="11"/>
       <c r="K350" s="20"/>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A351" s="40">
         <v>40634</v>
       </c>
@@ -11991,7 +11992,7 @@
       <c r="J351" s="11"/>
       <c r="K351" s="20"/>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A352" s="40">
         <v>40664</v>
       </c>
@@ -12015,7 +12016,7 @@
       <c r="J352" s="11"/>
       <c r="K352" s="20"/>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A353" s="40">
         <v>40695</v>
       </c>
@@ -12041,7 +12042,7 @@
         <v>40725</v>
       </c>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A354" s="40"/>
       <c r="B354" s="20" t="s">
         <v>210</v>
@@ -12061,7 +12062,7 @@
       <c r="J354" s="11"/>
       <c r="K354" s="48"/>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A355" s="40">
         <v>40725</v>
       </c>
@@ -12085,7 +12086,7 @@
       <c r="J355" s="11"/>
       <c r="K355" s="20"/>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A356" s="40">
         <v>40756</v>
       </c>
@@ -12109,7 +12110,7 @@
       <c r="J356" s="11"/>
       <c r="K356" s="20"/>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A357" s="40">
         <v>40787</v>
       </c>
@@ -12135,7 +12136,7 @@
         <v>40764</v>
       </c>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A358" s="40"/>
       <c r="B358" s="20" t="s">
         <v>48</v>
@@ -12157,7 +12158,7 @@
         <v>40804</v>
       </c>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A359" s="40"/>
       <c r="B359" s="20" t="s">
         <v>287</v>
@@ -12177,7 +12178,7 @@
       <c r="J359" s="11"/>
       <c r="K359" s="48"/>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A360" s="40">
         <v>40817</v>
       </c>
@@ -12203,7 +12204,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A361" s="40"/>
       <c r="B361" s="20" t="s">
         <v>74</v>
@@ -12225,7 +12226,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A362" s="40"/>
       <c r="B362" s="20" t="s">
         <v>48</v>
@@ -12247,7 +12248,7 @@
         <v>40835</v>
       </c>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A363" s="40"/>
       <c r="B363" s="20" t="s">
         <v>290</v>
@@ -12267,7 +12268,7 @@
       <c r="J363" s="11"/>
       <c r="K363" s="20"/>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A364" s="40">
         <v>40848</v>
       </c>
@@ -12293,7 +12294,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A365" s="40"/>
       <c r="B365" s="20" t="s">
         <v>261</v>
@@ -12315,7 +12316,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A366" s="40"/>
       <c r="B366" s="20" t="s">
         <v>292</v>
@@ -12335,7 +12336,7 @@
       <c r="J366" s="11"/>
       <c r="K366" s="20"/>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A367" s="40">
         <v>40878</v>
       </c>
@@ -12359,7 +12360,7 @@
       <c r="J367" s="11"/>
       <c r="K367" s="20"/>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A368" s="40"/>
       <c r="B368" s="20" t="s">
         <v>74</v>
@@ -12381,7 +12382,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A369" s="47" t="s">
         <v>295</v>
       </c>
@@ -12399,7 +12400,7 @@
       <c r="J369" s="11"/>
       <c r="K369" s="20"/>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A370" s="40">
         <v>40909</v>
       </c>
@@ -12423,7 +12424,7 @@
       <c r="J370" s="11"/>
       <c r="K370" s="20"/>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A371" s="40">
         <v>40940</v>
       </c>
@@ -12447,7 +12448,7 @@
       <c r="J371" s="11"/>
       <c r="K371" s="20"/>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A372" s="40">
         <v>40969</v>
       </c>
@@ -12473,7 +12474,7 @@
         <v>40987</v>
       </c>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A373" s="40"/>
       <c r="B373" s="20" t="s">
         <v>52</v>
@@ -12493,7 +12494,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A374" s="40"/>
       <c r="B374" s="20" t="s">
         <v>299</v>
@@ -12513,7 +12514,7 @@
       <c r="J374" s="11"/>
       <c r="K374" s="48"/>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A375" s="40">
         <v>41000</v>
       </c>
@@ -12537,7 +12538,7 @@
       <c r="J375" s="11"/>
       <c r="K375" s="20"/>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A376" s="40">
         <v>41030</v>
       </c>
@@ -12561,7 +12562,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A377" s="40"/>
       <c r="B377" s="20" t="s">
         <v>74</v>
@@ -12583,7 +12584,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A378" s="40"/>
       <c r="B378" s="20" t="s">
         <v>80</v>
@@ -12603,7 +12604,7 @@
       <c r="J378" s="11"/>
       <c r="K378" s="20"/>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A379" s="40">
         <v>41061</v>
       </c>
@@ -12627,7 +12628,7 @@
       <c r="J379" s="11"/>
       <c r="K379" s="20"/>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A380" s="40">
         <v>41091</v>
       </c>
@@ -12651,7 +12652,7 @@
       <c r="J380" s="11"/>
       <c r="K380" s="20"/>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A381" s="40">
         <v>41122</v>
       </c>
@@ -12675,7 +12676,7 @@
       <c r="J381" s="11"/>
       <c r="K381" s="20"/>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A382" s="40">
         <v>41153</v>
       </c>
@@ -12699,7 +12700,7 @@
       <c r="J382" s="11"/>
       <c r="K382" s="20"/>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A383" s="40">
         <v>41183</v>
       </c>
@@ -12725,7 +12726,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A384" s="40"/>
       <c r="B384" s="20" t="s">
         <v>52</v>
@@ -12745,7 +12746,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A385" s="40"/>
       <c r="B385" s="20" t="s">
         <v>307</v>
@@ -12765,7 +12766,7 @@
       <c r="J385" s="11"/>
       <c r="K385" s="20"/>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A386" s="40">
         <v>41214</v>
       </c>
@@ -12791,7 +12792,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A387" s="40"/>
       <c r="B387" s="20" t="s">
         <v>48</v>
@@ -12813,7 +12814,7 @@
         <v>41236</v>
       </c>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A388" s="40"/>
       <c r="B388" s="20" t="s">
         <v>309</v>
@@ -12833,7 +12834,7 @@
       <c r="J388" s="11"/>
       <c r="K388" s="20"/>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A389" s="40">
         <v>41244</v>
       </c>
@@ -12857,7 +12858,7 @@
       <c r="J389" s="11"/>
       <c r="K389" s="20"/>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A390" s="47" t="s">
         <v>311</v>
       </c>
@@ -12875,7 +12876,7 @@
       <c r="J390" s="11"/>
       <c r="K390" s="20"/>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A391" s="40">
         <v>41275</v>
       </c>
@@ -12899,7 +12900,7 @@
       <c r="J391" s="11"/>
       <c r="K391" s="20"/>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A392" s="40">
         <v>41306</v>
       </c>
@@ -12923,7 +12924,7 @@
       <c r="J392" s="11"/>
       <c r="K392" s="20"/>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A393" s="40">
         <v>41334</v>
       </c>
@@ -12947,7 +12948,7 @@
       <c r="J393" s="11"/>
       <c r="K393" s="20"/>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A394" s="40">
         <v>41365</v>
       </c>
@@ -12971,7 +12972,7 @@
       <c r="J394" s="11"/>
       <c r="K394" s="20"/>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A395" s="40">
         <v>41395</v>
       </c>
@@ -12995,7 +12996,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A396" s="40"/>
       <c r="B396" s="20" t="s">
         <v>316</v>
@@ -13015,7 +13016,7 @@
       <c r="J396" s="11"/>
       <c r="K396" s="20"/>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A397" s="40">
         <v>41426</v>
       </c>
@@ -13039,7 +13040,7 @@
       <c r="J397" s="11"/>
       <c r="K397" s="20"/>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A398" s="40">
         <v>41456</v>
       </c>
@@ -13065,7 +13066,7 @@
         <v>41486</v>
       </c>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A399" s="40"/>
       <c r="B399" s="20" t="s">
         <v>318</v>
@@ -13085,7 +13086,7 @@
       <c r="J399" s="11"/>
       <c r="K399" s="48"/>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A400" s="40">
         <v>41487</v>
       </c>
@@ -13111,7 +13112,7 @@
         <v>41501</v>
       </c>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A401" s="40"/>
       <c r="B401" s="20" t="s">
         <v>317</v>
@@ -13131,7 +13132,7 @@
       <c r="J401" s="11"/>
       <c r="K401" s="48"/>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A402" s="40">
         <v>41518</v>
       </c>
@@ -13155,7 +13156,7 @@
         <v>41547</v>
       </c>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A403" s="40"/>
       <c r="B403" s="20" t="s">
         <v>48</v>
@@ -13177,7 +13178,7 @@
         <v>41528</v>
       </c>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A404" s="40"/>
       <c r="B404" s="20" t="s">
         <v>319</v>
@@ -13197,7 +13198,7 @@
       <c r="J404" s="11"/>
       <c r="K404" s="48"/>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A405" s="40">
         <v>41548</v>
       </c>
@@ -13223,7 +13224,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A406" s="40"/>
       <c r="B406" s="20" t="s">
         <v>74</v>
@@ -13245,7 +13246,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A407" s="40"/>
       <c r="B407" s="20" t="s">
         <v>48</v>
@@ -13267,7 +13268,7 @@
         <v>41578</v>
       </c>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A408" s="40"/>
       <c r="B408" s="20" t="s">
         <v>52</v>
@@ -13287,7 +13288,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A409" s="40"/>
       <c r="B409" s="20" t="s">
         <v>318</v>
@@ -13307,7 +13308,7 @@
       <c r="J409" s="11"/>
       <c r="K409" s="20"/>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A410" s="40">
         <v>41579</v>
       </c>
@@ -13333,7 +13334,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A411" s="40"/>
       <c r="B411" s="20" t="s">
         <v>322</v>
@@ -13353,7 +13354,7 @@
       <c r="J411" s="11"/>
       <c r="K411" s="20"/>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A412" s="40">
         <v>41609</v>
       </c>
@@ -13377,7 +13378,7 @@
       <c r="J412" s="11"/>
       <c r="K412" s="20"/>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A413" s="40"/>
       <c r="B413" s="20" t="s">
         <v>323</v>
@@ -13397,7 +13398,7 @@
       <c r="J413" s="11"/>
       <c r="K413" s="20"/>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A414" s="47" t="s">
         <v>324</v>
       </c>
@@ -13415,7 +13416,7 @@
       <c r="J414" s="11"/>
       <c r="K414" s="20"/>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A415" s="40">
         <v>41640</v>
       </c>
@@ -13439,7 +13440,7 @@
       <c r="J415" s="11"/>
       <c r="K415" s="20"/>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A416" s="40">
         <v>41671</v>
       </c>
@@ -13463,7 +13464,7 @@
       <c r="J416" s="11"/>
       <c r="K416" s="20"/>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A417" s="40">
         <v>41699</v>
       </c>
@@ -13487,7 +13488,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A418" s="40"/>
       <c r="B418" s="20" t="s">
         <v>61</v>
@@ -13509,7 +13510,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A419" s="40"/>
       <c r="B419" s="20" t="s">
         <v>328</v>
@@ -13529,7 +13530,7 @@
       <c r="J419" s="11"/>
       <c r="K419" s="20"/>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A420" s="40">
         <v>41730</v>
       </c>
@@ -13555,7 +13556,7 @@
         <v>41736</v>
       </c>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A421" s="40"/>
       <c r="B421" s="20" t="s">
         <v>330</v>
@@ -13575,7 +13576,7 @@
       <c r="J421" s="11"/>
       <c r="K421" s="48"/>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A422" s="40">
         <v>41760</v>
       </c>
@@ -13601,7 +13602,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A423" s="40"/>
       <c r="B423" s="20" t="s">
         <v>48</v>
@@ -13623,7 +13624,7 @@
         <v>41766</v>
       </c>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A424" s="40"/>
       <c r="B424" s="20" t="s">
         <v>48</v>
@@ -13645,7 +13646,7 @@
         <v>41788</v>
       </c>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A425" s="40"/>
       <c r="B425" s="20" t="s">
         <v>52</v>
@@ -13665,7 +13666,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A426" s="40"/>
       <c r="B426" s="20" t="s">
         <v>333</v>
@@ -13685,7 +13686,7 @@
       <c r="J426" s="11"/>
       <c r="K426" s="48"/>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A427" s="40">
         <v>41791</v>
       </c>
@@ -13709,7 +13710,7 @@
       <c r="J427" s="11"/>
       <c r="K427" s="20"/>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A428" s="40">
         <v>41821</v>
       </c>
@@ -13735,7 +13736,7 @@
         <v>41844</v>
       </c>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A429" s="40"/>
       <c r="B429" s="20" t="s">
         <v>335</v>
@@ -13755,7 +13756,7 @@
       <c r="J429" s="11"/>
       <c r="K429" s="48"/>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A430" s="40">
         <v>41852</v>
       </c>
@@ -13781,7 +13782,7 @@
         <v>41878</v>
       </c>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A431" s="40"/>
       <c r="B431" s="20" t="s">
         <v>297</v>
@@ -13801,7 +13802,7 @@
       <c r="J431" s="11"/>
       <c r="K431" s="48"/>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A432" s="40">
         <v>41883</v>
       </c>
@@ -13827,7 +13828,7 @@
         <v>41894</v>
       </c>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A433" s="40"/>
       <c r="B433" s="20" t="s">
         <v>74</v>
@@ -13849,7 +13850,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A434" s="40"/>
       <c r="B434" s="20" t="s">
         <v>336</v>
@@ -13869,7 +13870,7 @@
       <c r="J434" s="11"/>
       <c r="K434" s="48"/>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A435" s="40">
         <v>41913</v>
       </c>
@@ -13895,7 +13896,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A436" s="40"/>
       <c r="B436" s="20" t="s">
         <v>48</v>
@@ -13917,7 +13918,7 @@
         <v>41922</v>
       </c>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A437" s="40"/>
       <c r="B437" s="20" t="s">
         <v>48</v>
@@ -13939,7 +13940,7 @@
         <v>41932</v>
       </c>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A438" s="40"/>
       <c r="B438" s="20" t="s">
         <v>52</v>
@@ -13959,7 +13960,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A439" s="40"/>
       <c r="B439" s="20" t="s">
         <v>338</v>
@@ -13979,7 +13980,7 @@
       <c r="J439" s="11"/>
       <c r="K439" s="20"/>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A440" s="40">
         <v>41944</v>
       </c>
@@ -14005,7 +14006,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A441" s="40"/>
       <c r="B441" s="20" t="s">
         <v>48</v>
@@ -14027,7 +14028,7 @@
         <v>45278</v>
       </c>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A442" s="40"/>
       <c r="B442" s="20" t="s">
         <v>213</v>
@@ -14047,7 +14048,7 @@
       <c r="J442" s="11"/>
       <c r="K442" s="20"/>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A443" s="40">
         <v>41974</v>
       </c>
@@ -14071,7 +14072,7 @@
       <c r="J443" s="11"/>
       <c r="K443" s="20"/>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A444" s="47" t="s">
         <v>341</v>
       </c>
@@ -14089,7 +14090,7 @@
       <c r="J444" s="11"/>
       <c r="K444" s="20"/>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A445" s="40">
         <v>42005</v>
       </c>
@@ -14113,7 +14114,7 @@
       <c r="J445" s="11"/>
       <c r="K445" s="20"/>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A446" s="40">
         <v>42036</v>
       </c>
@@ -14139,7 +14140,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A447" s="40"/>
       <c r="B447" s="20" t="s">
         <v>48</v>
@@ -14161,7 +14162,7 @@
         <v>42056</v>
       </c>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A448" s="40"/>
       <c r="B448" s="20" t="s">
         <v>344</v>
@@ -14181,7 +14182,7 @@
       <c r="J448" s="11"/>
       <c r="K448" s="20"/>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A449" s="40">
         <v>42064</v>
       </c>
@@ -14207,7 +14208,7 @@
         <v>42081</v>
       </c>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A450" s="40"/>
       <c r="B450" s="20" t="s">
         <v>345</v>
@@ -14227,7 +14228,7 @@
       <c r="J450" s="11"/>
       <c r="K450" s="48"/>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A451" s="40">
         <v>42095</v>
       </c>
@@ -14253,7 +14254,7 @@
         <v>42124</v>
       </c>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A452" s="40"/>
       <c r="B452" s="20" t="s">
         <v>52</v>
@@ -14273,7 +14274,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A453" s="40"/>
       <c r="B453" s="20" t="s">
         <v>347</v>
@@ -14291,7 +14292,7 @@
       <c r="J453" s="11"/>
       <c r="K453" s="48"/>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A454" s="40">
         <v>42125</v>
       </c>
@@ -14317,7 +14318,7 @@
         <v>42130</v>
       </c>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A455" s="40"/>
       <c r="B455" s="20" t="s">
         <v>206</v>
@@ -14337,7 +14338,7 @@
       <c r="J455" s="11"/>
       <c r="K455" s="48"/>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A456" s="40">
         <v>42156</v>
       </c>
@@ -14361,7 +14362,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A457" s="40"/>
       <c r="B457" s="20" t="s">
         <v>106</v>
@@ -14383,7 +14384,7 @@
         <v>42186</v>
       </c>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A458" s="40"/>
       <c r="B458" s="20" t="s">
         <v>48</v>
@@ -14405,7 +14406,7 @@
         <v>42188</v>
       </c>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A459" s="40"/>
       <c r="B459" s="20" t="s">
         <v>211</v>
@@ -14425,7 +14426,7 @@
       <c r="J459" s="11"/>
       <c r="K459" s="20"/>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A460" s="40">
         <v>42186</v>
       </c>
@@ -14451,7 +14452,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A461" s="40"/>
       <c r="B461" s="20" t="s">
         <v>350</v>
@@ -14471,7 +14472,7 @@
       <c r="J461" s="11"/>
       <c r="K461" s="20"/>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A462" s="40">
         <v>42217</v>
       </c>
@@ -14493,7 +14494,7 @@
       <c r="J462" s="11"/>
       <c r="K462" s="20"/>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A463" s="40"/>
       <c r="B463" s="20" t="s">
         <v>351</v>
@@ -14513,7 +14514,7 @@
       <c r="J463" s="11"/>
       <c r="K463" s="20"/>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A464" s="40">
         <v>42248</v>
       </c>
@@ -14539,7 +14540,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A465" s="40"/>
       <c r="B465" s="20" t="s">
         <v>354</v>
@@ -14559,7 +14560,7 @@
       <c r="J465" s="11"/>
       <c r="K465" s="20"/>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A466" s="40">
         <v>42278</v>
       </c>
@@ -14585,7 +14586,7 @@
         <v>42286</v>
       </c>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A467" s="40"/>
       <c r="B467" s="20" t="s">
         <v>55</v>
@@ -14607,7 +14608,7 @@
         <v>42300</v>
       </c>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A468" s="40"/>
       <c r="B468" s="20" t="s">
         <v>74</v>
@@ -14629,7 +14630,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A469" s="40"/>
       <c r="B469" s="20" t="s">
         <v>108</v>
@@ -14649,7 +14650,7 @@
       <c r="J469" s="11"/>
       <c r="K469" s="48"/>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A470" s="40">
         <v>42309</v>
       </c>
@@ -14675,7 +14676,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A471" s="40"/>
       <c r="B471" s="20" t="s">
         <v>357</v>
@@ -14695,7 +14696,7 @@
       <c r="J471" s="11"/>
       <c r="K471" s="20"/>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A472" s="40">
         <v>42339</v>
       </c>
@@ -14719,7 +14720,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A473" s="40"/>
       <c r="B473" s="20" t="s">
         <v>359</v>
@@ -14739,7 +14740,7 @@
       <c r="J473" s="11"/>
       <c r="K473" s="20"/>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A474" s="47" t="s">
         <v>360</v>
       </c>
@@ -14757,7 +14758,7 @@
       <c r="J474" s="11"/>
       <c r="K474" s="20"/>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A475" s="40">
         <v>42370</v>
       </c>
@@ -14781,7 +14782,7 @@
       <c r="J475" s="11"/>
       <c r="K475" s="20"/>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A476" s="40">
         <v>42401</v>
       </c>
@@ -14805,7 +14806,7 @@
       <c r="J476" s="11"/>
       <c r="K476" s="20"/>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A477" s="40">
         <v>42430</v>
       </c>
@@ -14829,7 +14830,7 @@
       <c r="J477" s="11"/>
       <c r="K477" s="20"/>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A478" s="40">
         <v>42461</v>
       </c>
@@ -14853,7 +14854,7 @@
       <c r="J478" s="11"/>
       <c r="K478" s="20"/>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A479" s="40">
         <v>42491</v>
       </c>
@@ -14879,7 +14880,7 @@
         <v>42494</v>
       </c>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A480" s="40"/>
       <c r="B480" s="20" t="s">
         <v>55</v>
@@ -14901,7 +14902,7 @@
         <v>42516</v>
       </c>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A481" s="40"/>
       <c r="B481" s="20" t="s">
         <v>48</v>
@@ -14923,7 +14924,7 @@
         <v>42517</v>
       </c>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A482" s="40"/>
       <c r="B482" s="20" t="s">
         <v>52</v>
@@ -14943,7 +14944,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A483" s="40"/>
       <c r="B483" s="20" t="s">
         <v>363</v>
@@ -14963,7 +14964,7 @@
       <c r="J483" s="11"/>
       <c r="K483" s="48"/>
     </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A484" s="40">
         <v>42522</v>
       </c>
@@ -14987,7 +14988,7 @@
       <c r="J484" s="11"/>
       <c r="K484" s="20"/>
     </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A485" s="40">
         <v>42552</v>
       </c>
@@ -15011,7 +15012,7 @@
       <c r="J485" s="11"/>
       <c r="K485" s="20"/>
     </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A486" s="40">
         <v>42583</v>
       </c>
@@ -15037,7 +15038,7 @@
         <v>42592</v>
       </c>
     </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A487" s="40"/>
       <c r="B487" s="20" t="s">
         <v>365</v>
@@ -15059,7 +15060,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A488" s="40"/>
       <c r="B488" s="20" t="s">
         <v>234</v>
@@ -15079,7 +15080,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A489" s="40"/>
       <c r="B489" s="20" t="s">
         <v>366</v>
@@ -15099,7 +15100,7 @@
       <c r="J489" s="11"/>
       <c r="K489" s="48"/>
     </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A490" s="40">
         <v>42614</v>
       </c>
@@ -15125,7 +15126,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A491" s="40"/>
       <c r="B491" s="20" t="s">
         <v>55</v>
@@ -15147,7 +15148,7 @@
         <v>42667</v>
       </c>
     </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A492" s="40"/>
       <c r="B492" s="20" t="s">
         <v>370</v>
@@ -15167,7 +15168,7 @@
       <c r="J492" s="11"/>
       <c r="K492" s="20"/>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A493" s="40">
         <v>42644</v>
       </c>
@@ -15193,7 +15194,7 @@
         <v>42677</v>
       </c>
     </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A494" s="40"/>
       <c r="B494" s="20" t="s">
         <v>48</v>
@@ -15215,7 +15216,7 @@
         <v>42668</v>
       </c>
     </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A495" s="40"/>
       <c r="B495" s="20" t="s">
         <v>371</v>
@@ -15235,7 +15236,7 @@
       <c r="J495" s="11"/>
       <c r="K495" s="48"/>
     </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A496" s="40">
         <v>42675</v>
       </c>
@@ -15259,7 +15260,7 @@
       <c r="J496" s="11"/>
       <c r="K496" s="20"/>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A497" s="40">
         <v>42705</v>
       </c>
@@ -15285,7 +15286,7 @@
         <v>42731</v>
       </c>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A498" s="40"/>
       <c r="B498" s="20" t="s">
         <v>373</v>
@@ -15305,7 +15306,7 @@
       <c r="J498" s="11"/>
       <c r="K498" s="48"/>
     </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A499" s="47" t="s">
         <v>374</v>
       </c>
@@ -15323,7 +15324,7 @@
       <c r="J499" s="11"/>
       <c r="K499" s="48"/>
     </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A500" s="40">
         <v>42736</v>
       </c>
@@ -15347,7 +15348,7 @@
       <c r="J500" s="11"/>
       <c r="K500" s="20"/>
     </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A501" s="40">
         <v>42767</v>
       </c>
@@ -15371,7 +15372,7 @@
       <c r="J501" s="11"/>
       <c r="K501" s="20"/>
     </row>
-    <row r="502" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A502" s="40">
         <v>42795</v>
       </c>
@@ -15395,7 +15396,7 @@
       <c r="J502" s="11"/>
       <c r="K502" s="20"/>
     </row>
-    <row r="503" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A503" s="40">
         <v>42826</v>
       </c>
@@ -15419,7 +15420,7 @@
       <c r="J503" s="11"/>
       <c r="K503" s="20"/>
     </row>
-    <row r="504" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A504" s="40">
         <v>42856</v>
       </c>
@@ -15443,7 +15444,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="505" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A505" s="40"/>
       <c r="B505" s="20" t="s">
         <v>378</v>
@@ -15463,7 +15464,7 @@
       <c r="J505" s="11"/>
       <c r="K505" s="20"/>
     </row>
-    <row r="506" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A506" s="40">
         <v>42887</v>
       </c>
@@ -15483,7 +15484,7 @@
       <c r="J506" s="11"/>
       <c r="K506" s="20"/>
     </row>
-    <row r="507" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A507" s="40">
         <v>42917</v>
       </c>
@@ -15509,7 +15510,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="508" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A508" s="40"/>
       <c r="B508" s="20" t="s">
         <v>380</v>
@@ -15529,7 +15530,7 @@
       <c r="J508" s="11"/>
       <c r="K508" s="20"/>
     </row>
-    <row r="509" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A509" s="40">
         <v>42948</v>
       </c>
@@ -15555,7 +15556,7 @@
         <v>42972</v>
       </c>
     </row>
-    <row r="510" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A510" s="40"/>
       <c r="B510" s="20" t="s">
         <v>381</v>
@@ -15575,7 +15576,7 @@
       <c r="J510" s="11"/>
       <c r="K510" s="48"/>
     </row>
-    <row r="511" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A511" s="40">
         <v>42979</v>
       </c>
@@ -15599,7 +15600,7 @@
       <c r="J511" s="11"/>
       <c r="K511" s="20"/>
     </row>
-    <row r="512" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A512" s="40">
         <v>43009</v>
       </c>
@@ -15621,7 +15622,7 @@
       <c r="J512" s="11"/>
       <c r="K512" s="20"/>
     </row>
-    <row r="513" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A513" s="40"/>
       <c r="B513" s="20" t="s">
         <v>48</v>
@@ -15643,7 +15644,7 @@
         <v>43020</v>
       </c>
     </row>
-    <row r="514" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A514" s="40"/>
       <c r="B514" s="20" t="s">
         <v>49</v>
@@ -15665,7 +15666,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="515" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A515" s="40"/>
       <c r="B515" s="20" t="s">
         <v>383</v>
@@ -15687,7 +15688,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="516" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A516" s="40">
         <v>43040</v>
       </c>
@@ -15713,7 +15714,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="517" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A517" s="40">
         <v>43070</v>
       </c>
@@ -15737,7 +15738,7 @@
       <c r="J517" s="11"/>
       <c r="K517" s="20"/>
     </row>
-    <row r="518" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A518" s="40"/>
       <c r="B518" s="20" t="s">
         <v>234</v>
@@ -15757,7 +15758,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="519" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A519" s="47" t="s">
         <v>387</v>
       </c>
@@ -15775,7 +15776,7 @@
       <c r="J519" s="11"/>
       <c r="K519" s="20"/>
     </row>
-    <row r="520" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A520" s="40">
         <v>43101</v>
       </c>
@@ -15801,7 +15802,7 @@
         <v>43104</v>
       </c>
     </row>
-    <row r="521" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A521" s="40">
         <v>43132</v>
       </c>
@@ -15821,7 +15822,7 @@
       <c r="J521" s="11"/>
       <c r="K521" s="20"/>
     </row>
-    <row r="522" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A522" s="40">
         <v>43160</v>
       </c>
@@ -15847,7 +15848,7 @@
         <v>43196</v>
       </c>
     </row>
-    <row r="523" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A523" s="40">
         <v>43191</v>
       </c>
@@ -15873,7 +15874,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="524" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A524" s="40">
         <v>43221</v>
       </c>
@@ -15897,7 +15898,7 @@
       <c r="J524" s="11"/>
       <c r="K524" s="20"/>
     </row>
-    <row r="525" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A525" s="40">
         <v>43252</v>
       </c>
@@ -15923,7 +15924,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="526" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A526" s="40"/>
       <c r="B526" s="20" t="s">
         <v>391</v>
@@ -15941,7 +15942,7 @@
       <c r="J526" s="11"/>
       <c r="K526" s="20"/>
     </row>
-    <row r="527" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A527" s="40">
         <v>43282</v>
       </c>
@@ -15967,7 +15968,7 @@
         <v>43294</v>
       </c>
     </row>
-    <row r="528" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A528" s="40"/>
       <c r="B528" s="20" t="s">
         <v>392</v>
@@ -15987,7 +15988,7 @@
       <c r="J528" s="11"/>
       <c r="K528" s="48"/>
     </row>
-    <row r="529" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A529" s="40">
         <v>43313</v>
       </c>
@@ -16013,7 +16014,7 @@
         <v>43314</v>
       </c>
     </row>
-    <row r="530" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A530" s="40"/>
       <c r="B530" s="20" t="s">
         <v>393</v>
@@ -16033,7 +16034,7 @@
       <c r="J530" s="11"/>
       <c r="K530" s="48"/>
     </row>
-    <row r="531" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A531" s="40">
         <v>43344</v>
       </c>
@@ -16059,7 +16060,7 @@
         <v>43346</v>
       </c>
     </row>
-    <row r="532" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A532" s="40"/>
       <c r="B532" s="20" t="s">
         <v>284</v>
@@ -16079,7 +16080,7 @@
       <c r="J532" s="11"/>
       <c r="K532" s="20"/>
     </row>
-    <row r="533" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A533" s="40">
         <v>43374</v>
       </c>
@@ -16105,7 +16106,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="534" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A534" s="40"/>
       <c r="B534" s="20" t="s">
         <v>49</v>
@@ -16127,7 +16128,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="535" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A535" s="40"/>
       <c r="B535" s="20" t="s">
         <v>61</v>
@@ -16149,7 +16150,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="536" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A536" s="40"/>
       <c r="B536" s="20" t="s">
         <v>52</v>
@@ -16169,7 +16170,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="537" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A537" s="40"/>
       <c r="B537" s="20" t="s">
         <v>158</v>
@@ -16189,7 +16190,7 @@
       <c r="J537" s="11"/>
       <c r="K537" s="20"/>
     </row>
-    <row r="538" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A538" s="40">
         <v>43405</v>
       </c>
@@ -16213,7 +16214,7 @@
       <c r="J538" s="11"/>
       <c r="K538" s="20"/>
     </row>
-    <row r="539" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A539" s="40">
         <v>43435</v>
       </c>
@@ -16239,7 +16240,7 @@
         <v>43461</v>
       </c>
     </row>
-    <row r="540" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A540" s="40"/>
       <c r="B540" s="20" t="s">
         <v>48</v>
@@ -16261,7 +16262,7 @@
         <v>43452</v>
       </c>
     </row>
-    <row r="541" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A541" s="40"/>
       <c r="B541" s="20" t="s">
         <v>68</v>
@@ -16279,7 +16280,7 @@
       <c r="J541" s="11"/>
       <c r="K541" s="20"/>
     </row>
-    <row r="542" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A542" s="47" t="s">
         <v>397</v>
       </c>
@@ -16297,7 +16298,7 @@
       <c r="J542" s="11"/>
       <c r="K542" s="20"/>
     </row>
-    <row r="543" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A543" s="40">
         <v>43466</v>
       </c>
@@ -16317,7 +16318,7 @@
       <c r="J543" s="11"/>
       <c r="K543" s="20"/>
     </row>
-    <row r="544" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A544" s="40">
         <v>43497</v>
       </c>
@@ -16337,7 +16338,7 @@
       <c r="J544" s="11"/>
       <c r="K544" s="20"/>
     </row>
-    <row r="545" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A545" s="40">
         <v>43525</v>
       </c>
@@ -16357,7 +16358,7 @@
       <c r="J545" s="11"/>
       <c r="K545" s="20"/>
     </row>
-    <row r="546" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A546" s="40">
         <v>43556</v>
       </c>
@@ -16383,7 +16384,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="547" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A547" s="40"/>
       <c r="B547" s="20" t="s">
         <v>74</v>
@@ -16405,7 +16406,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="548" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A548" s="40">
         <v>43586</v>
       </c>
@@ -16425,7 +16426,7 @@
       <c r="J548" s="11"/>
       <c r="K548" s="20"/>
     </row>
-    <row r="549" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A549" s="40">
         <v>43617</v>
       </c>
@@ -16449,7 +16450,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="550" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A550" s="40">
         <v>43647</v>
       </c>
@@ -16475,7 +16476,7 @@
         <v>43647</v>
       </c>
     </row>
-    <row r="551" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A551" s="40">
         <v>43678</v>
       </c>
@@ -16495,7 +16496,7 @@
       <c r="J551" s="11"/>
       <c r="K551" s="20"/>
     </row>
-    <row r="552" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A552" s="40">
         <v>43709</v>
       </c>
@@ -16521,7 +16522,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="553" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A553" s="40"/>
       <c r="B553" s="20" t="s">
         <v>74</v>
@@ -16543,7 +16544,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="554" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A554" s="40"/>
       <c r="B554" s="20" t="s">
         <v>52</v>
@@ -16563,7 +16564,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="555" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A555" s="40"/>
       <c r="B555" s="20" t="s">
         <v>48</v>
@@ -16585,7 +16586,7 @@
         <v>43745</v>
       </c>
     </row>
-    <row r="556" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A556" s="40"/>
       <c r="B556" s="20" t="s">
         <v>48</v>
@@ -16607,7 +16608,7 @@
         <v>43752</v>
       </c>
     </row>
-    <row r="557" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A557" s="40"/>
       <c r="B557" s="20" t="s">
         <v>88</v>
@@ -16629,7 +16630,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="558" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A558" s="40">
         <v>43739</v>
       </c>
@@ -16655,7 +16656,7 @@
         <v>43767</v>
       </c>
     </row>
-    <row r="559" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A559" s="40">
         <v>43770</v>
       </c>
@@ -16681,7 +16682,7 @@
         <v>43794</v>
       </c>
     </row>
-    <row r="560" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A560" s="40"/>
       <c r="B560" s="20" t="s">
         <v>49</v>
@@ -16703,7 +16704,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="561" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A561" s="40">
         <v>43800</v>
       </c>
@@ -16727,7 +16728,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="562" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A562" s="47" t="s">
         <v>406</v>
       </c>
@@ -16745,7 +16746,7 @@
       <c r="J562" s="11"/>
       <c r="K562" s="20"/>
     </row>
-    <row r="563" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A563" s="40">
         <v>43831</v>
       </c>
@@ -16769,7 +16770,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="564" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A564" s="40">
         <v>43862</v>
       </c>
@@ -16789,7 +16790,7 @@
       <c r="J564" s="11"/>
       <c r="K564" s="20"/>
     </row>
-    <row r="565" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A565" s="40">
         <v>43891</v>
       </c>
@@ -16809,7 +16810,7 @@
       <c r="J565" s="11"/>
       <c r="K565" s="20"/>
     </row>
-    <row r="566" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A566" s="40">
         <v>43922</v>
       </c>
@@ -16829,7 +16830,7 @@
       <c r="J566" s="11"/>
       <c r="K566" s="20"/>
     </row>
-    <row r="567" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A567" s="40">
         <v>43952</v>
       </c>
@@ -16849,7 +16850,7 @@
       <c r="J567" s="11"/>
       <c r="K567" s="20"/>
     </row>
-    <row r="568" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A568" s="40">
         <v>43983</v>
       </c>
@@ -16869,7 +16870,7 @@
       <c r="J568" s="11"/>
       <c r="K568" s="20"/>
     </row>
-    <row r="569" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A569" s="40">
         <v>44013</v>
       </c>
@@ -16895,7 +16896,7 @@
         <v>44014</v>
       </c>
     </row>
-    <row r="570" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A570" s="40">
         <v>44044</v>
       </c>
@@ -16921,7 +16922,7 @@
         <v>44040</v>
       </c>
     </row>
-    <row r="571" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A571" s="40">
         <v>44075</v>
       </c>
@@ -16947,7 +16948,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="572" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A572" s="40"/>
       <c r="B572" s="20" t="s">
         <v>52</v>
@@ -16967,7 +16968,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="573" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A573" s="40"/>
       <c r="B573" s="20" t="s">
         <v>74</v>
@@ -16989,7 +16990,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="574" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A574" s="40">
         <v>44105</v>
       </c>
@@ -17015,7 +17016,7 @@
         <v>44112</v>
       </c>
     </row>
-    <row r="575" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A575" s="40">
         <v>44136</v>
       </c>
@@ -17039,7 +17040,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="576" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A576" s="40">
         <v>44166</v>
       </c>
@@ -17065,7 +17066,7 @@
         <v>44176</v>
       </c>
     </row>
-    <row r="577" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A577" s="40"/>
       <c r="B577" s="20" t="s">
         <v>48</v>
@@ -17087,7 +17088,7 @@
         <v>44181</v>
       </c>
     </row>
-    <row r="578" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A578" s="40"/>
       <c r="B578" s="20" t="s">
         <v>55</v>
@@ -17109,7 +17110,7 @@
         <v>44193</v>
       </c>
     </row>
-    <row r="579" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A579" s="47" t="s">
         <v>413</v>
       </c>
@@ -17127,7 +17128,7 @@
       <c r="J579" s="11"/>
       <c r="K579" s="48"/>
     </row>
-    <row r="580" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A580" s="40">
         <v>44197</v>
       </c>
@@ -17147,7 +17148,7 @@
       <c r="J580" s="11"/>
       <c r="K580" s="20"/>
     </row>
-    <row r="581" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A581" s="40">
         <v>44228</v>
       </c>
@@ -17173,7 +17174,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="582" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A582" s="40"/>
       <c r="B582" s="20" t="s">
         <v>48</v>
@@ -17195,7 +17196,7 @@
         <v>44189</v>
       </c>
     </row>
-    <row r="583" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A583" s="40">
         <v>44256</v>
       </c>
@@ -17215,7 +17216,7 @@
       <c r="J583" s="11"/>
       <c r="K583" s="20"/>
     </row>
-    <row r="584" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A584" s="40">
         <v>44287</v>
       </c>
@@ -17235,7 +17236,7 @@
       <c r="J584" s="11"/>
       <c r="K584" s="20"/>
     </row>
-    <row r="585" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A585" s="40">
         <v>44317</v>
       </c>
@@ -17255,7 +17256,7 @@
       <c r="J585" s="11"/>
       <c r="K585" s="20"/>
     </row>
-    <row r="586" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A586" s="40">
         <v>44348</v>
       </c>
@@ -17275,7 +17276,7 @@
       <c r="J586" s="11"/>
       <c r="K586" s="20"/>
     </row>
-    <row r="587" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A587" s="40">
         <v>44378</v>
       </c>
@@ -17301,7 +17302,7 @@
         <v>44378</v>
       </c>
     </row>
-    <row r="588" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A588" s="40">
         <v>44409</v>
       </c>
@@ -17321,7 +17322,7 @@
       <c r="J588" s="11"/>
       <c r="K588" s="20"/>
     </row>
-    <row r="589" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A589" s="40">
         <v>44440</v>
       </c>
@@ -17341,7 +17342,7 @@
       <c r="J589" s="11"/>
       <c r="K589" s="20"/>
     </row>
-    <row r="590" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A590" s="40">
         <v>44470</v>
       </c>
@@ -17367,7 +17368,7 @@
         <v>44494</v>
       </c>
     </row>
-    <row r="591" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A591" s="40"/>
       <c r="B591" s="20" t="s">
         <v>52</v>
@@ -17387,7 +17388,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="592" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A592" s="40"/>
       <c r="B592" s="20" t="s">
         <v>52</v>
@@ -17407,7 +17408,7 @@
         <v>44497</v>
       </c>
     </row>
-    <row r="593" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A593" s="40"/>
       <c r="B593" s="20" t="s">
         <v>48</v>
@@ -17429,7 +17430,7 @@
         <v>44498</v>
       </c>
     </row>
-    <row r="594" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A594" s="40"/>
       <c r="B594" s="20" t="s">
         <v>261</v>
@@ -17451,7 +17452,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="595" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A595" s="40">
         <v>44501</v>
       </c>
@@ -17477,7 +17478,7 @@
         <v>44525</v>
       </c>
     </row>
-    <row r="596" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A596" s="40"/>
       <c r="B596" s="20" t="s">
         <v>52</v>
@@ -17497,7 +17498,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="597" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A597" s="40">
         <v>44531</v>
       </c>
@@ -17523,7 +17524,7 @@
         <v>44557</v>
       </c>
     </row>
-    <row r="598" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A598" s="47" t="s">
         <v>418</v>
       </c>
@@ -17541,7 +17542,7 @@
       <c r="J598" s="11"/>
       <c r="K598" s="48"/>
     </row>
-    <row r="599" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A599" s="40">
         <v>44562</v>
       </c>
@@ -17565,7 +17566,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="600" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A600" s="40">
         <v>44593</v>
       </c>
@@ -17591,7 +17592,7 @@
         <v>44596</v>
       </c>
     </row>
-    <row r="601" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A601" s="40"/>
       <c r="B601" s="20" t="s">
         <v>95</v>
@@ -17613,7 +17614,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="602" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A602" s="40">
         <v>44621</v>
       </c>
@@ -17639,7 +17640,7 @@
         <v>44648</v>
       </c>
     </row>
-    <row r="603" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A603" s="40">
         <v>44652</v>
       </c>
@@ -17659,7 +17660,7 @@
       <c r="J603" s="11"/>
       <c r="K603" s="20"/>
     </row>
-    <row r="604" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A604" s="40">
         <v>44682</v>
       </c>
@@ -17685,7 +17686,7 @@
         <v>44683</v>
       </c>
     </row>
-    <row r="605" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A605" s="40">
         <v>44713</v>
       </c>
@@ -17711,7 +17712,7 @@
         <v>44736</v>
       </c>
     </row>
-    <row r="606" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A606" s="40">
         <v>44743</v>
       </c>
@@ -17737,7 +17738,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="607" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A607" s="40"/>
       <c r="B607" s="20" t="s">
         <v>48</v>
@@ -17759,7 +17760,7 @@
         <v>44778</v>
       </c>
     </row>
-    <row r="608" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A608" s="40">
         <v>44774</v>
       </c>
@@ -17785,7 +17786,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="609" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A609" s="40">
         <v>44805</v>
       </c>
@@ -17811,7 +17812,7 @@
         <v>44853</v>
       </c>
     </row>
-    <row r="610" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A610" s="40"/>
       <c r="B610" s="20" t="s">
         <v>48</v>
@@ -17833,7 +17834,7 @@
         <v>44799</v>
       </c>
     </row>
-    <row r="611" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A611" s="40">
         <v>44835</v>
       </c>
@@ -17859,7 +17860,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="612" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A612" s="40"/>
       <c r="B612" s="20" t="s">
         <v>48</v>
@@ -17881,7 +17882,7 @@
         <v>44846</v>
       </c>
     </row>
-    <row r="613" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A613" s="40">
         <v>44866</v>
       </c>
@@ -17907,7 +17908,7 @@
         <v>44868</v>
       </c>
     </row>
-    <row r="614" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A614" s="40"/>
       <c r="B614" s="20" t="s">
         <v>52</v>
@@ -17927,7 +17928,7 @@
         <v>44888</v>
       </c>
     </row>
-    <row r="615" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A615" s="40">
         <v>44896</v>
       </c>
@@ -17951,7 +17952,7 @@
         <v>44922</v>
       </c>
     </row>
-    <row r="616" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A616" s="47" t="s">
         <v>424</v>
       </c>
@@ -17969,7 +17970,7 @@
       <c r="J616" s="11"/>
       <c r="K616" s="20"/>
     </row>
-    <row r="617" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A617" s="40">
         <v>44927</v>
       </c>
@@ -17995,11 +17996,13 @@
         <v>44945</v>
       </c>
     </row>
-    <row r="618" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A618" s="40">
         <v>44958</v>
       </c>
-      <c r="B618" s="20"/>
+      <c r="B618" s="20" t="s">
+        <v>48</v>
+      </c>
       <c r="C618" s="13">
         <v>1.25</v>
       </c>
@@ -18013,9 +18016,11 @@
       <c r="H618" s="39"/>
       <c r="I618" s="9"/>
       <c r="J618" s="11"/>
-      <c r="K618" s="20"/>
-    </row>
-    <row r="619" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K618" s="48">
+        <v>44985</v>
+      </c>
+    </row>
+    <row r="619" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A619" s="40">
         <v>44986</v>
       </c>
@@ -18041,7 +18046,7 @@
         <v>45016</v>
       </c>
     </row>
-    <row r="620" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A620" s="40">
         <v>45017</v>
       </c>
@@ -18059,7 +18064,7 @@
       <c r="J620" s="11"/>
       <c r="K620" s="20"/>
     </row>
-    <row r="621" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A621" s="40">
         <v>45047</v>
       </c>
@@ -18077,7 +18082,7 @@
       <c r="J621" s="11"/>
       <c r="K621" s="20"/>
     </row>
-    <row r="622" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A622" s="40">
         <v>45078</v>
       </c>
@@ -18095,7 +18100,7 @@
       <c r="J622" s="11"/>
       <c r="K622" s="20"/>
     </row>
-    <row r="623" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A623" s="40">
         <v>45108</v>
       </c>
@@ -18113,7 +18118,7 @@
       <c r="J623" s="11"/>
       <c r="K623" s="20"/>
     </row>
-    <row r="624" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A624" s="40">
         <v>45139</v>
       </c>
@@ -18131,7 +18136,7 @@
       <c r="J624" s="11"/>
       <c r="K624" s="20"/>
     </row>
-    <row r="625" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A625" s="40">
         <v>45170</v>
       </c>
@@ -18149,7 +18154,7 @@
       <c r="J625" s="11"/>
       <c r="K625" s="20"/>
     </row>
-    <row r="626" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A626" s="40">
         <v>45200</v>
       </c>
@@ -18167,7 +18172,7 @@
       <c r="J626" s="11"/>
       <c r="K626" s="20"/>
     </row>
-    <row r="627" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A627" s="40">
         <v>45231</v>
       </c>
@@ -18185,7 +18190,7 @@
       <c r="J627" s="11"/>
       <c r="K627" s="20"/>
     </row>
-    <row r="628" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A628" s="40">
         <v>45261</v>
       </c>
@@ -18203,7 +18208,7 @@
       <c r="J628" s="11"/>
       <c r="K628" s="20"/>
     </row>
-    <row r="629" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A629" s="40">
         <v>45292</v>
       </c>
@@ -18221,7 +18226,7 @@
       <c r="J629" s="11"/>
       <c r="K629" s="20"/>
     </row>
-    <row r="630" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A630" s="40">
         <v>45323</v>
       </c>
@@ -18239,7 +18244,7 @@
       <c r="J630" s="11"/>
       <c r="K630" s="20"/>
     </row>
-    <row r="631" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A631" s="40">
         <v>45352</v>
       </c>
@@ -18257,7 +18262,7 @@
       <c r="J631" s="11"/>
       <c r="K631" s="20"/>
     </row>
-    <row r="632" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A632" s="40">
         <v>45383</v>
       </c>
@@ -18275,7 +18280,7 @@
       <c r="J632" s="11"/>
       <c r="K632" s="20"/>
     </row>
-    <row r="633" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A633" s="40">
         <v>45413</v>
       </c>
@@ -18293,7 +18298,7 @@
       <c r="J633" s="11"/>
       <c r="K633" s="20"/>
     </row>
-    <row r="634" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A634" s="40">
         <v>45444</v>
       </c>
@@ -18311,7 +18316,7 @@
       <c r="J634" s="11"/>
       <c r="K634" s="20"/>
     </row>
-    <row r="635" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A635" s="40">
         <v>45474</v>
       </c>
@@ -18329,7 +18334,7 @@
       <c r="J635" s="11"/>
       <c r="K635" s="20"/>
     </row>
-    <row r="636" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A636" s="40">
         <v>45505</v>
       </c>
@@ -18347,7 +18352,7 @@
       <c r="J636" s="11"/>
       <c r="K636" s="20"/>
     </row>
-    <row r="637" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A637" s="40">
         <v>45536</v>
       </c>
@@ -18365,7 +18370,7 @@
       <c r="J637" s="11"/>
       <c r="K637" s="20"/>
     </row>
-    <row r="638" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A638" s="40">
         <v>45566</v>
       </c>
@@ -18383,7 +18388,7 @@
       <c r="J638" s="11"/>
       <c r="K638" s="20"/>
     </row>
-    <row r="639" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A639" s="40">
         <v>45597</v>
       </c>
@@ -18401,7 +18406,7 @@
       <c r="J639" s="11"/>
       <c r="K639" s="20"/>
     </row>
-    <row r="640" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A640" s="40">
         <v>45627</v>
       </c>
@@ -18419,7 +18424,7 @@
       <c r="J640" s="11"/>
       <c r="K640" s="20"/>
     </row>
-    <row r="641" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A641" s="40">
         <v>45658</v>
       </c>
@@ -18437,7 +18442,7 @@
       <c r="J641" s="11"/>
       <c r="K641" s="20"/>
     </row>
-    <row r="642" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A642" s="40">
         <v>45689</v>
       </c>
@@ -18455,7 +18460,7 @@
       <c r="J642" s="11"/>
       <c r="K642" s="20"/>
     </row>
-    <row r="643" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A643" s="40">
         <v>45717</v>
       </c>
@@ -18473,7 +18478,7 @@
       <c r="J643" s="11"/>
       <c r="K643" s="20"/>
     </row>
-    <row r="644" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A644" s="40">
         <v>45748</v>
       </c>
@@ -18491,7 +18496,7 @@
       <c r="J644" s="11"/>
       <c r="K644" s="20"/>
     </row>
-    <row r="645" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A645" s="40">
         <v>45778</v>
       </c>
@@ -18509,7 +18514,7 @@
       <c r="J645" s="11"/>
       <c r="K645" s="20"/>
     </row>
-    <row r="646" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A646" s="40">
         <v>45809</v>
       </c>
@@ -18527,7 +18532,7 @@
       <c r="J646" s="11"/>
       <c r="K646" s="20"/>
     </row>
-    <row r="647" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A647" s="40">
         <v>45839</v>
       </c>
@@ -18545,7 +18550,7 @@
       <c r="J647" s="11"/>
       <c r="K647" s="20"/>
     </row>
-    <row r="648" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A648" s="40">
         <v>45870</v>
       </c>
@@ -18563,7 +18568,7 @@
       <c r="J648" s="11"/>
       <c r="K648" s="20"/>
     </row>
-    <row r="649" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A649" s="40">
         <v>45901</v>
       </c>
@@ -18581,7 +18586,7 @@
       <c r="J649" s="11"/>
       <c r="K649" s="20"/>
     </row>
-    <row r="650" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A650" s="40">
         <v>45931</v>
       </c>
@@ -18599,7 +18604,7 @@
       <c r="J650" s="11"/>
       <c r="K650" s="20"/>
     </row>
-    <row r="651" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A651" s="40">
         <v>45962</v>
       </c>
@@ -18617,7 +18622,7 @@
       <c r="J651" s="11"/>
       <c r="K651" s="20"/>
     </row>
-    <row r="652" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A652" s="40">
         <v>45992</v>
       </c>
@@ -18635,7 +18640,7 @@
       <c r="J652" s="11"/>
       <c r="K652" s="20"/>
     </row>
-    <row r="653" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A653" s="40">
         <v>46023</v>
       </c>
@@ -18653,7 +18658,7 @@
       <c r="J653" s="11"/>
       <c r="K653" s="20"/>
     </row>
-    <row r="654" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A654" s="40">
         <v>46054</v>
       </c>
@@ -18671,7 +18676,7 @@
       <c r="J654" s="11"/>
       <c r="K654" s="20"/>
     </row>
-    <row r="655" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A655" s="40">
         <v>46082</v>
       </c>
@@ -18689,7 +18694,7 @@
       <c r="J655" s="11"/>
       <c r="K655" s="20"/>
     </row>
-    <row r="656" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A656" s="40">
         <v>46113</v>
       </c>
@@ -18707,7 +18712,7 @@
       <c r="J656" s="11"/>
       <c r="K656" s="20"/>
     </row>
-    <row r="657" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A657" s="40">
         <v>46143</v>
       </c>
@@ -18725,7 +18730,7 @@
       <c r="J657" s="11"/>
       <c r="K657" s="20"/>
     </row>
-    <row r="658" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A658" s="40">
         <v>46174</v>
       </c>
@@ -18743,7 +18748,7 @@
       <c r="J658" s="11"/>
       <c r="K658" s="20"/>
     </row>
-    <row r="659" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A659" s="40">
         <v>46204</v>
       </c>
@@ -18761,7 +18766,7 @@
       <c r="J659" s="11"/>
       <c r="K659" s="20"/>
     </row>
-    <row r="660" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A660" s="40">
         <v>46235</v>
       </c>
@@ -18779,7 +18784,7 @@
       <c r="J660" s="11"/>
       <c r="K660" s="20"/>
     </row>
-    <row r="661" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A661" s="40">
         <v>46266</v>
       </c>
@@ -18797,7 +18802,7 @@
       <c r="J661" s="11"/>
       <c r="K661" s="20"/>
     </row>
-    <row r="662" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A662" s="40">
         <v>46296</v>
       </c>
@@ -18815,7 +18820,7 @@
       <c r="J662" s="11"/>
       <c r="K662" s="20"/>
     </row>
-    <row r="663" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A663" s="40">
         <v>46327</v>
       </c>
@@ -18833,7 +18838,7 @@
       <c r="J663" s="11"/>
       <c r="K663" s="20"/>
     </row>
-    <row r="664" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A664" s="40">
         <v>46357</v>
       </c>
@@ -18851,7 +18856,7 @@
       <c r="J664" s="11"/>
       <c r="K664" s="20"/>
     </row>
-    <row r="665" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A665" s="40">
         <v>46388</v>
       </c>
@@ -18869,7 +18874,7 @@
       <c r="J665" s="11"/>
       <c r="K665" s="20"/>
     </row>
-    <row r="666" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A666" s="40">
         <v>46419</v>
       </c>
@@ -18887,7 +18892,7 @@
       <c r="J666" s="11"/>
       <c r="K666" s="20"/>
     </row>
-    <row r="667" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A667" s="40">
         <v>46447</v>
       </c>
@@ -18905,7 +18910,7 @@
       <c r="J667" s="11"/>
       <c r="K667" s="20"/>
     </row>
-    <row r="668" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A668" s="40">
         <v>46478</v>
       </c>
@@ -18923,7 +18928,7 @@
       <c r="J668" s="11"/>
       <c r="K668" s="20"/>
     </row>
-    <row r="669" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A669" s="40">
         <v>46508</v>
       </c>
@@ -18941,7 +18946,7 @@
       <c r="J669" s="11"/>
       <c r="K669" s="20"/>
     </row>
-    <row r="670" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A670" s="40">
         <v>46539</v>
       </c>
@@ -18959,7 +18964,7 @@
       <c r="J670" s="11"/>
       <c r="K670" s="20"/>
     </row>
-    <row r="671" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A671" s="40">
         <v>46569</v>
       </c>
@@ -18977,7 +18982,7 @@
       <c r="J671" s="11"/>
       <c r="K671" s="20"/>
     </row>
-    <row r="672" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A672" s="40">
         <v>46600</v>
       </c>
@@ -18995,7 +19000,7 @@
       <c r="J672" s="11"/>
       <c r="K672" s="20"/>
     </row>
-    <row r="673" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A673" s="40">
         <v>46631</v>
       </c>
@@ -19013,7 +19018,7 @@
       <c r="J673" s="11"/>
       <c r="K673" s="20"/>
     </row>
-    <row r="674" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A674" s="40">
         <v>46661</v>
       </c>
@@ -19031,7 +19036,7 @@
       <c r="J674" s="11"/>
       <c r="K674" s="20"/>
     </row>
-    <row r="675" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A675" s="40">
         <v>46692</v>
       </c>
@@ -19049,7 +19054,7 @@
       <c r="J675" s="11"/>
       <c r="K675" s="20"/>
     </row>
-    <row r="676" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A676" s="40">
         <v>46722</v>
       </c>
@@ -19067,7 +19072,7 @@
       <c r="J676" s="11"/>
       <c r="K676" s="20"/>
     </row>
-    <row r="677" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A677" s="40">
         <v>46753</v>
       </c>
@@ -19085,7 +19090,7 @@
       <c r="J677" s="11"/>
       <c r="K677" s="20"/>
     </row>
-    <row r="678" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A678" s="40">
         <v>46784</v>
       </c>
@@ -19103,7 +19108,7 @@
       <c r="J678" s="11"/>
       <c r="K678" s="20"/>
     </row>
-    <row r="679" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A679" s="40">
         <v>46813</v>
       </c>
@@ -19121,7 +19126,7 @@
       <c r="J679" s="11"/>
       <c r="K679" s="20"/>
     </row>
-    <row r="680" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A680" s="40">
         <v>46844</v>
       </c>
@@ -19139,7 +19144,7 @@
       <c r="J680" s="11"/>
       <c r="K680" s="20"/>
     </row>
-    <row r="681" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A681" s="40">
         <v>46874</v>
       </c>
@@ -19157,7 +19162,7 @@
       <c r="J681" s="11"/>
       <c r="K681" s="20"/>
     </row>
-    <row r="682" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A682" s="40">
         <v>46905</v>
       </c>
@@ -19190,10 +19195,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -19216,7 +19221,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -19224,21 +19229,21 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5703125" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="62" t="s">
         <v>33</v>
       </c>
@@ -19251,7 +19256,7 @@
       <c r="K1" s="63"/>
       <c r="L1" s="63"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -19280,7 +19285,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
         <v>14.688000000000001</v>
       </c>
@@ -19308,17 +19313,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>427</v>
       </c>
@@ -19342,7 +19347,7 @@
       <c r="K6" s="63"/>
       <c r="L6" s="63"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="11">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
         <v>153.6570000000001</v>
@@ -19373,7 +19378,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -19399,7 +19404,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -19425,7 +19430,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -19451,7 +19456,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -19477,7 +19482,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -19503,7 +19508,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -19529,7 +19534,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -19555,7 +19560,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -19575,7 +19580,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -19595,7 +19600,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -19615,7 +19620,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -19636,7 +19641,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -19657,7 +19662,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -19678,7 +19683,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -19699,7 +19704,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -19720,7 +19725,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -19741,7 +19746,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -19762,7 +19767,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -19783,7 +19788,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -19804,7 +19809,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -19825,7 +19830,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -19846,7 +19851,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -19867,7 +19872,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -19888,7 +19893,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -19909,7 +19914,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -19930,7 +19935,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -19951,7 +19956,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -19972,7 +19977,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -19993,7 +19998,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -20014,7 +20019,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -20035,7 +20040,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -20044,7 +20049,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -20053,7 +20058,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -20062,7 +20067,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -20071,7 +20076,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -20080,7 +20085,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -20089,7 +20094,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -20098,7 +20103,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -20107,7 +20112,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -20116,7 +20121,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -20125,7 +20130,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -20134,7 +20139,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -20143,7 +20148,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -20152,7 +20157,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -20161,7 +20166,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -20170,7 +20175,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -20179,7 +20184,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -20188,7 +20193,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -20197,7 +20202,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -20206,7 +20211,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -20215,7 +20220,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -20224,7 +20229,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -20233,7 +20238,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -20242,7 +20247,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -20251,7 +20256,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -20260,7 +20265,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -20269,7 +20274,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -20278,7 +20283,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -20287,7 +20292,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -20296,7 +20301,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/REGULAR/ROCILLO, CECILIA.xlsx
+++ b/REGULAR/ROCILLO, CECILIA.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="429">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="429">
   <si>
     <t>PERIOD</t>
   </si>
@@ -2192,7 +2192,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2235,7 +2235,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2299,7 +2299,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2359,7 +2359,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2425,7 +2425,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2488,7 +2488,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2586,7 +2586,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2645,7 +2645,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2710,7 +2710,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2753,7 +2753,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2828,7 +2828,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3014,7 +3014,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3080,7 +3080,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3138,7 +3138,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3204,7 +3204,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3260,7 +3260,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3335,7 +3335,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3378,7 +3378,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3444,7 +3444,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3500,7 +3500,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3598,7 +3598,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3661,7 +3661,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3727,7 +3727,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K683" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K684" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
@@ -4105,12 +4105,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K683"/>
+  <dimension ref="A2:K684"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A614" activePane="bottomLeft"/>
       <selection activeCell="B2" sqref="B2:C2"/>
-      <selection pane="bottomLeft" activeCell="B623" sqref="B623"/>
+      <selection pane="bottomLeft" activeCell="H624" sqref="H624"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4285,7 +4285,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>104.41</v>
+        <v>103.41</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -18115,10 +18115,10 @@
       </c>
     </row>
     <row r="623" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A623" s="40">
-        <v>45078</v>
-      </c>
-      <c r="B623" s="20"/>
+      <c r="A623" s="40"/>
+      <c r="B623" s="20" t="s">
+        <v>47</v>
+      </c>
       <c r="C623" s="13"/>
       <c r="D623" s="39"/>
       <c r="E623" s="9"/>
@@ -18127,14 +18127,18 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H623" s="39"/>
+      <c r="H623" s="39">
+        <v>1</v>
+      </c>
       <c r="I623" s="9"/>
       <c r="J623" s="11"/>
-      <c r="K623" s="20"/>
+      <c r="K623" s="48">
+        <v>45057</v>
+      </c>
     </row>
     <row r="624" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A624" s="40">
-        <v>45108</v>
+        <v>45078</v>
       </c>
       <c r="B624" s="20"/>
       <c r="C624" s="13"/>
@@ -18152,7 +18156,7 @@
     </row>
     <row r="625" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A625" s="40">
-        <v>45139</v>
+        <v>45108</v>
       </c>
       <c r="B625" s="20"/>
       <c r="C625" s="13"/>
@@ -18170,7 +18174,7 @@
     </row>
     <row r="626" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A626" s="40">
-        <v>45170</v>
+        <v>45139</v>
       </c>
       <c r="B626" s="20"/>
       <c r="C626" s="13"/>
@@ -18188,7 +18192,7 @@
     </row>
     <row r="627" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A627" s="40">
-        <v>45200</v>
+        <v>45170</v>
       </c>
       <c r="B627" s="20"/>
       <c r="C627" s="13"/>
@@ -18206,7 +18210,7 @@
     </row>
     <row r="628" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A628" s="40">
-        <v>45231</v>
+        <v>45200</v>
       </c>
       <c r="B628" s="20"/>
       <c r="C628" s="13"/>
@@ -18224,7 +18228,7 @@
     </row>
     <row r="629" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A629" s="40">
-        <v>45261</v>
+        <v>45231</v>
       </c>
       <c r="B629" s="20"/>
       <c r="C629" s="13"/>
@@ -18242,7 +18246,7 @@
     </row>
     <row r="630" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A630" s="40">
-        <v>45292</v>
+        <v>45261</v>
       </c>
       <c r="B630" s="20"/>
       <c r="C630" s="13"/>
@@ -18260,7 +18264,7 @@
     </row>
     <row r="631" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A631" s="40">
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="B631" s="20"/>
       <c r="C631" s="13"/>
@@ -18278,7 +18282,7 @@
     </row>
     <row r="632" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A632" s="40">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B632" s="20"/>
       <c r="C632" s="13"/>
@@ -18296,7 +18300,7 @@
     </row>
     <row r="633" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A633" s="40">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B633" s="20"/>
       <c r="C633" s="13"/>
@@ -18314,7 +18318,7 @@
     </row>
     <row r="634" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A634" s="40">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B634" s="20"/>
       <c r="C634" s="13"/>
@@ -18332,7 +18336,7 @@
     </row>
     <row r="635" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A635" s="40">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B635" s="20"/>
       <c r="C635" s="13"/>
@@ -18350,7 +18354,7 @@
     </row>
     <row r="636" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A636" s="40">
-        <v>45474</v>
+        <v>45444</v>
       </c>
       <c r="B636" s="20"/>
       <c r="C636" s="13"/>
@@ -18368,7 +18372,7 @@
     </row>
     <row r="637" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A637" s="40">
-        <v>45505</v>
+        <v>45474</v>
       </c>
       <c r="B637" s="20"/>
       <c r="C637" s="13"/>
@@ -18386,7 +18390,7 @@
     </row>
     <row r="638" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A638" s="40">
-        <v>45536</v>
+        <v>45505</v>
       </c>
       <c r="B638" s="20"/>
       <c r="C638" s="13"/>
@@ -18404,7 +18408,7 @@
     </row>
     <row r="639" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A639" s="40">
-        <v>45566</v>
+        <v>45536</v>
       </c>
       <c r="B639" s="20"/>
       <c r="C639" s="13"/>
@@ -18422,7 +18426,7 @@
     </row>
     <row r="640" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A640" s="40">
-        <v>45597</v>
+        <v>45566</v>
       </c>
       <c r="B640" s="20"/>
       <c r="C640" s="13"/>
@@ -18440,7 +18444,7 @@
     </row>
     <row r="641" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A641" s="40">
-        <v>45627</v>
+        <v>45597</v>
       </c>
       <c r="B641" s="20"/>
       <c r="C641" s="13"/>
@@ -18458,7 +18462,7 @@
     </row>
     <row r="642" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A642" s="40">
-        <v>45658</v>
+        <v>45627</v>
       </c>
       <c r="B642" s="20"/>
       <c r="C642" s="13"/>
@@ -18476,7 +18480,7 @@
     </row>
     <row r="643" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A643" s="40">
-        <v>45689</v>
+        <v>45658</v>
       </c>
       <c r="B643" s="20"/>
       <c r="C643" s="13"/>
@@ -18494,7 +18498,7 @@
     </row>
     <row r="644" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A644" s="40">
-        <v>45717</v>
+        <v>45689</v>
       </c>
       <c r="B644" s="20"/>
       <c r="C644" s="13"/>
@@ -18512,7 +18516,7 @@
     </row>
     <row r="645" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A645" s="40">
-        <v>45748</v>
+        <v>45717</v>
       </c>
       <c r="B645" s="20"/>
       <c r="C645" s="13"/>
@@ -18530,7 +18534,7 @@
     </row>
     <row r="646" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A646" s="40">
-        <v>45778</v>
+        <v>45748</v>
       </c>
       <c r="B646" s="20"/>
       <c r="C646" s="13"/>
@@ -18548,7 +18552,7 @@
     </row>
     <row r="647" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A647" s="40">
-        <v>45809</v>
+        <v>45778</v>
       </c>
       <c r="B647" s="20"/>
       <c r="C647" s="13"/>
@@ -18566,7 +18570,7 @@
     </row>
     <row r="648" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A648" s="40">
-        <v>45839</v>
+        <v>45809</v>
       </c>
       <c r="B648" s="20"/>
       <c r="C648" s="13"/>
@@ -18584,7 +18588,7 @@
     </row>
     <row r="649" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A649" s="40">
-        <v>45870</v>
+        <v>45839</v>
       </c>
       <c r="B649" s="20"/>
       <c r="C649" s="13"/>
@@ -18602,7 +18606,7 @@
     </row>
     <row r="650" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A650" s="40">
-        <v>45901</v>
+        <v>45870</v>
       </c>
       <c r="B650" s="20"/>
       <c r="C650" s="13"/>
@@ -18620,7 +18624,7 @@
     </row>
     <row r="651" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A651" s="40">
-        <v>45931</v>
+        <v>45901</v>
       </c>
       <c r="B651" s="20"/>
       <c r="C651" s="13"/>
@@ -18638,7 +18642,7 @@
     </row>
     <row r="652" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A652" s="40">
-        <v>45962</v>
+        <v>45931</v>
       </c>
       <c r="B652" s="20"/>
       <c r="C652" s="13"/>
@@ -18656,7 +18660,7 @@
     </row>
     <row r="653" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A653" s="40">
-        <v>45992</v>
+        <v>45962</v>
       </c>
       <c r="B653" s="20"/>
       <c r="C653" s="13"/>
@@ -18674,7 +18678,7 @@
     </row>
     <row r="654" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A654" s="40">
-        <v>46023</v>
+        <v>45992</v>
       </c>
       <c r="B654" s="20"/>
       <c r="C654" s="13"/>
@@ -18692,7 +18696,7 @@
     </row>
     <row r="655" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A655" s="40">
-        <v>46054</v>
+        <v>46023</v>
       </c>
       <c r="B655" s="20"/>
       <c r="C655" s="13"/>
@@ -18710,7 +18714,7 @@
     </row>
     <row r="656" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A656" s="40">
-        <v>46082</v>
+        <v>46054</v>
       </c>
       <c r="B656" s="20"/>
       <c r="C656" s="13"/>
@@ -18728,7 +18732,7 @@
     </row>
     <row r="657" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A657" s="40">
-        <v>46113</v>
+        <v>46082</v>
       </c>
       <c r="B657" s="20"/>
       <c r="C657" s="13"/>
@@ -18746,7 +18750,7 @@
     </row>
     <row r="658" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A658" s="40">
-        <v>46143</v>
+        <v>46113</v>
       </c>
       <c r="B658" s="20"/>
       <c r="C658" s="13"/>
@@ -18764,7 +18768,7 @@
     </row>
     <row r="659" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A659" s="40">
-        <v>46174</v>
+        <v>46143</v>
       </c>
       <c r="B659" s="20"/>
       <c r="C659" s="13"/>
@@ -18782,7 +18786,7 @@
     </row>
     <row r="660" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A660" s="40">
-        <v>46204</v>
+        <v>46174</v>
       </c>
       <c r="B660" s="20"/>
       <c r="C660" s="13"/>
@@ -18800,7 +18804,7 @@
     </row>
     <row r="661" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A661" s="40">
-        <v>46235</v>
+        <v>46204</v>
       </c>
       <c r="B661" s="20"/>
       <c r="C661" s="13"/>
@@ -18818,7 +18822,7 @@
     </row>
     <row r="662" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A662" s="40">
-        <v>46266</v>
+        <v>46235</v>
       </c>
       <c r="B662" s="20"/>
       <c r="C662" s="13"/>
@@ -18836,7 +18840,7 @@
     </row>
     <row r="663" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A663" s="40">
-        <v>46296</v>
+        <v>46266</v>
       </c>
       <c r="B663" s="20"/>
       <c r="C663" s="13"/>
@@ -18854,7 +18858,7 @@
     </row>
     <row r="664" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A664" s="40">
-        <v>46327</v>
+        <v>46296</v>
       </c>
       <c r="B664" s="20"/>
       <c r="C664" s="13"/>
@@ -18872,7 +18876,7 @@
     </row>
     <row r="665" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A665" s="40">
-        <v>46357</v>
+        <v>46327</v>
       </c>
       <c r="B665" s="20"/>
       <c r="C665" s="13"/>
@@ -18890,7 +18894,7 @@
     </row>
     <row r="666" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A666" s="40">
-        <v>46388</v>
+        <v>46357</v>
       </c>
       <c r="B666" s="20"/>
       <c r="C666" s="13"/>
@@ -18908,7 +18912,7 @@
     </row>
     <row r="667" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A667" s="40">
-        <v>46419</v>
+        <v>46388</v>
       </c>
       <c r="B667" s="20"/>
       <c r="C667" s="13"/>
@@ -18926,7 +18930,7 @@
     </row>
     <row r="668" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A668" s="40">
-        <v>46447</v>
+        <v>46419</v>
       </c>
       <c r="B668" s="20"/>
       <c r="C668" s="13"/>
@@ -18944,7 +18948,7 @@
     </row>
     <row r="669" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A669" s="40">
-        <v>46478</v>
+        <v>46447</v>
       </c>
       <c r="B669" s="20"/>
       <c r="C669" s="13"/>
@@ -18962,7 +18966,7 @@
     </row>
     <row r="670" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A670" s="40">
-        <v>46508</v>
+        <v>46478</v>
       </c>
       <c r="B670" s="20"/>
       <c r="C670" s="13"/>
@@ -18980,7 +18984,7 @@
     </row>
     <row r="671" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A671" s="40">
-        <v>46539</v>
+        <v>46508</v>
       </c>
       <c r="B671" s="20"/>
       <c r="C671" s="13"/>
@@ -18998,7 +19002,7 @@
     </row>
     <row r="672" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A672" s="40">
-        <v>46569</v>
+        <v>46539</v>
       </c>
       <c r="B672" s="20"/>
       <c r="C672" s="13"/>
@@ -19016,7 +19020,7 @@
     </row>
     <row r="673" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A673" s="40">
-        <v>46600</v>
+        <v>46569</v>
       </c>
       <c r="B673" s="20"/>
       <c r="C673" s="13"/>
@@ -19034,7 +19038,7 @@
     </row>
     <row r="674" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A674" s="40">
-        <v>46631</v>
+        <v>46600</v>
       </c>
       <c r="B674" s="20"/>
       <c r="C674" s="13"/>
@@ -19052,7 +19056,7 @@
     </row>
     <row r="675" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A675" s="40">
-        <v>46661</v>
+        <v>46631</v>
       </c>
       <c r="B675" s="20"/>
       <c r="C675" s="13"/>
@@ -19070,7 +19074,7 @@
     </row>
     <row r="676" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A676" s="40">
-        <v>46692</v>
+        <v>46661</v>
       </c>
       <c r="B676" s="20"/>
       <c r="C676" s="13"/>
@@ -19088,7 +19092,7 @@
     </row>
     <row r="677" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A677" s="40">
-        <v>46722</v>
+        <v>46692</v>
       </c>
       <c r="B677" s="20"/>
       <c r="C677" s="13"/>
@@ -19106,7 +19110,7 @@
     </row>
     <row r="678" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A678" s="40">
-        <v>46753</v>
+        <v>46722</v>
       </c>
       <c r="B678" s="20"/>
       <c r="C678" s="13"/>
@@ -19124,7 +19128,7 @@
     </row>
     <row r="679" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A679" s="40">
-        <v>46784</v>
+        <v>46753</v>
       </c>
       <c r="B679" s="20"/>
       <c r="C679" s="13"/>
@@ -19142,7 +19146,7 @@
     </row>
     <row r="680" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A680" s="40">
-        <v>46813</v>
+        <v>46784</v>
       </c>
       <c r="B680" s="20"/>
       <c r="C680" s="13"/>
@@ -19160,7 +19164,7 @@
     </row>
     <row r="681" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A681" s="40">
-        <v>46844</v>
+        <v>46813</v>
       </c>
       <c r="B681" s="20"/>
       <c r="C681" s="13"/>
@@ -19178,7 +19182,7 @@
     </row>
     <row r="682" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A682" s="40">
-        <v>46874</v>
+        <v>46844</v>
       </c>
       <c r="B682" s="20"/>
       <c r="C682" s="13"/>
@@ -19196,7 +19200,7 @@
     </row>
     <row r="683" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A683" s="40">
-        <v>46905</v>
+        <v>46874</v>
       </c>
       <c r="B683" s="20"/>
       <c r="C683" s="13"/>
@@ -19211,6 +19215,24 @@
       <c r="I683" s="9"/>
       <c r="J683" s="11"/>
       <c r="K683" s="20"/>
+    </row>
+    <row r="684" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A684" s="40">
+        <v>46905</v>
+      </c>
+      <c r="B684" s="20"/>
+      <c r="C684" s="13"/>
+      <c r="D684" s="39"/>
+      <c r="E684" s="9"/>
+      <c r="F684" s="20"/>
+      <c r="G684" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H684" s="39"/>
+      <c r="I684" s="9"/>
+      <c r="J684" s="11"/>
+      <c r="K684" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -19382,7 +19404,7 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>153.1570000000001</v>
+        <v>152.1570000000001</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>

--- a/REGULAR/ROCILLO, CECILIA.xlsx
+++ b/REGULAR/ROCILLO, CECILIA.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="429">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="429">
   <si>
     <t>PERIOD</t>
   </si>
@@ -2192,7 +2192,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2235,7 +2235,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2299,7 +2299,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2359,7 +2359,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2425,7 +2425,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2488,7 +2488,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2586,7 +2586,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2645,7 +2645,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2710,7 +2710,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2753,7 +2753,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2828,7 +2828,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3014,7 +3014,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3080,7 +3080,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3138,7 +3138,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3204,7 +3204,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3260,7 +3260,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3335,7 +3335,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3378,7 +3378,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3444,7 +3444,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3500,7 +3500,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3598,7 +3598,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3661,7 +3661,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4110,7 +4110,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A614" activePane="bottomLeft"/>
       <selection activeCell="B2" sqref="B2:C2"/>
-      <selection pane="bottomLeft" activeCell="H624" sqref="H624"/>
+      <selection pane="bottomLeft" activeCell="I624" sqref="I624"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4275,7 +4275,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>48.747000000000085</v>
+        <v>49.997000000000085</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -4285,7 +4285,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>103.41</v>
+        <v>102.66</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -18075,13 +18075,15 @@
       <c r="B621" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="C621" s="13"/>
+      <c r="C621" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D621" s="39"/>
       <c r="E621" s="9"/>
       <c r="F621" s="20"/>
-      <c r="G621" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G621" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H621" s="39">
         <v>2</v>
@@ -18140,7 +18142,9 @@
       <c r="A624" s="40">
         <v>45078</v>
       </c>
-      <c r="B624" s="20"/>
+      <c r="B624" s="20" t="s">
+        <v>73</v>
+      </c>
       <c r="C624" s="13"/>
       <c r="D624" s="39"/>
       <c r="E624" s="9"/>
@@ -18149,7 +18153,9 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H624" s="39"/>
+      <c r="H624" s="39">
+        <v>2</v>
+      </c>
       <c r="I624" s="9"/>
       <c r="J624" s="11"/>
       <c r="K624" s="20"/>
@@ -19404,7 +19410,7 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>152.1570000000001</v>
+        <v>152.6570000000001</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>

--- a/REGULAR/ROCILLO, CECILIA.xlsx
+++ b/REGULAR/ROCILLO, CECILIA.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="429">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="787" uniqueCount="429">
   <si>
     <t>PERIOD</t>
   </si>
@@ -2192,7 +2192,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2235,7 +2235,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2299,7 +2299,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2359,7 +2359,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2425,7 +2425,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2488,7 +2488,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2586,7 +2586,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2645,7 +2645,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2710,7 +2710,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2753,7 +2753,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2828,7 +2828,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3014,7 +3014,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3080,7 +3080,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3138,7 +3138,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3204,7 +3204,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3260,7 +3260,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3335,7 +3335,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3378,7 +3378,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3444,7 +3444,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3500,7 +3500,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3598,7 +3598,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3661,7 +3661,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3727,7 +3727,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K684" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K685" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
@@ -4105,12 +4105,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K684"/>
+  <dimension ref="A2:K685"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A614" activePane="bottomLeft"/>
       <selection activeCell="B2" sqref="B2:C2"/>
-      <selection pane="bottomLeft" activeCell="I624" sqref="I624"/>
+      <selection pane="bottomLeft" activeCell="K625" sqref="K625"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4285,7 +4285,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>102.66</v>
+        <v>101.66</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -18161,10 +18161,10 @@
       <c r="K624" s="20"/>
     </row>
     <row r="625" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A625" s="40">
-        <v>45108</v>
-      </c>
-      <c r="B625" s="20"/>
+      <c r="A625" s="40"/>
+      <c r="B625" s="20" t="s">
+        <v>47</v>
+      </c>
       <c r="C625" s="13"/>
       <c r="D625" s="39"/>
       <c r="E625" s="9"/>
@@ -18173,14 +18173,18 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H625" s="39"/>
+      <c r="H625" s="39">
+        <v>1</v>
+      </c>
       <c r="I625" s="9"/>
       <c r="J625" s="11"/>
-      <c r="K625" s="20"/>
+      <c r="K625" s="48">
+        <v>45084</v>
+      </c>
     </row>
     <row r="626" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A626" s="40">
-        <v>45139</v>
+        <v>45108</v>
       </c>
       <c r="B626" s="20"/>
       <c r="C626" s="13"/>
@@ -18198,7 +18202,7 @@
     </row>
     <row r="627" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A627" s="40">
-        <v>45170</v>
+        <v>45139</v>
       </c>
       <c r="B627" s="20"/>
       <c r="C627" s="13"/>
@@ -18216,7 +18220,7 @@
     </row>
     <row r="628" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A628" s="40">
-        <v>45200</v>
+        <v>45170</v>
       </c>
       <c r="B628" s="20"/>
       <c r="C628" s="13"/>
@@ -18234,7 +18238,7 @@
     </row>
     <row r="629" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A629" s="40">
-        <v>45231</v>
+        <v>45200</v>
       </c>
       <c r="B629" s="20"/>
       <c r="C629" s="13"/>
@@ -18252,7 +18256,7 @@
     </row>
     <row r="630" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A630" s="40">
-        <v>45261</v>
+        <v>45231</v>
       </c>
       <c r="B630" s="20"/>
       <c r="C630" s="13"/>
@@ -18270,7 +18274,7 @@
     </row>
     <row r="631" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A631" s="40">
-        <v>45292</v>
+        <v>45261</v>
       </c>
       <c r="B631" s="20"/>
       <c r="C631" s="13"/>
@@ -18288,7 +18292,7 @@
     </row>
     <row r="632" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A632" s="40">
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="B632" s="20"/>
       <c r="C632" s="13"/>
@@ -18306,7 +18310,7 @@
     </row>
     <row r="633" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A633" s="40">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B633" s="20"/>
       <c r="C633" s="13"/>
@@ -18324,7 +18328,7 @@
     </row>
     <row r="634" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A634" s="40">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B634" s="20"/>
       <c r="C634" s="13"/>
@@ -18342,7 +18346,7 @@
     </row>
     <row r="635" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A635" s="40">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B635" s="20"/>
       <c r="C635" s="13"/>
@@ -18360,7 +18364,7 @@
     </row>
     <row r="636" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A636" s="40">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B636" s="20"/>
       <c r="C636" s="13"/>
@@ -18378,7 +18382,7 @@
     </row>
     <row r="637" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A637" s="40">
-        <v>45474</v>
+        <v>45444</v>
       </c>
       <c r="B637" s="20"/>
       <c r="C637" s="13"/>
@@ -18396,7 +18400,7 @@
     </row>
     <row r="638" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A638" s="40">
-        <v>45505</v>
+        <v>45474</v>
       </c>
       <c r="B638" s="20"/>
       <c r="C638" s="13"/>
@@ -18414,7 +18418,7 @@
     </row>
     <row r="639" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A639" s="40">
-        <v>45536</v>
+        <v>45505</v>
       </c>
       <c r="B639" s="20"/>
       <c r="C639" s="13"/>
@@ -18432,7 +18436,7 @@
     </row>
     <row r="640" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A640" s="40">
-        <v>45566</v>
+        <v>45536</v>
       </c>
       <c r="B640" s="20"/>
       <c r="C640" s="13"/>
@@ -18450,7 +18454,7 @@
     </row>
     <row r="641" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A641" s="40">
-        <v>45597</v>
+        <v>45566</v>
       </c>
       <c r="B641" s="20"/>
       <c r="C641" s="13"/>
@@ -18468,7 +18472,7 @@
     </row>
     <row r="642" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A642" s="40">
-        <v>45627</v>
+        <v>45597</v>
       </c>
       <c r="B642" s="20"/>
       <c r="C642" s="13"/>
@@ -18486,7 +18490,7 @@
     </row>
     <row r="643" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A643" s="40">
-        <v>45658</v>
+        <v>45627</v>
       </c>
       <c r="B643" s="20"/>
       <c r="C643" s="13"/>
@@ -18504,7 +18508,7 @@
     </row>
     <row r="644" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A644" s="40">
-        <v>45689</v>
+        <v>45658</v>
       </c>
       <c r="B644" s="20"/>
       <c r="C644" s="13"/>
@@ -18522,7 +18526,7 @@
     </row>
     <row r="645" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A645" s="40">
-        <v>45717</v>
+        <v>45689</v>
       </c>
       <c r="B645" s="20"/>
       <c r="C645" s="13"/>
@@ -18540,7 +18544,7 @@
     </row>
     <row r="646" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A646" s="40">
-        <v>45748</v>
+        <v>45717</v>
       </c>
       <c r="B646" s="20"/>
       <c r="C646" s="13"/>
@@ -18558,7 +18562,7 @@
     </row>
     <row r="647" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A647" s="40">
-        <v>45778</v>
+        <v>45748</v>
       </c>
       <c r="B647" s="20"/>
       <c r="C647" s="13"/>
@@ -18576,7 +18580,7 @@
     </row>
     <row r="648" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A648" s="40">
-        <v>45809</v>
+        <v>45778</v>
       </c>
       <c r="B648" s="20"/>
       <c r="C648" s="13"/>
@@ -18594,7 +18598,7 @@
     </row>
     <row r="649" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A649" s="40">
-        <v>45839</v>
+        <v>45809</v>
       </c>
       <c r="B649" s="20"/>
       <c r="C649" s="13"/>
@@ -18612,7 +18616,7 @@
     </row>
     <row r="650" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A650" s="40">
-        <v>45870</v>
+        <v>45839</v>
       </c>
       <c r="B650" s="20"/>
       <c r="C650" s="13"/>
@@ -18630,7 +18634,7 @@
     </row>
     <row r="651" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A651" s="40">
-        <v>45901</v>
+        <v>45870</v>
       </c>
       <c r="B651" s="20"/>
       <c r="C651" s="13"/>
@@ -18648,7 +18652,7 @@
     </row>
     <row r="652" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A652" s="40">
-        <v>45931</v>
+        <v>45901</v>
       </c>
       <c r="B652" s="20"/>
       <c r="C652" s="13"/>
@@ -18666,7 +18670,7 @@
     </row>
     <row r="653" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A653" s="40">
-        <v>45962</v>
+        <v>45931</v>
       </c>
       <c r="B653" s="20"/>
       <c r="C653" s="13"/>
@@ -18684,7 +18688,7 @@
     </row>
     <row r="654" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A654" s="40">
-        <v>45992</v>
+        <v>45962</v>
       </c>
       <c r="B654" s="20"/>
       <c r="C654" s="13"/>
@@ -18702,7 +18706,7 @@
     </row>
     <row r="655" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A655" s="40">
-        <v>46023</v>
+        <v>45992</v>
       </c>
       <c r="B655" s="20"/>
       <c r="C655" s="13"/>
@@ -18720,7 +18724,7 @@
     </row>
     <row r="656" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A656" s="40">
-        <v>46054</v>
+        <v>46023</v>
       </c>
       <c r="B656" s="20"/>
       <c r="C656" s="13"/>
@@ -18738,7 +18742,7 @@
     </row>
     <row r="657" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A657" s="40">
-        <v>46082</v>
+        <v>46054</v>
       </c>
       <c r="B657" s="20"/>
       <c r="C657" s="13"/>
@@ -18756,7 +18760,7 @@
     </row>
     <row r="658" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A658" s="40">
-        <v>46113</v>
+        <v>46082</v>
       </c>
       <c r="B658" s="20"/>
       <c r="C658" s="13"/>
@@ -18774,7 +18778,7 @@
     </row>
     <row r="659" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A659" s="40">
-        <v>46143</v>
+        <v>46113</v>
       </c>
       <c r="B659" s="20"/>
       <c r="C659" s="13"/>
@@ -18792,7 +18796,7 @@
     </row>
     <row r="660" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A660" s="40">
-        <v>46174</v>
+        <v>46143</v>
       </c>
       <c r="B660" s="20"/>
       <c r="C660" s="13"/>
@@ -18810,7 +18814,7 @@
     </row>
     <row r="661" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A661" s="40">
-        <v>46204</v>
+        <v>46174</v>
       </c>
       <c r="B661" s="20"/>
       <c r="C661" s="13"/>
@@ -18828,7 +18832,7 @@
     </row>
     <row r="662" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A662" s="40">
-        <v>46235</v>
+        <v>46204</v>
       </c>
       <c r="B662" s="20"/>
       <c r="C662" s="13"/>
@@ -18846,7 +18850,7 @@
     </row>
     <row r="663" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A663" s="40">
-        <v>46266</v>
+        <v>46235</v>
       </c>
       <c r="B663" s="20"/>
       <c r="C663" s="13"/>
@@ -18864,7 +18868,7 @@
     </row>
     <row r="664" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A664" s="40">
-        <v>46296</v>
+        <v>46266</v>
       </c>
       <c r="B664" s="20"/>
       <c r="C664" s="13"/>
@@ -18882,7 +18886,7 @@
     </row>
     <row r="665" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A665" s="40">
-        <v>46327</v>
+        <v>46296</v>
       </c>
       <c r="B665" s="20"/>
       <c r="C665" s="13"/>
@@ -18900,7 +18904,7 @@
     </row>
     <row r="666" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A666" s="40">
-        <v>46357</v>
+        <v>46327</v>
       </c>
       <c r="B666" s="20"/>
       <c r="C666" s="13"/>
@@ -18918,7 +18922,7 @@
     </row>
     <row r="667" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A667" s="40">
-        <v>46388</v>
+        <v>46357</v>
       </c>
       <c r="B667" s="20"/>
       <c r="C667" s="13"/>
@@ -18936,7 +18940,7 @@
     </row>
     <row r="668" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A668" s="40">
-        <v>46419</v>
+        <v>46388</v>
       </c>
       <c r="B668" s="20"/>
       <c r="C668" s="13"/>
@@ -18954,7 +18958,7 @@
     </row>
     <row r="669" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A669" s="40">
-        <v>46447</v>
+        <v>46419</v>
       </c>
       <c r="B669" s="20"/>
       <c r="C669" s="13"/>
@@ -18972,7 +18976,7 @@
     </row>
     <row r="670" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A670" s="40">
-        <v>46478</v>
+        <v>46447</v>
       </c>
       <c r="B670" s="20"/>
       <c r="C670" s="13"/>
@@ -18990,7 +18994,7 @@
     </row>
     <row r="671" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A671" s="40">
-        <v>46508</v>
+        <v>46478</v>
       </c>
       <c r="B671" s="20"/>
       <c r="C671" s="13"/>
@@ -19008,7 +19012,7 @@
     </row>
     <row r="672" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A672" s="40">
-        <v>46539</v>
+        <v>46508</v>
       </c>
       <c r="B672" s="20"/>
       <c r="C672" s="13"/>
@@ -19026,7 +19030,7 @@
     </row>
     <row r="673" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A673" s="40">
-        <v>46569</v>
+        <v>46539</v>
       </c>
       <c r="B673" s="20"/>
       <c r="C673" s="13"/>
@@ -19044,7 +19048,7 @@
     </row>
     <row r="674" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A674" s="40">
-        <v>46600</v>
+        <v>46569</v>
       </c>
       <c r="B674" s="20"/>
       <c r="C674" s="13"/>
@@ -19062,7 +19066,7 @@
     </row>
     <row r="675" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A675" s="40">
-        <v>46631</v>
+        <v>46600</v>
       </c>
       <c r="B675" s="20"/>
       <c r="C675" s="13"/>
@@ -19080,7 +19084,7 @@
     </row>
     <row r="676" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A676" s="40">
-        <v>46661</v>
+        <v>46631</v>
       </c>
       <c r="B676" s="20"/>
       <c r="C676" s="13"/>
@@ -19098,7 +19102,7 @@
     </row>
     <row r="677" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A677" s="40">
-        <v>46692</v>
+        <v>46661</v>
       </c>
       <c r="B677" s="20"/>
       <c r="C677" s="13"/>
@@ -19116,7 +19120,7 @@
     </row>
     <row r="678" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A678" s="40">
-        <v>46722</v>
+        <v>46692</v>
       </c>
       <c r="B678" s="20"/>
       <c r="C678" s="13"/>
@@ -19134,7 +19138,7 @@
     </row>
     <row r="679" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A679" s="40">
-        <v>46753</v>
+        <v>46722</v>
       </c>
       <c r="B679" s="20"/>
       <c r="C679" s="13"/>
@@ -19152,7 +19156,7 @@
     </row>
     <row r="680" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A680" s="40">
-        <v>46784</v>
+        <v>46753</v>
       </c>
       <c r="B680" s="20"/>
       <c r="C680" s="13"/>
@@ -19170,7 +19174,7 @@
     </row>
     <row r="681" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A681" s="40">
-        <v>46813</v>
+        <v>46784</v>
       </c>
       <c r="B681" s="20"/>
       <c r="C681" s="13"/>
@@ -19188,7 +19192,7 @@
     </row>
     <row r="682" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A682" s="40">
-        <v>46844</v>
+        <v>46813</v>
       </c>
       <c r="B682" s="20"/>
       <c r="C682" s="13"/>
@@ -19206,7 +19210,7 @@
     </row>
     <row r="683" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A683" s="40">
-        <v>46874</v>
+        <v>46844</v>
       </c>
       <c r="B683" s="20"/>
       <c r="C683" s="13"/>
@@ -19224,7 +19228,7 @@
     </row>
     <row r="684" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A684" s="40">
-        <v>46905</v>
+        <v>46874</v>
       </c>
       <c r="B684" s="20"/>
       <c r="C684" s="13"/>
@@ -19239,6 +19243,24 @@
       <c r="I684" s="9"/>
       <c r="J684" s="11"/>
       <c r="K684" s="20"/>
+    </row>
+    <row r="685" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A685" s="40">
+        <v>46905</v>
+      </c>
+      <c r="B685" s="20"/>
+      <c r="C685" s="13"/>
+      <c r="D685" s="39"/>
+      <c r="E685" s="9"/>
+      <c r="F685" s="20"/>
+      <c r="G685" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H685" s="39"/>
+      <c r="I685" s="9"/>
+      <c r="J685" s="11"/>
+      <c r="K685" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -19410,7 +19432,7 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>152.6570000000001</v>
+        <v>151.6570000000001</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>

--- a/REGULAR/ROCILLO, CECILIA.xlsx
+++ b/REGULAR/ROCILLO, CECILIA.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="787" uniqueCount="429">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="430">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1321,6 +1321,9 @@
   </si>
   <si>
     <t>4/20,26/2023</t>
+  </si>
+  <si>
+    <t>7/4-7/2023</t>
   </si>
 </sst>
 </file>
@@ -2192,7 +2195,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2235,7 +2238,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2299,7 +2302,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2359,7 +2362,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2425,7 +2428,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2488,7 +2491,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2586,7 +2589,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2645,7 +2648,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2710,7 +2713,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2753,7 +2756,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2828,7 +2831,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3014,7 +3017,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3080,7 +3083,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3138,7 +3141,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3204,7 +3207,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3260,7 +3263,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3335,7 +3338,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3378,7 +3381,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3444,7 +3447,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3500,7 +3503,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3598,7 +3601,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3661,7 +3664,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4110,7 +4113,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A614" activePane="bottomLeft"/>
       <selection activeCell="B2" sqref="B2:C2"/>
-      <selection pane="bottomLeft" activeCell="K625" sqref="K625"/>
+      <selection pane="bottomLeft" activeCell="I626" sqref="I626"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4275,7 +4278,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>49.997000000000085</v>
+        <v>51.247000000000085</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -4285,7 +4288,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>101.66</v>
+        <v>98.91</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -18145,13 +18148,15 @@
       <c r="B624" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="C624" s="13"/>
+      <c r="C624" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D624" s="39"/>
       <c r="E624" s="9"/>
       <c r="F624" s="20"/>
-      <c r="G624" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G624" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H624" s="39">
         <v>2</v>
@@ -18186,7 +18191,9 @@
       <c r="A626" s="40">
         <v>45108</v>
       </c>
-      <c r="B626" s="20"/>
+      <c r="B626" s="20" t="s">
+        <v>94</v>
+      </c>
       <c r="C626" s="13"/>
       <c r="D626" s="39"/>
       <c r="E626" s="9"/>
@@ -18195,10 +18202,14 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H626" s="39"/>
+      <c r="H626" s="39">
+        <v>4</v>
+      </c>
       <c r="I626" s="9"/>
       <c r="J626" s="11"/>
-      <c r="K626" s="20"/>
+      <c r="K626" s="20" t="s">
+        <v>429</v>
+      </c>
     </row>
     <row r="627" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A627" s="40">
@@ -19432,7 +19443,7 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>151.6570000000001</v>
+        <v>150.1570000000001</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>
